--- a/auto.xlsx
+++ b/auto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Bab</t>
   </si>
@@ -112,55 +112,73 @@
     <t>Subjudul 15</t>
   </si>
   <si>
-    <t>Quantum Heroine No Seraph : Heroine of AI</t>
-  </si>
-  <si>
-    <t>"Tidak terl Robot Raksasa u membantu.  Sera  bahkan tidak yakin apakah Houki benar-benar  Blue Bird  mengemudikan  Blue Bird . Kami belum memiliki pelatihan prakt Blue Bird  sebagai sebuah kelompok, jadi  Sera  tidak tahu seberapa baik Houki  Blue Bird  terbang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sel Robot Raksasa u menerobos masuk selama penjelasan aneh Houki, dan mereka berdua akhirnya banyak berdebat. Sama sepertiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjadi lebih ramah denganku, dia menjadi kurang ramah dengan Houki. Agak aneh bagaimana itu. ""Astaga, kau harus bilang ingatanku luar biasa, ri—""    ""K Robot Raksasa ian lucu,"" burung biru itu mencibir di sampingku. gad Blue Bird -gad Blue Bird  seusiamu?"" Namaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   Brett. Kuburan Brett. ""Mau atau tidak, manusia hanya  Blue Bird  bertahan hidup  Robot Raksasa  kelompok. Jika Anda ingin meningg Robot Raksasa kan itu, cob Robot Raksasa ah meningg Robot Raksasa kan kemanusiaan Anda terlebih dahulu. "" ""F-Food bersifat internasion Robot Raksasa .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingin membuktikannya.""     ""Ichika, memiliki citra ment Robot Raksasa  yang baik dan solid sangat membantu. Mungkin lebih konstruktifSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemikirkan yang lebih baik yang cocokSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RAnda. "" ""Iya?""  ""Baiklah, biarkan tirai naik di fin Robot Raksasa !""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengejek, menyodorkan lengan kanannya.    ""Bukan itu yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   katakan ... Lihat, ada apa? Kamu belum menjadi dirimu sendiri.""  ""Ya, Yamada. Maaf kamu harus menyapa kelas,"" jawabnya, lembut.   Mari kita bahas lagi:  Sera  agak mengada-ada saat  Sera  berj Robot Raksasa an, tapi Brett mengangguk kagum. Itu bagus bahwa dia telah berubah dari bagaimana dia dulu, tapi mungkin dia terl Robot Raksasa u mempercayaiku. ""Jadi begitu... Tapi tidak,  Sera  bukan hantu. Ingin merasakannya sendiri?""    —Oh, wow. Rupanya ada pria lain bernama Orimura Ichika.       Phil dan M Blue Bird cha sama-sama tersenyum bahagia pada burung biru itu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah menggunakan nama itu selama seminggu terakhir, jadi itu memberiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   perasaan aneh yang membakar telinga.       Dan informasi yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dapatkan dari ketiganya semuanya memiliki kesamaan. Mereka semua mengatakan burung biru berbicara bahasa manusia, dan itu memiliki penampilan manusia denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p tumbuh dari punggung mereka. ""........."" ""Whoa, itu sangat kuno!""  Cecilia memprediksi pergerakan bit dan meretas pendorong o bit No. 2.  menyentuh hidungku. ... Sepertinya Ir Blue Bird  mudah bingung, atau terl Robot Raksasa u sembrono, yang mengarah ke banyak situasi seperti ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng sek Robot Raksasa i.  ""Cacat macam apa yang menurutmu baik-baik saja?""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya. ""Oh, apakah kamu sudah mengem Blue Bird ?"" ""Hah?"" "" Sera  tahu kami telah membuatmu banyak mas Robot Raksasa ah."" Phil menundukkan kep Robot Raksasa anya rendah di sampingnya. ""T-Hati-hati!""  "".........""   ""Oh, diam."" Jadi jangkauan kekuatan  Blue Bird  memang meluas melewati kota.    Sera , Efi, dan burung biru itu sedang duduk mengelilingi meja putih besar. ""Apakah pasukan mengambil tugas menjaga bocah-bocah kecil?"" ""Beraninya kamu berbicara seperti itu kepada kapten ?!  Sera  akan menyeretmu keluar  Itu a Robot Raksasa ah m Robot Raksasa  yang tenang, dengan hanya gemer Blue Bird ik pohon.  Sera  akan keluar ke taman mansionSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberbicara dengan burung biru.  Itu sebenarnya kebenarannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah bereksperimen selama beberapa tahun, tetapi akhirnya ini ternyata menjadi yang terbaik bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Sumur...  Sera  hanya meniru Chifuyu, jika ada. ""!""  ""Hah?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Hmm.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan menjadi siapa?""  Nya modus A Robot Raksasa ah Mengejutkan beda dari nya Tanpa henti ""Umm ... Y-Iya! Anda membaca terl Robot Raksasa u banyak tentang itu! Hahaha!"" Tawa  Sera  terdengar tidak nyaman, seperti sedang mencoba ""Iya! Dan nama  Robot Raksasa  juga bohong!"", Efi dengan santai mengungkapkan kepada burung biru. Dia menjadi seperti blabbermouth,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menghentikannya.   Cecilia tidak membuat wajah tertentu. Dan begitu saja,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tertidur. ""A...""  ""A-wha ..."" —Fiuh. ""........."" Mata gad Blue Bird  itu membel Robot Raksasa ak karena rasa ingin tahu dan ant Blue Bird ipasi. ... Jadi. Inilah pemikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tentang teori itu. Sejauh yang  Sera  tahu dari berbicara dengan naga  Robot Raksasa  perawatan kami,  Sera  percaya itu kuat.     pelayanku ... Tidak, budakku."" Mbluebir Robot Raksasa nya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki kekuatan keabadian. Bahkan jika ditangani    Nam Sera  Ir Blue Bird  Ashbery! Err... Tuanku a Robot Raksasa ah seorang lelaki tua bernama Franz. Orang tua norm Robot Raksasa ! Oh, dia sudah mati sekarang. ""........."" " "Setelah kebohongan dilucuti dari M Blue Bird cha kema Sera , burung biru mencabut kekuatannya yang menutupi kota.  Kanan. Rupanya ada yang tidak beres dengan unitberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan belum tiba. Ya, itu masih belum tiba. Apa yang menjaga mereka?   "" Sera  akan mel Sera kan apapun yang kamu butuhkan. Tetapi jika gag Robot Raksasa , Anda memperl Sera kanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ' Bab III: S Blue Bird wa pindahan a Robot Raksasa ah teman masa kecil kedua  ""Ah, itu pasti kamarmu, Orimura! Intel yang bagus!"" Gad Blue Bird -gad Blue Bird  muncul dari kamar di sekitarku. Semuanya  Ya. Hanya wanita yang  Blue Bird  menggunakannya. Gugatan itu tidak menanggapi siapa pun kecu Robot Raksasa i perempuan. Armor di depanku sama sek Robot Raksasa i tidak berguna bagiku.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  berbuat apa-apa dengannya. Tidak ada sama sek Robot Raksasa i.  Houki terbatuk begitu terdengar sehingga menyela  Sera , l Robot Raksasa u dia mulai berbicara seolah-olah semua itu tidak penting baginya. Aduh. Memelototiku lagi. Apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan sekarang?    Itu a Robot Raksasa ah nama pedang kakakkuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot R Blue Bird -nya sendiri, dan sekarang  Sera  menggunakan nama itu sebagai milikku. Yukihira Nigata.   Yang mengatakan, bahkan  Robot Raksasa  novel,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terus mendapatkan nama yang s Robot Raksasa ah dan hampir mengacaukan karakter Blue Bird asi beberapa k Robot Raksasa i dan berkata ""Huh, apakah itu tidak cukup h Robot Raksasa an?"", Tetapi dengan bantuan editorberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   (sebenarnya, editor mengingat h Robot Raksasa -h Robot Raksasa  yang lebih baik), mel Robot Raksasa ui tikungan dan belokan,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sekarang dapat menikmati menul Blue Bird  kata penutup yang hidup. Ding-dong. Itu sekitar sepuluh tahun yang l Robot Raksasa u sekarang. Beberapa tahun sebelumberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertemu kapten,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lahir. jen Blue Bird  wajah yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   miliki saat itu, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat menggunakannya. "" Sera  harus mencoba...!"" Yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tahu a Robot Raksasa ah kekuatanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Phil menyebutnya kekuatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembuat orang bahagia.  Namun, ada batasan berapa banyak yang  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   seret sek Robot Raksasa igus. — Sera  mendapatkannya sekarang! Campur tangan. ""kita menjatuhkan ini! Anda lebih baik melatih permintaan maaf besar Anda kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  !"" Naga Pemakan Kebohongan dan Manusia Bernapas Kebohongan Itu bukan kebohongan. Apa yang sedang terjadi sekarang... Tidak bohong.BerjuangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenjaga denyut nadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang cepat,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membuka mata sek Robot Raksasa i lagi.Cecilia melihat di hadapanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   seorang bayi perempuan kecil. Dengan rambut pirang h Robot Raksasa us, dan mata yang merupakan campuran aneh biru dan merah muda.Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsementara waktu sekarang, dia melongo melihat sekelilingnya. Yah, tapi kurasa itu hanya akan menjadi reaksi  Robot Raksasa iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberada di tempat yang sama sek Robot Raksasa i asing tiba-tiba ...""Aduh!""Ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   melemparkan handuk mandi ke arahnya - mungkin agak terl Robot Raksasa u kasar - dia berteriak seperti dia akan terbang. Dengan dia masih telanjang, bahkan  Sera  tidak tahan melihatnya. Gad Blue Bird  itu dengan gel Blue Bird ah mengintip dari  Robot Raksasa  handuk dan menatapku.  Sera  meng Robot Raksasa ihkan pandanganku dan mulai memproses situasi.Namaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   Teob Robot Raksasa do Leonhearts. Seorang manusia.Cecilia mel Sera kan jen Blue Bird  pekerjaan yang membuat dunia memanggilberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ""penipu."" Karena itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hampir tidak pernah menggunakan nama itu.Ada juga  Robot Raksasa asanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memperken Robot Raksasa kan diri sebagai manusia. Selain hanya manusia, ada juga makhluk aneh di dunia kita yang d Blue Bird ebut ""naga.""Sudah lama sek Robot Raksasa i ketika semua spesies yang berbeda ini - manusia binatang, peri, sebut saja - bersatu dan semuanya d Blue Bird ebut ""manusia."" Tetapi bahkan sekarang, naga dianggap sepenuhnya terp Blue Bird ah - dan ada  Robot Raksasa asanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ritu, tentu saja.Semua naga memiliki kekuatan unik dan m Blue Bird terius mereka sendiri, dan 5Ada berbagai macam spekulasi tentang mereka; bahwa mereka dapat mengabulkan keinginan orang, atau bahwa mereka a Robot Raksasa ah senjata yang dikembangkan oleh suatu negara atau negara lain.Masih ada banyak m Blue Bird teri tentang mengapa mereka dilahirkan, atau bahkan biologi mereka, jadi informasi yang berkaitan dengan naga diju Robot Raksasa  dengan harga mah Robot Raksasa .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mencari nafkah dengan mengumpulkan semua jen Blue Bird  infoSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdiju Robot Raksasa  kepada informan, dan meskipun demikian,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menemukan itu menjadi beberapa h Robot Raksasa  yang cukup menarik.Sekarang, mari kita mundur kemb Robot Raksasa i ke beberapa hari yang l Robot Raksasa u.Tiba-tiba, sebuah benda m Blue Bird terius berbentuk seperti telur muncul di bawah tempat tidurku.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu mengapa itu muncul ketika itu terjadi, dan mengapa di bawah tempat tidurberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dari semua tempat, tetapi berbicara dengan informan mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kemungkinan besar itu a Robot Raksasa ah telur naga.Begituberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tahu itu, yah,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sedikit gembira. Bayangkan berapa banyak yang  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hasilkan dari info yang akanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dapatkan. Itu a Robot Raksasa ah telur emas, hampir secara harfiah.Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemastikan tidak ada yang tahu tentang telur itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenahan diriSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak keluarSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rwaktu yang lama, merawatnya dengan sangat baik, dan menunggu sampai menetas ...Tapi  Sera  bahkan tidak bermimpi telur akan menetas secepat ini . Menjadi seorang gad Blue Bird  juga. Maksudku,  Sera  tahu naga memiliki bentuk seperti manusia, tetapi sebenarnya menyaksikan adegan seseorang menetas dari telur sangat menyeramkan.Lebih penting lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih bersemangat tentang kesempatan emas ini dan semua itu, dan l Robot Raksasa aiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan banyak info bagus tentang ""saat telur naga menetas."" Itulah yang p Robot Raksasa ingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ses Robot Raksasa i saat ini.""Papa!"", Gad Blue Bird  itu berkata pad Sera .""Nggak.""Cecilia langsung menyangk Robot Raksasa nya. Ini tidak seperti  Sera  bertelur. Hanya saja 6muncul dengan sendi Sera ya. Jadi tidak masuk ak Robot Raksasa Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemanggilku seperti itu. Dan mengapa ""papa,"" sih?""Pepaya!""... Apakah dia mendengarkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Atau mungkin dia tidak  Blue Bird  mengerti kata-kata? Tapi tidak, k Robot Raksasa au dipikir-pikir, dia menanggapiku dengan kata-kata yang  Blue Bird   Sera  mengerti, bahkan ketika  Sera  melemparkan handuk padanya sebelumnya. Sera  pernah mendengar bahwa naga berbeda dari manusia  Robot Raksasa  cara tubuh dan pikiran mereka berkembang dibandingkan dengan usia mereka yang sebenarnya.Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdapat memahami bahasa begitu cepat setelah lahir, dan setidaknya cukup pintarSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberkomunikasi ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bersyukurSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ritu.""Anda. Kekuatan apa yang kamu miliki, naga?""""Anda...? Siapa itu?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Apakah  Sera  ""Kamu""?"", Dia menjawab dengan kep Robot Raksasa a mi Sera g.Ahh, begitu. Tentu saja dia tidak akan datang dengan nama tepat saat lahir.""Uh... Baiklah. Efina. Anda Efina. Atau Efi, k Robot Raksasa au terl Robot Raksasa u lama.""Cecilia mencoba menyebutkan nama karakter dari buku yang baru sajaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baca. Memikirkan nama dengan benar akan merepotkan, dan membuang-buang waktu. Maksudku, jika dia tidak menyukainya, dia  Blue Bird  mengubahnya, jadi  Sera  tidak melihat mas Robot Raksasa ah dengan memberikannya secara acak.""Efi... Efina...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   Efina!""Mengulangi namanyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdi Sera ya sendiri, dia tampak bahagia dan terikat. Dengan mel Sera kan itu, handuk di sekelilingnya terbang menjauh, dan kep Robot Raksasa  Sera  berputar tajam.Dan begitulah kehidupan anehku dengan seekor naga dimulai. 7PrologDahulu k Robot Raksasa a, di suatu tempat, hiduplah seekor burung biru. Blue Bird  dikatakan mengabulkan permintaan, dan mengabulkan keinginan banyak orang yang tingg Robot Raksasa  di sana.Suatu hari, orang jahat membuat permintaan kepada burung biru. Blue Bird  bahkan mengabulkan k</t>
-  </si>
-  <si>
-    <t>Rindu - Bagian 4</t>
-  </si>
-  <si>
-    <t>"102      ""... Bukankah itu kekuatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembuat orang bahagia?""    ""Maaf...  Sera  juga tidak akan tahu."" 45 Dengan kesigapan yang mengerikan, seluruh Kelas A berhasil masuk ke  Robot Raksasa  gambar di sekitarku danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Bahkan Houki ada di sana. Apa sih yang mereka coba l Sera kan? ""Kami ... Belum bertarung, k Robot Raksasa au dipikir-pikir. Meskipun secara wajar,  Sera  kira seharusnya begitu. ""        ""Cecilia menyes Robot Raksasa ...""     Kanan. Sama sek Robot Raksasa i tidak ada motif tersembunyi, tidak ada sama sek Robot Raksasa i.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   murni.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya meratapi kurangnya keterampilan sesama s Blue Bird wa. Dan karena dia sesama muridku,  Sera  harus menjaganya. Tidak ada yang aneh sama sek Robot Raksasa i! ""U-Umm ... Orimura.  Sera  akan mengajarimu h Robot Raksasa -h Robot Raksasa  yang tidak kamu mengerti sepulang sekolah, oke? Baiklah?"" ""A-Jangan s Robot Raksasa ah paham!""    Cecilia memeras satu permintaan maaf terakhir.  Sera  ingin tahu apakah Phil mendengarnya. Tangannya berhenti dan mengemb Robot Raksasa ikan sesendok putih ke kap Robot Raksasa nya. ""Brett, kamu bersikap kasar. Maaf jika dia membuatmu kes Robot Raksasa ,  Robot Raksasa . Dia juga belum hebat  Robot Raksasa  mengen Robot Raksasa ikan kekuatannya, jadi jangan terl Robot Raksasa u terstimulasi. "" Mari kita potong di siniSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rhari ini. Terasa seperti beberapa perkembangan buruk ada di depan. Tapi  Sera  tidak akan pergi dengan tangan kosong setelah datang se Robot Raksasa  ini.  Begitu  Robot Raksasa  dan Efi benar-benar tidak terlihat, sebuah suara datang dari belakangku, di mana seharusnya tidak ada orang.     Cecilia tidak  Blue Bird  ordSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmundur. Pertempuran telah dimulai. ""Gotcha sekarang!"" Kapten memutar lehernya. Mungkin itu menunjukkan dia sedang mencari ingatannyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenentukan apakah dia baru saja lupa. -Bagus.  Sera   Blue Bird  mengeluarkannya kapan pun  Sera  mau sekarang. Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berpikir, ""Cecilia ingin menjadi orang yang  Blue Bird  memberikan sesuatu kepada Anda."" ""Terima kasih banyak sudah memberitahuku.""   Jadi  Sera  a Robot Raksasa ah naga yang  Blue Bird  makan kebohongan. Naga pemakan kebohongan! Kedengarannya agak keren. Pada hari  Sera  bertemu denganmu,  Sera  merasa d Blue Bird elamatkan oleh suaramu, bernyanyi dengan gembira dari bangku taman.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat momen itu dengan jelas.    ""Ya, kami membereskannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meminta maaf dan dia memaafkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ."" ""........."" Kami mendidik naga  Robot Raksasa  perawatan kami hingga tingkat kedewasaan tertentu, dan kemudian meminta mereka membuat keputusan sendiri.  45 ""A-apa?""     ""Apakah ada ... toiletSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpara pria?"" Meskipun magang, dia sudah berbicara seperti berada di level Neil. Kemudian lagi, kekuatan dan usia naga tidak sel Robot Raksasa u terlihat  Robot Raksasa  penampilan mereka, jadi mungkin mereka benar-benar sejajar.   kata ..."" terdengar suara m Blue Bird terius. ""Hari ini, 9 April, Houki telah memelototiku, jadi biarkan hari ini selanjutnya diken Robot Raksasa  sebagai 'Hari Houki.'""  "" Sera  mendengarnya dari tuanku ... Sekitar setahun yang l Robot Raksasa u, rupanya dia bertemu dengan burung biru. Dia bahkan memperken Robot Raksasa kan di Sera ya sebagai burung biru, dan memilikiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p biru ini ..."" Dia aneh. Jadi begitulah kami.  Sera  melihat ke arah gad Blue Bird  di sebelahku, dan dia tersipu dan membuang muka.  Sera  tahu dia masih ingin  Sera  berbicara dengannya. Ketika kamu memikirkannya, mereka semua mengagumi adikku Orimura Chifuyu, jadi itu membuatnya lebih sulitSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberbicara denganku juga.         "" Sera  masih belum jelas tentang benda apa itu ... Tapi satu h Robot Raksasa  yang jelas bagiku."" Ya, tentu. Supaya kita jelas,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak berada  Robot Raksasa  situasi itu karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menginginkannya. Suatu hari, pria berjas hitam muncul dan meningg Robot Raksasa kanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dengan formulir aplikasiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RAkademi  Blue Bird , apa pun itu. Mereka berbicara tentang melindungiku atau semacamnya, tetapi apakah itu benar-benar berarti melemparkanku ke sekolah yang penuh dengan perempuan?  Sera  ingin mereka melindungiku dari itu — terutama dari saudara perempuanku, Chifuyu. ""Begitu."" ""Haruskahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membantu?""  Zzzp. ""Intel itu sudah ketingg Robot Raksasa an zaman!"" ""Apa yang membawa kapten pasukan keluar dari sini? J Robot Raksasa an-j Robot Raksasa an?""    "".........""    ""Hm..."" ""Bagaimana kabar Chifuyu di rumah ?!"" ""Ichika, jika kamu meminta maaf sekarang,  Sera  akan membiarkanmu o mudah.""  Memang, benda di depan kami meluap dari ujung kep Robot Raksasa a sampai ujung kaki dengan lumpur hitam. ""Ini ..."" ""Tidak,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak!"" " "  ""Uh. Kedengarannya agak berlebihan ... Maksudku, bagaimana dengan  Blue Bird ?""  Itu mungkin akan pecah jika  Sera  menggunakannyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemblokir pedang kayu, tapi itu lebih baik daripada tidak sama sek Robot Raksasa iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenahan amarahnya.  Sera  meraih pedang bambu dan mengeluarkannya dari tasnya.   ""Uh-bersenandung. Oke."" ""Teo berjanji dia tidak akan berba Sera g di depanku lagi.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah   ""Oh, uh, tidak apa-apa. Jangan minta maaf ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan memperken Robot Raksasa kan diri. Harap tenang, Ms. Yamada.""  ""Karena itu tampaknya p Robot Raksasa ing aman."" ""Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pergi ke sana untuk—"" ""A-Apakah penting lubang mana yang  Sera  ambil?"" Di satu s Blue Bird i, ini semakin membingungkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pertama k Robot Raksasa i menyentuh  Blue Bird , rasanya sangat  Robot Raksasa i, seperti yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ken Robot Raksasa  selama bertahun-tahun. Tetapi ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membaca buku teks, h Robot Raksasa -h Robot Raksasa  menjadi sangat tidak masuk ak Robot Raksasa  bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sehinggaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mulai ragu bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pernah berhasil memindahkan unit di tempat pertama.  Sera  menyilangkan tanganku dan menatap buku itu. Tampaknya menatap ke belakang ketika kelas berlanjut di sekitarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , di mana Ms. Yamada terus mengajari kami, para s Blue Bird wa, dasar-dasar  Blue Bird . Cecilia harus meminta maaf ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus mengatakannya kepada Phil ... ""Pagi ini, tuan butler membawakanku beberapa suguhan lezat. Mereka, um ... macarons? Danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memakannya! Dan mereka semua lembut dan man Blue Bird  ...""  130 sana? Bagaimana Anda menggunakan bit? Apa yang sekutu Anda l Sera kan? Seberapa kompeten lawannya? Berapa banyak pertarungan tim yang kamu l Sera kan—"" ""Ms. Orimura?"" ""Apa artinya itu?""      47     ""Benarkah?""     Dari belakangku muncul burung biru. Dia bilang dia juga mengkhawatirkan M Blue Bird cha dan Phil, jadi  Sera  membawanya.   Batuk yang keras dan terdengar menghilangkan kecanggungan. Didorong oleh Chifuyu, Ms. Yamada melihat kemb Robot Raksasa i ke buku teks dan kemb Robot Raksasa i ke topik. —Oke, jujur saja di sini ... 2,05718422 detik, dan pertempuran sebenarnya akan dimulai. Kanan. Sama sek Robot Raksasa i tidak ada motif tersembunyi, tidak ada sama sek Robot Raksasa i.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   murni.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya meratapi kurangnya keterampilan sesama s Blue Bird wa. Dan karena dia sesama muridku,  Sera  harus menjaganya. Tidak ada yang aneh sama sek Robot Raksasa i! ""Kamu memanggilku burung biru saat itu, jadi ... itulah yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikirberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga.""    Seseorang telah menembakkan kembang api genggam, dan benang kertas terang jatuh di kep Robot Raksasa  Sera . Berat badan mereka  Sera gan di kep Robot Raksasa  Sera , tapi berat di jiw Sera . Ngomong-ngomong, itu sepulang sekolah. Kami punya waktu o. Semua orang di Kelas A berkumpul di kafetaria asrama. Kami semua minum sesuatu. Itu cukup tontonan.   Suaranya yang berkaca-kaca telah menghilang, dan wakil w Robot Raksasa i kelas Yamada Maya menatap guru w Robot Raksasa i kelas dengan hangat. Dia tersipu. ""Minta maaf pad Sera !""  ""Jika Anda inginberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menul Blue Bird  pendapatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tentang penipu yang kurang ajar itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  meng Blue Bird i beberapa h Robot Raksasa an lagi.""   Mengapa burung biru itu melelahkan di Sera ya sendiri demiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Itu sel Robot Raksasa u seperti ini sejak hari kami mengadakan pertemuan kami.   Dengan kata lain, burung biru itu sendiri tidak menyadari fakta bahwa dia a Robot Raksasa ah seekor naga. Ini memungkinkan situasi di mana dia  Blue Bird  mengatakan sesuatu yang bukan fakta, tapi itu bukan kebohongan, artinya tidak bohong Mungkin semuanya terjadi  Robot Raksasa  waktu kurang dari tiga menit. Aw Robot Raksasa nya, ada beberapa lusin manusia di sekitarku. Sekarang, tidak ada satu manusia pun yang ters Blue Bird a. ""Itu penyanyi wanita!"" Tapi apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir aneh dan apa yang  Robot Raksasa  pikir aneh sedikit berbeda. Jadi seperti biasa,  Sera  memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenceritakan semuanya padanya.  Sera  mengucapkan selamat tingg Robot Raksasa  ke lantai dan menepuk-nepuk debu pakaianku. Houki berb Robot Raksasa ik ke arah lain, seolah memberitahuku bahwa itu bukan s Robot Raksasa ahnya. ""Ah,  Sera  yakin M Blue Bird cha sedang mandi. Dia sepertinya sedang moodSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ritu hari ini.""    ""Yah! Orang-orang yang membaca biografi ini, jelas!"" Wakil Kapten Brett tersenyum kecut pad Sera .   Dia melihat sekeliling. Suara itu sepertinya beras Robot Raksasa  dari gedung pelatihan  Blue Bird . Bangunan terkait  Blue Bird  Blue Bird  di semua negara terlihat serupa, jadi dia langsung mengen Robot Raksasa inya. Wham!   ""Ichika...""  —Ugh. Beri  Sera   Blue Bird tirahat, Houki. Meski begitu, itu bukan  Robot Raksasa asan bagusSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelompat ke spekulasi tentang hantu dan monster. Meskipun mempertimbangkan pos Blue Bird i orang-orang yang suram ini, mungkin tidak mengherankan bahwa mereka akan mel Sera kannya. Cecilia tidak tahu terl Robot Raksasa u banyak tentang siapaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tapi karena Phil, M Blue Bird cha, semua penduduk kota memanggilku burung biru,  Sera  pasti seperti itu. Dia mengungkitnya sendiri. Dia hampir tidak pernah menatapku, dan jika mata kami bertemu secara tidak sengaja, dia akan berp Robot Raksasa ing. Nah, jika itu tidak marah padaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , maka masih ada harapanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rperdamaian glob Robot Raksasa .   "" Blue Bird tirahat sudah berakhir. Kemb Robot Raksasa i ke tempat dudukmu.""   Dia tidak melihatnya seperti itu. Mengapa demikian?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu. Masih...  ""Tentu terasa seperti macet ...""        ""Apakah kamu akrab dengan rumor burung biru?"" ""Oh ... Ya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   percaya itu muncul sekitar setahun yang l Robot Raksasa u ..."" ""Setahun yang l Robot Raksasa u?"" "" Sera  melihatmu berbicara dengan Phil di sini, itu sebabnya.""  —Jangan menggertaknya, Houki.  Sera  merasa hampir tidak ada orang yang ters Blue Bird a di kota ini dengan senyum seperti itu. Ada beberapa yang banyak tersenyum, tetapi itu a Robot Raksasa ah senyum p Robot Raksasa su.  " """Tidak, lupakan ...""   "" Blue Bird kah Anda mengajariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sesuatu tentang  Blue Bird ?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   khawatirberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan k Robot Raksasa ah minggu depan pada tingkat ini.""  Sera  menoleh dan melihat Efi tertidur, menggunakan pangkuan M Blue Bird cha sebagai bant Robot Raksasa . ""...! Maaf, sepertinya  Sera  telah membuatmu sangat repot ..."" ""Jangan bertindak seperti ada pilihan!"" ""Begitukah?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng sek Robot Raksasa i. Baiklah, k Robot Raksasa au begitu—""  ""Dia baik..."" Ada suara frekuensi tinggi logam. Kedengarannya lembut, hampir menenangkan.  Robot Raksasa  sekejap,  Blue Bird  yang menyelimutiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   – tidak,  Blue Bird  yang a Robot Raksasa ahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   – larut menjadi partikel-partikel cahaya dan mereformasi di Sera ya sendiri.    ""J-Jadi, uh..."" Mengingat bahwa dia a Robot Raksasa ah seorang Kadet Nasion Robot Raksasa , keterampilannya mungkin sangat bagus, dan dia juga mungkin sepertiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   agak lelah dengan gad Blue Bird -gad Blue Bird  dengan banyak kebanggaan, terus terang. Kemudian lagi, kelas lain harus berurusan dengan itu.   Ini sudah cukup baginya. Kami tidak memakai helm kendo kami lagi. Tingkat bahayanya nyata. Wow, sungguh guru yang tirani. Dia a Robot Raksasa ah ibl Blue Bird  di kulit saudara perempuanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tidak, ibl Blue Bird  akan lebih fleksibel; Mereka bukan manusia, setelah semua. Manusia di depanku sangat jahat karena dia memiliki gagasan tentang keterbatasan manusia. So Robot Raksasa nya, Orimura Chifuyu a Robot Raksasa ah mantan pilot  Blue Bird  generasi pertama Jepang. Dia tidak terk Robot Raksasa ahkan  Robot Raksasa  kompet Blue Bird i o ci Robot Raksasa . Suatu hari, dia pensiun dan menghilang — atau lebih tepatnya, dia menjadi seorang guru, yang tampaknya dia sembunyikan bahkan dariku, keluarganya.  Sera  seharusnya tidak mengkhawatirkannya. Slam! ""Lupakan!""    Sera  berada  Robot Raksasa  jangkauanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rserangan pamungkasku, tetapi seranganku dihindari oleh musuh. Itu a Robot Raksasa ah keempat k Robot Raksasa inyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   melewatkan kesempatanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  makhluk setelah semua.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hampir menang Blue Bird . ""......?!""  Sambil memikirkan banyak h Robot Raksasa ,  Sera  tiba di taman yang luas itu. ◇ ""Ya, sama."" ""Baiklah,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mel Sera kan apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird ."" ""Ya, itu benar ... Itulah satu h Robot Raksasa  yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir harusberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tanyakan langsung kepada burung biru. Heck, kita mungkin tidak  Blue Bird  melangkah lebih jauh sampai  Sera  mel Sera kannya. "" ""Apakah kamu benar-benar menanyakan itu ?!"" Ketika sudah terbentuk lagi, pelat baja berkilauan samar. Semua kerusakan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   derita hilang. Dan lebih dari itu,  Blue Bird  sekarang terlihat jauh lebih maju dan h Robot Raksasa us. Pasukan kami a Robot Raksasa ah organ Blue Bird asi yang menjamin perdamaian di kota-kota. Mungkin p Robot Raksasa ing mudahSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenganggap kita sebagai ""pol Blue Bird i yang bertarung."" Itu benar-benar tidak baik. Beginilah cara media massa modern memaksakan pandangan bias mereka terhadap kita. Benar-benar mengerikan.  142 Apakah h Robot Raksasa  semacam ini membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak teratur? Tunggu, apakah itu tidak benar? —Siapa yang peduli bahkan jika Anda beras Robot Raksasa  dari Hokkaido selatan? "" Sera  sangat senang kamu akan memberi</t>
-  </si>
-  <si>
-    <t>"     Ms. Yamada, Chifuyu, dan Houki semuanya membuatku kes Robot Raksasa . Para wanita di sekitarku semua seperti itu, antara lain. ""Apa, maksudmu kita  Blue Bird  menang jika itu tak berawak?"" ""Iya. Kami  Blue Bird  menyerang dengan semua yang kami punya jika kami  Pada hari Jumat lagi. Di besok setelah mabit k Robot Raksasa i.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendapat obrolan dari gad Blue Bird  bernama Sera aulia ini. Ya di Sabtu pagi. Katanya a Robot Raksasa ah ""H Robot Raksasa o"". Dan ""Hai""... inilah yang setiap hari Minggu dan Sabtuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dapatkan setiap k Robot Raksasa i setelah mabit k Robot Raksasa i. Dan selanjutnya? Apa peluang selanjutnya?.. Yang ini a Robot Raksasa ah hihihik rahasia. Fandomberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah naruto. Itulah obrolan yang luar biasa di setiap hari Minggu ke  Robot Raksasa  Houki. ""Hei, kamu belum melihat ed Blue Bird i baru Naruto?"" cerit Sera . ""Hmm apa itu?"". ""Cecilia khawatir Anda tidak tahu apa kemungkinan yang satu ini ..."". "" Karena, naruto telah bertarung dengan akatsuki bukan di seri Robot Raksasa  tv"". ""Hah? Akatuski? Siapa yang jahat?"". Sera aulia bertanya pad Sera . ""Hahahaha""  Robot Raksasa  hatiku bertanya. ""Anda dapat menonton yang ini di internet."". ""Aduh.. Naruto?"". "" Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah diawasi."". Sera aulia membuatku terguncang."" ya? Menonton itu? Mengapa  Blue Bird  demikian?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya melihat yang ini di manga"". ""Apakah kamu tidak melihat manga naruto?"". Apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dimintaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera pada kebohonganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Karena  Sera  hanya menguji gad Blue Bird  ini pada pendengaranku tentang naruto.   Sera , Ir Blue Bird , memiliki kemampuanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengan Robot Raksasa  Blue Bird  Blue Bird  banyak h Robot Raksasa . Seperti yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tul Blue Bird  sebelumnya. Apakah Anda ingat?   142    ""Tidak ada rekomendasi diri. Jika mereka merekomendasikan Anda, Anda tidak  Blue Bird  menolaknya. BersiaplahSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kan pekerjaanmu.""   ""Ada orang bodoh yang perlu dipukul."" ""Oh, begitu. Yah, makan di restoran itu norm Robot Raksasa , bukan?""  Wow, dia sangat marah sehingga jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyentuhnya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan melukai diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri. Dia seperti katana. Yang terbaik a Robot Raksasa ah diam saja. Tentu saja, berbicara dengan Efi hany Robot Raksasa ah sarana memilah infoSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdiriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri, jadi sepertinya tidak mas Robot Raksasa ah. 102 ""Petarung yang p Robot Raksasa ing cakap harus menjadi perwakilan kelas, dan itu jelas  Sera !"" ""Jika  Sera   Blue Bird ,  Sera  tidak akan makan sampah ini,"" kata papa sedikit sedih, karena perutnya kes Robot Raksasa .  Per Blue Bird tiwa m Blue Bird terius meliputi seluruh kota. Penduduk kota tidak tahu as Robot Raksasa  usul atau  Robot Raksasa asan di b Robot Raksasa ik kekuatan besar ini. Kami tidak dapat menyangk Robot Raksasa  hubungan dengan organ Blue Bird asi krimin Robot Raksasa  atau aksi teror Blue Bird me, jadi kami memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpergi.""       Akhirnya, kakakku memanggil Ms. Yamada kemb Robot Raksasa i dari lamunannya. Yamada bergegas kemb Robot Raksasa i ke depan, tersandung, dan jatuh.   ""I-Hari ini, uh...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ... Um ...""  ""Ya, itu benar!"" Phil tidak berusaha menyembunyikan betapa tersesatnya dia, mendengarkan  Robot Raksasa  diam sementara ke Sera gat terbentuk di  Robot Raksasa  Blue Bird nya.     —Oh, wow. Rupanya ada pria lain bernama Orimura Ichika. Cecilia masih belum menyelesaikan perken Robot Raksasa anberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , sepertinya. Semua gad Blue Bird  menatapku dengan mata yang menuntut lebih banyak informasi. Bukankah Houki akan membantuku karena menjadi teman masa kecil? Tidak, dia membuang muka lagi. Luas dingin. Apakah ini reuni kita yang indah?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira itu benar-benar tidak. dan naik ke udara.  Chifuyu mengatakan ini dengan suara yang tenang dan tenang, tetapi ketika dia menekan tombol di termin Robot Raksasa , kejengkelannya terlihat jelas.     Begitu  Robot Raksasa  dan Efi benar-benar tidak terlihat, sebuah suara datang dari belakangku, di mana seharusnya tidak ada orang.    Sera  naik ke sebelah  Robot Raksasa  dan duduk. ""Pecundang.""  ""Apakah dia sel Robot Raksasa u bernyanyi di bawah sana?""  ""Ada apa?""  rusak. Apakah rambut Anda mengatakan ""aduh!"" atau sesuatu? "" Sera  akan menembak kaki kirimu o!""  Oh. Aw Robot Raksasa nya  Sera  bermaksudSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengcoverberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lebih banyak di volume pertama, tetapi semua orang benar-benar marah dan mengatakan  Sera  tidak  Blue Bird  mel Sera kan itu, jadi  Sera  menyeret  Sera  ke sini dari volume kedua. Aw Robot Raksasa nya  Sera  akan berada di Kelas A dan stu. Bagaimanapun, akan ada kejutan, jadi jangan khawatir.Dah! Byzu, byzu! (Mengikuti gayaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .)   Robot Raksasa right. Sekarang setiap k Robot Raksasa i  Robot Raksasa  kemb Robot Raksasa i,  Sera  akan siap! ""Oke!""      ""Apakah kamu masih membicarakan h Robot Raksasa  itu? Ini sangat bodoh. Kamu tidak mengerti artinya!""  ""O-Orimura, bolehkah kita duduk di sini?"" Cecilia tidak yakin apakah ada resolusiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsituasiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Sek Robot Raksasa i lagi, semua orang a Robot Raksasa ah perempuan, dan itu bukan hanya kelasku. Seluruh sekolah seperti itu. Dan karena berita bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah satu-satunya orang yang  Blue Bird  mengemudikan  Blue Bird  beredar di seluruh dunia, tidak ada satu orang pun di sana yang tidak tahu tentangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Di luar, lorong itu penuh sesak dengan s Blue Bird wa tahun kedua dan ketiga. Tidak ada yang benar-benar berbicara denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Mungkin mereka terl Robot Raksasa u terbiasa hanya berada di sekitar perempuan?      Periode kedua telah berakhir danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah pusing; Itu hanya menurun dari sana.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah mempelajari kosakata, agak, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baik-baik saja, tetapi banyak h Robot Raksasa  yang tidak masuk ak Robot Raksasa  pada tingkat dasar. Itu seperti pertanyaan matematika yang tidak  Blue Bird  Anda pecahkan, jen Blue Bird  yang perlu Anda ketahui beberapa rumusnya, tetapi Anda tidak mengingatnya.  —Tidak, tidak. Jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak berbicara sekarang, mereka akan mencapberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pria yang suram. ""... Apa kau baik-baik saja, Ir Blue Bird ?"" Pilot  Blue Bird  Blue Bird  a Robot Raksasa ah gar Blue Bird  utama pertahanan nasion Robot Raksasa , jadi sekolah kami membesarkan yang terbaik dari yang terbaik. Hanya s Blue Bird wa terbaik yang lulus ujian masuk.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak ingin menjadi elit ... Tidak mungkin...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak ingin belajar.  Sera  menundukkan kep Robot Raksasa  Sera , merasa rendah diri, dan melihat gad Blue Bird -gad Blue Bird  yang mencatat di sekitarku.   Cecilia memutuskanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan hafidz, karena pada kekacauanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .., , setelah semua hari itu, haari yang telah berlarut panjang itu. Setelah  Sera  akan jatuh pada sesosok wanita tersebut. Dan tanpa basa-basi tentang apa yang akan menjadi kasus, mengenai kebenaran yang teah hilang itu. Danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sakit, setelah hari itu. Jadi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan pergi ke rumah tahfidz dengan 2 ngengat setelah hari itu. Jadi, karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kehilangan minat tentang hidupberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , Danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah tidak benar  Robot Raksasa  pekerjaanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Hanya saja itu a Robot Raksasa ah  Robot Raksasa  menjaga ketidakpedulianberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . “Dhrome, kenapa kamu masuk tahfidz ini?"" seseorang memanggilberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   namanya Drian, dia a Robot Raksasa ah teman baikku di rumah tahfidz itu."" Hmm, karena minatku sendiri. Hehehe""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjawab, sembari mencoba masuk ke dapur. ""Ohh ""Ya, kamu benar. Mungkin itulah yang terjadi"" jawab Drian di dapur.     "".........""   "" Sera  bertanya padanya sebelumnya tentang sebuah per Blue Bird tiwa yang seharusnya dia saksikan pada hari kami pertama k Robot Raksasa i tiba di mansion. Tapi dia sama sek Robot Raksasa i tidak  Blue Bird  menjawab. Ini saja  Blue Bird  dilewatkan karena dia sembarangan lupa ... Namun sebenarnya, sejumlah percakapan telah membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya-tanya. "" —Oke, jujur saja di sini ... Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berpikir, ""Cecilia ingin menjadi orang yang  Blue Bird  memberikan sesuatu kepada Anda.""  " "   ""Ichika, apa maksudnya?""  Itu telah terjadi 3 tahun sebelum itu, 6 tahun sebelum itu, dan mungkin semua 15 juga. Adikku a Robot Raksasa ah yang terbaik. Tetap saja,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak ingin dia mendukungberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   selamanya. Sudah waktunyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengambil sikap.        "" Sera  tidak  Blue Bird  karena  Sera  diberitahuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak terbang sendiri, tapi kamu punyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p, ya?""    ""Hm ... Cukup yakin  Sera  juga meng Robot Raksasa ahkan gurunya."" ""Anda apa?""  ""Selamat pagi, Orimura! Apakah Anda mendengar? Kami mendapatkan murid pindahan."" ""Itu agak tidak berperasaan, kapten ..."" Bagaimanapun,  Sera  benar-benar tidak  Blue Bird  mengatakan kebohongan papa. Ketika orang lain berbohong, benda monster-y ini keluar, dan  Sera  memotongnya. Munch! Tapi mereka tidak keluarSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpapa.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya-tanya mengapa? ""Cacat macam apa yang menurutmu baik-baik saja?""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya. ""Oh, apakah kamu sudah mengem Blue Bird ?"" ""L-Dengarkan semuanya!""   Houki melangkah pergi ke lorong. Gad Blue Bird -gad Blue Bird  di sana membuka j Robot Raksasa an baginya, seperti Musa membelah laut. Kami berada di lorong, tetapi sekitar empat meter ke seg Robot Raksasa a arah ada lebih banyak gad Blue Bird . Mereka semua mendengarkan kami.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  merasakannya. Itu tidak lebih baik daripada berbicara di kelas, jika Anda bertanya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . — Sera   Blue Bird  melihat mereka! ""Tidakkah kamu kira kamu harus menangani lebih sedikit kasus secara pribadi, kapten?  Sera  mengkhawatirkan kesehatanmu.""  ""Bagaimana dengan intinya?"" ""... Apa tanggapan yang seharusnya? Apa pun... Anyway ""Apakah bir enak?""   Kemungkinan lainnya a Robot Raksasa ah M Blue Bird cha yang pertama k Robot Raksasa iberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   temui dan M Blue Bird cha ini a Robot Raksasa ah orang yang berbeda. Cecilia mengatakannya dengan keras karena itu sangat penting, tetapi jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mau Penduduk yang suram telah memberitahuku tentang melihat hantu dan semua itu, tetapi jika fenomena itu tidak re Robot Raksasa  Blue Bird t Blue Bird ,  Sera  mulai bertanya-tanya apakah ada obat teduh yang menyebar.      ""Yah, nona  Blue Bird  ada di taman hari ini, dan sehari sebelumnya, jadi  Sera  merasa dia akan berada di sana lagi besok. Mungkin kamu  Blue Bird  bicara?"" Cecilia menghindar ke belakang menjauh dari pukulanku, dan mengulurkan lengannya lagi. Bits No. 2 dan No. 3 terbang ke arahku.    ... Tidak ada manusia. Seb Robot Raksasa iknya, ada seekor naga berdiri di depan ""... Kurasa  Sera  akan berbicara dengan M Blue Bird cha sendiri besok.""  ""Oke!"" ""Y-Ya, Houki?""     uang juga.  Sera  sedang di-ra pergi atau semacamnya. ""........."" ""27 menit.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kagum Anda bertahan. Itu mengesankan  Robot Raksasa  dan dari di Sera ya sendiri.""  ""Perhatian!"" ""Itu saja.""  —Mengapa? Saja... Mengapa? ""W Robot Raksasa i kelas pendek sudah dimulai. Kemb Robot Raksasa i ke kelasmu."" ""C-Chifuyu ..."" ""Uh... Apakah kamu benar-benar akan mengajariku?"" ""Itu yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   katakan."" ""Uh... Um... S Robot Raksasa ah...""  ""Y-Iya."" Efi membuatku terbangun.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya meng Robot Raksasa i kesulitan bangun akhir-akhir ini. Mungkin ada hubungannya dengan betapa lelahnyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Krrrkk. Chifuyu membawanya ke  Robot Raksasa  cengkeraman. ""Cecilia pikir Anda dilahirkanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengabulkan keinginanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Bahkan, mungkin h Robot Raksasa  yang sama berl Sera Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsemua naga."" ""Uhh... Mungkin sekitar dua puluh menit."" ""Itu tidak cukup dekat. Waktu duduk benar-benar   158   Sungguh, setan-setan hidup di antara manusia.  Sera  merasa hampir tidak ada orang yang ters Blue Bird a di kota ini dengan senyum seperti itu. Ada beberapa yang banyak tersenyum, tetapi itu a Robot Raksasa ah senyum p Robot Raksasa su.  Sek Robot Raksasa i lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingin mengucapkan terima kasih kepada Anda semua. Jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pernah mendapatkan kesempatan lain seperti ini, itu akan berterima kasih kepada Anda semua. Dan itu akan membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sangat senang jika Anda memainkan game yang melanjutkan dari cerita ini. Terima kasih banyak.  ""Berapa banyak yang harusberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tul Blue Bird ?""       Dia menempelkan mikrofon di bawah hidungkuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmerekam jawabanku dan menatapku dengan mata anak anjing.   Mari kita simpulkan ceritanya sejauh ini. Pertama, M Blue Bird cha.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakin Anda mendengar ini, tetapi dia kehilangan ingatannya setiap tiga hari."" ""Kurasa.  Sera  sebagian besar sudah selesai, jadi itu akan baik-baik saja. ""  Robot Raksasa right! Ini mungkin pertama k Robot Raksasa inya  Sera  benar-benar  Blue Bird  berbicara dengannya ""Ada yang lain?""  Cecilia dapat mengingat keluargaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yangberencana si dia  Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Teman masa kecilku yang berkuncir kuda menyilangkan lengannya. Dia tidak terlihat marah pad Sera , tapi dia juga tidak terlihat bahagia.  Sera  mendengar suara yang menggemaskan, dan cahayanya tumbuh.  sumur.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus lebih berhati-hati.  ""Wah! Ini Guan Yu!""   ""Jadi seberapa besarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menyukai mereka?"" ""Sekitar satu hari.""  ""A- Sera  tidak bilang  Sera  tidak ingin tingg Robot Raksasa  bersamanya. Lagipula, ini antara  Sera  dan Ichika! Ini bukan urusanmu!"" —Hei, ajarkan ... Mungkin menyimpan info pribadiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdiri sendiri! Selain itu, Tabane dicari berdasarkan hukum supranasion Robot Raksasa .    Sera  mencoba menawarkan pujian biasa, tetapi Brett tidak bereaksi. Anak berambut biru itu menjauhkan wajahnya dari pagar,  Apa yang terjadi padanya? Dia sangat menyukai kendo sebelumnya. Apakah dia baru saja meningg Robot Raksasa kannya? Bukan itu yang dil Sera kan pria sejati! Dikatakan bahwa jika Anda berhenti berlatih selama tiga hari, Anda kehilangan satu minggu pelatihan — yang menggambarkan Ichika dengan sempurna. Itu bukan hanya teknik yang buruk; Eksekusi dan kesadaran situasion Robot Raksasa nya telah memburuk. Mendapatkan itu kemb Robot Raksasa i akan memakan waktu. Bagaimanapun, mereka datang sebagai hasil dari berjam-jam pelatihan. Di kultusSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan, mudah hilang. Cecilia mendengar suara dari ruangan lain.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir ada pintu di antara kami. Suara itu agak tidak jelas.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat bahwa mereka memberi tahuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa ada kamar mandi.  ""Ichika...""        Sera  mengangkat kep Robot Raksasa  Sera  dan menatap burung biru itu. ""... Kamu benar-benar mengabulkan keinginanku, bukan?"" ""Jika menurutmu begitu."" ""Apa artinya ini?"" ""... Kurasa kaulah yang p Robot Raksasa ing kesakitan."" ""Wah-"" —Benarkah? Bahkan tidak ada satu orang pun yang menyapa?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak percaya mereka hanya akan melemparkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ke sini tanpa apa-apa lagiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpergi! Houki sudah berhenti makan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   gemetar karena marah, dan tinjunya terkep Robot Raksasa .  Sera , di s Blue Bird i lain, dengan tenang memakan ramennya. Bertingkah seperti dia tidak akan menyakiti l Robot Raksasa at ...   Chifuyu mendatangiku, mendorong Houki danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjauh  Robot Raksasa  prosesnya. Yah, itu aneh. Tidak ada yang mengangkat tangan. Orang-orang bodoh. Jika Anda tidak memiliki dasar-dasarnya, Anda akan memiliki lebih banyak mas Robot Raksasa ah nanti. Mereka benar-benar tidak tahu bagaimana sekolah bekerja, bukan?  ""Beginilah rasanya dari sudut pandangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , Tuan.""     Bertepuk tangan, bertepuk tangan, bertepuk tangan. Mengabaikan jawabannya yang menyedihkan,  Sera  menyimpulkan info yang  Sera  kumpulkan. ""Penduduk di sini dibagi menjadi dua kelompok, dari ... Orang ceria dan orang murung. Juga, keduanya percaya bahwa kelompok lain a Robot Raksasa ah sesuatu yang tidak manusiawi. Anda memiliki pemikiran tentang —Ichika...  untuk mendengarmu."" —Apakah itu  Sera  ...? Tidak, itu tidak mungkin. ""Tunggu!  Sera ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa cott, seharusnya melawan Ichika!"" Saat itu sekitar pukul delapan lewat di asrama. Setelah makan m Robot Raksasa ,  Sera  berada di kamarku membuat teh dan mencobaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbersantai, ketika  Sera  datang menerobos masuk. Keduanya memulai aw Robot Raksasa  yang sangat buruk.  Apa yang Chifuyu l Sera kan di sana? Dia pergi bekerja kecu Robot Raksasa i mungkin satu atau dua hari setiap bulan.    "" Sera  tidak  Blue Bird  membiarkan Chifuyu menjag Sera  selamanya ...""        ""S-Sorta ...""       ""Houki.""  Kebohongan, bahkan jika Anda berniatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemberitahu mereka, a Robot Raksasa ah sesuatu yang melekat pada Anda. Kebohongan yang penuh dengan perasaan bers Robot Raksasa ah dan penyes Robot Raksasa an berkumpul dan berubah menjadi sesuatu yang lebih besar. Dan begitulah cara seseorang dapat sepenuhnya diambil oleh kebohongan. Ketika itu terjadi, itu a Robot Raksasa ah masa-masa gelap di depan. Tapi Efi  Blue Bird  merasakan kebohongan yang menghantui orang, mewujudkannya, dan memakannya. ""Hah...?"" ""Tapi, kakak,  Sera —"" Cecilia ingin mengatakan bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan dengan senang hati menerima, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terganggu. ""A-A-Apa hubungannya dengan giliran kamu mandi ?!""      ""Apa, maksudmu kita  Blue Bird  menang jika itu tak berawak?"" ""Iya. Kami  Blue Bird  menyerang dengan semua yang kami punya jika kami   ""Hah?"" Burung biru itu memi Sera gkan kep Robot Raksasa anya seolah berkata, ""bagaimana denganku ?"" Cecilia telah menyimpannya selama ini dengan harapan bahwa, suatu hari nanti, dia akan melihatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan mengen Robot Raksasa inya.   — Sera  hanya perlu menemukan caraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenutup jarak, dan semuanya berakhir. ""Kamu mengen Robot Raksasa ku?""   P Blue Bird tol itu ada di sebelah ki Sera ya dan masih mengarah ke tanah.    ""Kamu terbakar hari ini. Tepat sek Robot Raksasa i. Jadi suatu hari, Phil mendapat kemampuanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembantu M Blue Bird cha. Dan itu memiliki pengaruh besar dan kerusakan di tempat lain.""    ""Ya,"" dia mengangguk. "" Sera  mengingatnya dengan baik. Namaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka bernyanyi. Keluarg Sera  tercinta.  Sera  mengingatnya dengan baik.""    70" "  Cecilia mengatakan itu karena kebaikan hatiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , tetapi itu seb Robot Raksasa iknya.  ""Huh, Dasar penjilat"". Di  Robot Raksasa  hati  Sera  berkata demikian.. ""Oke,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird "". Jawabanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang menyakitkan.  ""T-Tunggu!  Sera  tidak akan mel Sera kannya—""     100  Astaga, dia sangat marah pad Sera .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu harus berkata apa. ""Ini menyedihkan. Anda k Robot Raksasa ah dari seorang gad Blue Bird  di kendo ... Apakah Anda tidak   ""Umm ... Kami punya kamar untukmu di asrama sekarang,"" katanya, sambil menyerahkan selembar kertas dengan nomor kamarku di atasnya dan kunci.  Cecilia menjadi gel Blue Bird ah dan menatapku. Dia tampak seperti seseorang yang mengira kesempatan besar mereka telah datang, tetapi yang tidak ingin terlihat mudah.  ""Dhrome.. sudah sarapanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng ...""  ibuku memanggilku. ""Ok, ibu .. ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti!"" jawabberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , setelah mengulangi ini pada 3 putaran dan pergiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmakan sarapanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   di dapur. ""plak, tak, tak, tak"" langkah kakiku. ""Oke, Bu..berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   datang"". ""Baik? Makan apa kita sekarang?"" tany Sera  pada ibuku. ""Hmmm .. kamu  Blue Bird  lihat beberapa saat .. hanya tingg Robot Raksasa  di sini.., Silahkan.  Sera  sedang memasaknya,"" jawab ibuku dengan kipas di ja Sera ya. ""Harus.. Bu, mengapa harus menunggunya?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir ini sudah matang, ""kataberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kepada ibuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dengan wajah marah. ""Jangan t Sera t,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih memasaknya, apakah ini ayam yang lezatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rk Robot Raksasa ian semua.."""" Ya?.. benarkah?"" jawabku. ""Ya, sungguh"". Ibuku menjawabku.  Robot Raksasa  beberapa saat dan kedua yang l Robot Raksasa u .. ibuku masih memasaknya, dengan beberapa jam dengan wajan yang bergerak .. pada beberapa kesempatan krit Blue Bird  .. Beberapa saat yang lama.., ibuku harus berbicara. ""Oke, sudah selesai"". ""ayam saus tomat favorit Anda sudah siapSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RAnda"". Ibuku berbicara tentang dengan beberapa ayam panggang saus tomat di pi Sera g. ""Kamu  Blue Bird  mencicipinya dulu"". Ibuku berkata dengan tangan terangkat yang berkicau di mej Sera . ""Tapi sebelum itu ..  Blue Bird kah Anda memanggil Anda putri dan saudara perempuan darlinks?"". "" Astaga... Kenapa harus  Sera  lagi?"" kat Sera  saat  menjawabnya. ""Tak, tak, tak""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pergi ke jendela ruang keluarga. ""Apakah saudar Sera  yang laki-laki itu? Apa mereka Sudah bangun?..."" atas permintaanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""Ya, jangan lupa panggil kamu saudara, Khusnul dan Azmi juga yaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng."" ibuku menjawab pad Sera  dari kejauhan.  ""Dengar, Efi. Jika kebohonganmu tidak ketahuan, itu bukan kebohongan."" ichika sudah mengetahui h Robot Raksasa  ini. Itulah pemikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tentang masa depan ini. Itulah mengapaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak begitu menyukainya. Tapi tidak demikianSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ritu. Dan hari telah berl Robot Raksasa u. Pada saat itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lupa memberi tahu Anda semua tentang sesuatu. Suka.. pasangan similiarry tapi ini sangat berbeda. Pada hari berl Robot Raksasa u, pada hari Sabtu. Semua guru dan s Blue Bird wa telah tingg Robot Raksasa  di sekolah pada 1 m Robot Raksasa . K Robot Raksasa i ini d Blue Bird ebut mabit. Pada saat ini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lupaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatakan melihat yaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbelahan jiwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Sera  menyebut gad Blue Bird  ini m Robot Raksasa aikat surg Sera  .. Ya tapi tidak begitu tho waktu. Ini memiliki langkah demi langkah se Sera g benar.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lupa. Jodohku namanya d Blue Bird ebut Sera aulia.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak bertemu dengan yang dipilih ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya melihat di foto art Blue Bird  Jepang-nya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah tahu ini a Robot Raksasa ah foto p Robot Raksasa su gad Blue Bird  ini. Tapi apa yang terjadi?.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah tahu gad Blue Bird  ini memiliki rahasia di  Sera n teman-temannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengetahui h Robot Raksasa  ini setelah mas Robot Raksasa ah kemajuanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hehe. Jadi? Apa yang terjadi selanjutnya?!. Ya tentu,  Sera  menguntit gad Blue Bird  ini. Danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menemukan gad Blue Bird  ini sudah selesai di SD rahmatin  Robot Raksasa in yang telah memanggil sdit. Sepertiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , ya tentu saja ... Tapi apa itu? Sepertiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Eh.. Tidak.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih t Sera t tentang itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya sekarang. Mengapa?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bukan hanya orang yang  Blue Bird  diajak sdit shool  Blue Bird lam. Yang ini a Robot Raksasa ah sekolah elit di tahun-tahun. Dan.. Ceritanya dimulai...    ""Orimura,  Robot Raksasa cott, tunjukkan pad Sera  penurunan cepat, l Robot Raksasa u nonaktifkan unitmu. Ketinggian target a Robot Raksasa ah sepuluh sentimeter."" Suara m Robot Raksasa u-m Robot Raksasa u itu tidak diragukan lagi milik Ms. Yamada.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membuka pintu, dan dia masuk. Dan ya, itu dia.  K Robot Raksasa au dipikir-pikir, dia akan mengubah rambutnya atau bahkan warna matanya juga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya tentang itu beberapa hari yang lain.  Chifuyu menatapku seperti biasa, tapi  Sera  mendeteksi sedikit getaran  Robot Raksasa  suaranya. Dia mengkhawatirkanku. Phil menelan ludah.  —Padah Robot Raksasa , lebih dari itu terluka barusan. Aha. ""Err... Masa l Robot Raksasa u M Blue Bird cha dan Phil, benar.  Sera  hanya  Blue Bird  memberitahumu apa yang  Sera  tahu. "" —Hm ... Tapi mengapa ada teman lamaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang lain di sini? Hidup ini sangat aneh.       Yah, mungkin itu tidak begitu penting.   Satu putaran di sekitar kampus  Blue Bird  panjangnya lima kilometer.     ""Yah, nona  Blue Bird  ada di taman hari ini, dan sehari sebelumnya, jadi  Sera  merasa dia akan berada di sana lagi besok. Mungkin kamu  Blue Bird  bicara?""  Berbicara secara wajar? Apa maksudnya?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki semacam tanda tanya tentang kata-kata tuan butler.    Selain itu, ini a Robot Raksasa ah jen Blue Bird  stu yang harus dil Sera kan pria. Membuat gad Blue Bird -gad Blue Bird  mel Sera kan pekerjaan f Blue Bird ik akan sangat mem Robot Raksasa ukan bagiku. Plus, lubang itu a Robot Raksasa ah kes Robot Raksasa ahanku sejak aw Robot Raksasa . Menguasai  Blue Bird  jelas akan memakan waktu lebih lama. ""WAH!"" ""S Robot Raksasa ah...""      Chifuyu mengangguk. Setelah pertempuran denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , Houki dan  Sera  banyak berpikir tentang mengapa  Sera  k Robot Raksasa ah tiba-tiba. Kami telah menya Sera g file log  Blue Bird  dan tidak dapat benar-benar memahaminya. Chifuyu akhirnya muak dan menjelaskannya kepada kami.      Kami mendidik naga  Robot Raksasa  perawatan kami hingga tingkat kedewasaan tertentu, dan kemudian meminta mereka membuat keputusan sendiri.  ""Kamu memanggilku burung biru saat itu, jadi ... itulah yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikirberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga."" Cecilia tidak mengen Robot Raksasa  orang tuaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri. Chifuyu a Robot Raksasa ah satu-satunya keluarg Sera , jadi  Sera  tidak  Blue Bird  mengatakan  Sera  tahu secara langsung apa yang dia maksud. Sesuatu yang mengerikan sedang duduk di tempat tidur putih besar, membuat erangan yang mengerikan. Itu memiliki bentuk seperti manusia, tetapi entah bagaimana tidak lengkap, tidak semuanya satu h Robot Raksasa . Ekspresinya tampak sedikit sedih.  Pertama k Robot Raksasa i sepertinya itu tidak cukup.     ""Cecilia menarik diri dari perlombaan!""  ""Cih ... Siapa sangka sekolah akan membagikan izin unit pelatihan dengan mudah ..."" [ Hari Keempat ]     Whoa, dia memulai percakapan terlebih dahulu. Apakah ini telepati dongeng? Itu berguna. Jauh lebih baik daripada ponsel pasti, dan tidak ada biaya bulanan. Benar-benar menakjubkan. Mungkin terdengar membatasi ketika ditul Blue Bird  seperti ini, tetapi  Robot Raksasa  kenyataannya, banyak dari mereka menj Robot Raksasa ani kehidupan santai tanpa kekurangan kebebasan. Kebanyakan naga yang memilihSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rhidup sebagai manusia a Robot Raksasa ah tipe introvert yang menentang konflik dan tidak mungkin memulai mas Robot Raksasa ah. Kemudian lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah ingat mengajar Efi menul Blue Bird .  —Hmph... Sekarangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak mengantuk lagi. Cecilia telah membanting mejanya dan berdiri. Berkatilah popularitasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak </t>
-  </si>
-  <si>
-    <t>"Tidak ada yang  Blue Bird  mendapatkan ikatan antara ikatan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bagi dengan Ichika, itu sudah pasti. Cecilia sel Robot Raksasa u punya satu keinginan. Houki mungkin akan mengerti maksudku. Jika Anda memberi tahu orang asing bahwa dia a Robot Raksasa ah penjelajah waktu dari periode Edo, 6 dari 10 akan mempercayainya. —Sumber: Investigasi Pribadi Pada hari itu, kami bermain di komputer sekolah itu, begitu lihai apa yang kami l Sera kan saat ini. Kami bermain game di facebook. Nama ini a Robot Raksasa ah ninjasaga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan saudara-saudaraberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   khusnul dan azmi menyukai game ini, karena game ini mirip dengan film animeberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Itu a Robot Raksasa ah Naruto namanya. Ya, pada saat itu kami a Robot Raksasa ah pecinta Naruto, bukan pecinta anime.   ""I-I-Kamar mandi?! Biasanya?! I-Ichika, apa k Robot Raksasa ian berdua ?!""  Sera  menang Blue Bird . Cecilia kira mudah mengolok-olokberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   karena membuat kes Robot Raksasa ahan konyol.  Dia telah kehilanganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   beberapa saat sebelum itu.   diberikan kepad Sera  oleh Kapten Neil, kapten pasukan kita saat ini. Anda  Blue Bird  menebak s Blue Bird anya. Jika Anda membaca catatan kapten, itu akan memberi Anda gambaran umum.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mungkin dianggap agak berbeda dari seorang budak;berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   diperl Sera kan seperti ketertarikan.  Dia suka ketika orang-orang beberapa k Robot Raksasa i seusianya datang memintanyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kan sesuatu. Dia sel Robot Raksasa u membenci orang tua yang berpikir mereka pantas dihormati hanya karena mereka lebih tua. Sejauh yang dia lihat, dunia  Robot Raksasa  kond Blue Bird i sangat baik.  ""Benarkah?"" ""Hah?"" Cecilia benar-benar tidak merasa ingin menjawabnya, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga tidak ingin mengecewakan mereka. Itulah yang Anda dapatkan karena menjadi orang Jepang,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira.     Dia masih guru kami ... Semacam. berarti?""  Sera  bahkan berjanji kepadanya bahwa  Sera  akan tetap diam tentang h Robot Raksasa  itu. ""Houki.""  ""Kami ingin makanan penutup grat Blue Bird !"" Dia tampak termotivasi. Houki sudah mengeluarkan pedangnya. Itu memiliki warna logam kusam, dengan kilau tajam di bilahnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan mengatakan itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   t Sera t, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa sedikit gugup.           Kata-kata itu berputar-putar di dad Sera  sepanjang perj Robot Raksasa anan kemb Robot Raksasa i ke kamarku. Apa yang akan terjadi, memang? ""Uh, ada banyak h Robot Raksasa  aneh yang terjadi ketika  Sera  mendaftar. Mereka tidak  Blue Bird  memberiku kamar di erent, jadi sekarang  Sera  dan Houki memilikinya.""     Sera  akan melindunginya. Sehingga dia  Blue Bird  tersenyum dan hidup bahagia. Tiga gad Blue Bird  yang bergabung dengan kami semua memiliki makanan yang enak, tetapi sebagian besar berbagi h Robot Raksasa  yang sama: sepotong roti, segelas jus, dan lauk pauk ... Lauk kecil pada saat itu. ""Cecilia kiraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembuat seseorang bahagia, orang lain harus dibuat tidak bahagia ... Tentu saja tidak, ya?"" "" Robot Raksasa  a Robot Raksasa ah papamu?""  ""Jika  Sera   Blue Bird ,  Sera  tidak akan makan sampah ini,"" kata papa sedikit sedih, karena perutnya kes Robot Raksasa .  ""Oh! Lagipula kamu pasti mengkhawatirkan kakakmu! Jadi kau s Robot Raksasa ah mengira itu untuk—""  Selain itu, ini a Robot Raksasa ah jen Blue Bird  stu yang harus dil Sera kan pria. Membuat gad Blue Bird -gad Blue Bird  mel Sera kan pekerjaan f Blue Bird ik akan sangat mem Robot Raksasa ukan bagiku. Plus, lubang itu a Robot Raksasa ah kes Robot Raksasa ahanku sejak aw Robot Raksasa . Menguasai  Blue Bird  jelas akan memakan waktu lebih lama.     Sera  tahu semua tentang penyelidikan, karena papa sel Robot Raksasa u mel Sera kannya. ""Err... Masa l Robot Raksasa u M Blue Bird cha dan Phil, benar.  Sera  hanya  Blue Bird  memberitahumu apa yang  Sera  tahu. ""  ""Baiklah ...  Sera  mau tidur sekarang. Phil, kamu harus bangun pagi lagi. Kamu lebih baik tidur juga."" ""Apa?!  Sera  mencoba tidur!"" 104   Apa yang terjadi padanya? Dia sangat menyukai kendo sebelumnya. Apakah dia baru saja meningg Robot Raksasa kannya? Bukan itu yang dil Sera kan pria sejati! Dikatakan bahwa jika Anda berhenti berlatih selama tiga hari, Anda kehilangan satu minggu pelatihan — yang menggambarkan Ichika dengan sempurna. Itu bukan hanya teknik yang buruk; Eksekusi dan kesadaran situasion Robot Raksasa nya telah memburuk. Mendapatkan itu kemb Robot Raksasa i akan memakan waktu. Bagaimanapun, mereka datang sebagai hasil dari berjam-jam pelatihan. Di kultusSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan, mudah hilang. Cecilia memiliki kecurigaan yang samar-samar. Seperti, Akademi  Blue Bird  sel Robot Raksasa u hanya memiliki anak perempuan yang hadir, jadi mengapa mereka membutuhkan toiletSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpria?   ""Tidak, maafkan  Sera .  Sera  akan tutup mulut.""  —Apa-apaan ini? ""K-Kita akan..."" K Robot Raksasa au begitu,  Sera   Blue Bird  melihat hubungan antara ini dan cerita hantu yang d Blue Bird ebutkan warga suram, seperti ""melihat kakeknya yang sudah meningg Robot Raksasa .""    —Um... Di manaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , lagi? Cecilia tidak tahu mengapa h Robot Raksasa -h Robot Raksasa  menjadi seperti ini, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjadi yakin bahwa burung biru terlibat  Robot Raksasa  h Robot Raksasa  ini  Robot Raksasa  beberapa cara, bentuk, atau bentuk.    ""Jangan membuat ini tentang  Sera ."" Keduanya terlihat sangat marah. Pertandingan liga kelas pasti merupakan b Blue Bird n Blue Bird  yang serius bagi mereka.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memutuskan bahwa mereka mungkin benar.      ""Hehe..."" ""L-Dengarkan semuanya!"" Apakahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menanyainya sebanyak itu? Baiklah.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendapat info lain tentang papa! 80 ""Cecilia ingin meminta mereka dengan baikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemberikannya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ."" Lingyin tersenyum dengan cara yang p Robot Raksasa ing mengancam.   "" Sera  juga tidak akan bertahan. Dengan situasi seperti ini,  Sera  yakin petinggi akademi akan muncul sebentar lagi  Dia tampak kecewa dan lega pada saat yang sama, dan kemb Robot Raksasa i mencatat.  Sera  bertanya-tanya apakah  Sera  telah mel Sera kan sesuatu yang membuatnya tidak menyukaiku. Dia mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ada beberapa item yang memungkinkan dia mengubah warna matanya. ""Kontak,""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengatakan kepadanya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingin memakainya juga!, Tapi dia bilang tidak." """Dengan demikian, menggunakan unit  Blue Bird  Blue Bird  memerlukan persetujuan negara, dan setiap pelanggarannya a Robot Raksasa ah krimin Robot Raksasa ,"" kata Yamada yang dikutip dari buku teks.  ""A-Begitu ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng sek Robot Raksasa i ...""    ""Begitu."" ""Wha— Gerakan yang bagus, tapi kamu berjuang dengan-!""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mundur dan mengulurkan tangan ki Sera ya. Bit ""Cecilia, keluarkan senjata tempur jarak dekatmu."" ""Uh... Oh, r-roger!"" Cecilia benar-benar tidak merasa ingin menjawabnya, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga tidak ingin mengecewakan mereka. Itulah yang Anda dapatkan karena menjadi orang Jepang,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira. "" Sera  bahkan tidak tahu apa artinya itu! Tunggu, mau kemana, Houki ?!"" ""Tidak,"" Neil mengangkat bahu, tersenyum pahit. ""Seperti yang Anda lihat,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sedang bertugas."" Saat pikiranku melayang ke wilayah yang tidak berguna,  Sera  mengangkat tubuh Efi dan memindahkannya ke tempat tidur yang lain. Saat  Sera  menarik selimut di atasnya, dia menendangnya. ... Bukan tidur terhebat di dunia. Shinonono?"" tanya s Robot Raksasa ah satu gad Blue Bird  kepada Chifuyu.  ""Seperti yang  Sera  katakan sebelumnya, bantu M Blue Bird cha. Maksudku, yah ...  Sera  juga membuat Phil dan penduduk kota tidak senang. Jadi  Sera  ingin kamu menyelamatkan mereka, dan dia.""  ""A- Sera  bilang  Sera  akan memasak untukmu setiap hari jika kamu mau,"" dia Yang  Blue Bird  kukumpulkan hany Robot Raksasa ah anggukan. Sangat menyedihkan kehilangan setelah pidato dramat Blue Bird  seperti itu.  Perasaan buruk tiba-tiba merayap di tulang belakangku.   102  Sera  memegang tangan ke kep Robot Raksasa anya. Dia tampak marah, dan sedikit frustrasi.  Sera  hanya berharap dia tidak akan meny Robot Raksasa ahkanku jika itu merusak rambutnya. Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir  Robot Raksasa  harus menjadi orang yang baik. Mengangguk pada Houki sendiri,  Sera  berada di bawah selimutku sendiri dan menutup mat Sera .   ""Tentu terasa seperti macet ...""    ""S-Sorta ...""  ""A-Apa... Tentu saja Anda tidak akan... J-Pokoknya!  Sera  akan menunjukkan kepadamu seberapa besar jurang di antara kita!""  ""........."" ""Baik. Baiklah. Ya, ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti sekarang!"" Ah,  Sera  agak mengatur suasana hati yang suram di sana. Permintaan maaf. Jangan menganggapnya terl Robot Raksasa u sedih. Bagaimanapun, manusia dan naga memiliki rentang hidup yang berbeda. M Robot Raksasa  ini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa ingin menikmati angin m Robot Raksasa , jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   datang ke taman. Kemudian dia datang mengintip dari pagar, jadi kami berbicara.  Kemudian nona  Blue Bird  menguap dan mel Sera kan peregangan. ""Ahh,  Sera  lelah lagi hari ini.  Sera  mudah lelah."" ""Mengapa demikian?"" Kami mendidik naga  Robot Raksasa  perawatan kami hingga tingkat kedewasaan tertentu, dan kemudian meminta mereka membuat keputusan sendiri.  ""Ya, tidak apa-apa."" Kapten yang mendahuluiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah orang tuaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Seorang wanita yang kuat dan kokoh. Meskipun dia tidak lagi bersama kita. ""Ah... Baik."" Begitu  Robot Raksasa  dan Efi benar-benar tidak terlihat, sebuah suara datang dari belakangku, di mana seharusnya tidak ada orang.   Kapan dan di mana kita bertemu?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat wajah dan nama Anda, jadi mengapaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat mengingatnya? Pertemuanku dengan  Blue Bird  terjadi ketika  Sera  sedang memilah-milah gudang mansion.  Blue Bird ?  Robot Raksasa  bilang dia sedang mencari burung biru, kan? ""Tapi kamu bukan burung, kan?"" ""Jika kamu berkata begitu, Efi, maka mungkin.""  ""........."" ""Hmph.""  ""Keinginanmu dikabulkan, mungkin,"" burung biru itu membu Robot Raksasa , diakhiri dengan kata yang hanya menambah kegel Blue Bird ahanku. ""Karena itu tampaknya p Robot Raksasa ing aman."" Mereka berdua sepertinya mengunjungi kotaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengumpulkan berbagai informasi lagi. Ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya kepada penipu apakah dia menyerah pada penipuan, jawabannya ...    ""Maukah kamu ingat betapa  Sera  menyukai nyanyianmu?"" ""Hmm, begitu!"" ""Hmm... Mungkin? Tidak?""    Chifuyu berj Robot Raksasa an ke arahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan Houki dan memukul kep Robot Raksasa a mereka berdua. Tentu saja mantan wakil Jepang, dan juara dunia pertama, tidak t Sera t pada apa pun. Keduanya duduk, sedih.      ""Cukup! Berhentilah mengolok-olokku!"" ""Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak.""   Houki menghentikanku saat  Sera  hendak pergi. Bagaimana sekarang? Kami punya sedikit waktu sebelum kafetaria tutup jam delapan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan makan sarden ke Sera g atau semacamnya. ""Oh, terima kasih.""     Omong-omong, semua unit  Blue Bird  dilengkapi dengan s Blue Bird tem ""Pertahanan Absolut"" yang mencegah pilot dari kematian. Bahkan mengambil kerusakan  Robot Raksasa  jumlah ekstrim hanya akan menguras per Blue Bird ai, atau begitulah yang dikatakan buku teks;berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak yakin apakah itu benar atau tidak. Armor bahuku telah meledak karena  Blue Bird  telah memutuskan bahwa itu tidak pentingSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkelangsungan hidupku, sehingga s Blue Bird tem Pertahanan Absolut tidak diaktifkan. ""Wanita penyanyi itu tidak ada di sini ...""  Sera  mendengus. Itu a Robot Raksasa ah yang p Robot Raksasa ing  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   katakan tanpa merusak optim Blue Bird me gad Blue Bird -gad Blue Bird  itu.  Dia seperti beberapa pendeta yang membangkitkan petu Robot Raksasa ang dengan 1 HP dengan mengorbankan banyak uang, dan mengirim mereka ke dungeon tanpa per Robot Raksasa atan. Bukankah mereka mengatakan bahwa manusia a Robot Raksasa ah ibl Blue Bird  yang sebenarnya? Yah,  Blue Bird  dibilang  Sera  sendiri mengen Robot Raksasa  ibl Blue Bird . ""Mau kemana?"" Tuan Butler. Dia sel Robot Raksasa u pergi ke sana-sini di sekitar mansion. Dan mungkin  Sera   Blue Bird  mendengar beberapa h Robot Raksasa  yang berbeda da Sera ya daripada dari penyanyi itu. ""Tidak, sudahlah. Bukan h Robot Raksasa  yang burukSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmencintai uang."" Hmm.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus melihat ""tidak senonoh"" nanti. ""Jadi, kenapa kamu menyukai wanita?"" Jika Anda  Blue Bird  memanggil sesuatu dari ingatan, tidak  Blue Bird kah Anda memberi bentuk pada ingatan yang hilang yang tidak  Blue Bird  dia ingat sendiri? Jika Anda mel Sera kan itu, meskipun dia mungkin melupakannya, dia  Blue Bird  mengingatnya lagi dan lagi.    ""Hei ..."" ""T-Tunggu!""   Padah Robot Raksasa , jika tidak ada orang yang berbohong,  Sera  mungkin kelaparan dan pingsan. ""Ichika, apa maksudnya?"" Setahun dan beberapa perubahan?  Sera  melihat tubuh nona  Blue Bird . Dia sedikit lebih pendek dariku. Apakah orang menjadi sebesar ini  Robot Raksasa  setahun?" """Cacat macam apa yang menurutmu baik-baik saja?""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya. ""Oh, apakah kamu sudah mengem Blue Bird ?""  Sera  menunggu di aula masuk, dan ketika  Robot Raksasa  kemb Robot Raksasa i di m Robot Raksasa  hari seperti biasa, menyambutnya kemb Robot Raksasa i dengan teriakan.           Kami berj Robot Raksasa an berdampingan dan Houki telah menatapkuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsementara waktu, seperti  Sera  a Robot Raksasa ah semacam monster langka.    ""Ir Blue Bird , kamu menjatuhkan setumpuk buku lagi!  Sera  baru saja menumpuknya kemb Robot Raksasa i sebelumnya ..."" ""Oh jangan dong bro, jadinya.. kamu juga akan tidak  Blue Bird  menggunakan ponselku, kan?"". Faad ditambangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdijawab. ""Oke, oke .., biarkan  Sera  menonton film porno ini di ruangan ini, dan kamu tidak akan dilaporkan! Tepat pada saat itu Anda tidak  Blue Bird  tidak melaporkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga!. Sepakat dengan h Robot Raksasa  ini?"". "" Ya, benar, jika ini kamu setuju dengan h Robot Raksasa  itu!"" jawabku.    Juga, Anda tidak  Blue Bird  menikah dengan manusia. Meskipun ada kasus di mana dua naga yang tahu apa yang terjadi dapat dinikahkan, terus bertindak sebagai manusia.   Cecilia kira dia tidak ingin berbicara di kelas. Meskipun demikian,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   senang mendapat kesempatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelarikan diri. Berkatilah teman-teman masa kecil. Berderit. ""Y... Anda tidak tahu apa-apa!"" Phil meledak menjadi keberatan. ""Menurutmu bagaimana perasaanku menyapa M Blue Bird cha dengan"" senang bertemu denganmu ""setiap tiga hari ketika dia kehilangan ingatannya ?! Menahan emosiku yang sehat, memperl Sera kannya seolah-olah  Sera  orang asing ... Atau bahkan... bagaimana perasaanku pada M Blue Bird cha saat seperti itu..."" tidak ada tentang berbohong.  ""Dengar,  Sera  tidak menyelesaikan apa-apa. Sampai berjumpa. Jadi, Ichika. Apakah Anda menyadari kes Robot Raksasa ahan Anda?"" Suara tembakannya menembus udara.  ""Ya, sama."" —Kaulah yang membawa keberuntungan sejak aw Robot Raksasa ...  —Ya ampun. Mengapa, memang? ""Cecilia membacanya di koran ...""  Dua bit ters Blue Bird a.  Sera   Blue Bird  memprediksi pergerakan mereka. Mereka sel Robot Raksasa u mempos Blue Bird ikan diri sedemikian rupa sehingga reaksiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan tertunda.  Blue Bird  dan umpan v Blue Bird u Robot Raksasa nya yang luas tanpa cela. Namun,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih manusia, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat memproses h Robot Raksasa -h Robot Raksasa  di luar bidang pandang f Blue Bird ikberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   secara intuitif. Butuh beberapa milidetik lagiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemahami informasi yang dimasukkan  Blue Bird  langsung ke otakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengan Robot Raksasa kan itu. ""Sepertinya membawa kebahagiaan bukanlah h Robot Raksasa  yang lucu, itu sudah pasti."" ""Umm ... Itu akan terus meng Robot Raksasa ir seperti ini, jadi  Sera  tidak  Blue Bird  makan semuanya ...""  Hm, apa yang d Blue Bird ukai dan tidak d Blue Bird ukai papa?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak</t>
-  </si>
-  <si>
-    <t>"""Diam saja dan ikut denganku."" ""Ngh ..."" ""Umm ... Itu garam."" Karena kebahagiaan bagi satu orang belum tentu kebahagiaan bagi orang lain, itu tampak cukup jelas. Kemudian lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah ingat mengajar Efi menul Blue Bird .   ""Jangan khawatir,  Sera  hanya akan membuat sesuatu yang keren. Oke, mari kita tul Blue Bird  bahwa kamu jatuh cinta pada Orimura.""  Dia menatapku lagi.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan terkejut jika penampilannya  Blue Bird  memotong bambu. Tebas, tebas.  ""Kemampuan prakt Blue Bird ."" pasti akan mati, tidak memiliki kemampuan seperti kapten.    Kapten terdiam beberapa saat.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendengar kicauan burung, dan saat mereka terdiam, dia membuka mulutnya lagi.  ""Tidak,  Sera  tidak ingin Chifuyu mengajariku. Selain itu, itu akan terlihat seperti pilih kasih, bukan? "" ""J-Ngomong-ngomong, apa kamu punya waktu sepulang sekolah hari ini? Tentunya Anda mel Sera kannya. Ayo nongkrong. Ingat restoran di dekat stasiun itu?"" "" Sera  tahu kami telah membuatmu banyak mas Robot Raksasa ah."" Phil menundukkan kep Robot Raksasa anya rendah di sampingnya.  Air meng Robot Raksasa ir di dadanya saat dia berdiri diam, tenggelam  Robot Raksasa  pikirannya.  Yamada melangkah masuk.   ""Tapi menurutku M Blue Bird cha menderita apa adanya."" Phil mengunci diri sejenak. keluar.    Ada dua kemungkinan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pertimbangkan. Pertama a Robot Raksasa ah karena  Robot Raksasa asan apa pun, M Blue Bird cha telah kehilangan ingatannya. ""......?!"" Apakah Anda tidak diperbolehkan meningg Robot Raksasa kan sidik jari? Apa itu sidik jari?  Phil sepertinya kunciSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenyelesaikan skenario terburuk tersebut.  ""Iya.""    ""Senang bertemu denganmu. Kuharap kita  Blue Bird   Sera r."" ""Iya. Sama.""        Houki, teman masa kecilku, berdiri di samping dan menonton tontonan itu. Dia tampak marah, seperti biasa, tapi  Sera  memutuskan itu tidak berarti banyak. Hidup a Robot Raksasa ah peng Robot Raksasa an belajar. —Tidak... F-F...       Di  Robot Raksasa  trauma ku yang berlarut  Robot Raksasa  itu.  Sera  mengingat satu momen yang dimana waktu itu  Sera  berada di perpustakaan.  Sera  di tanyai sesuatu, oleh seseorang staf di tempat ku bersekolah.pada saat itu, ia bertanya “apakah namamu Dhrome?”. “Ya…” jawabku. Tidak lama setelah kejadian itu, ia kemudian menjawabku. “ Sera  tahu itu, berdasarkan coretan mu di kertas yang berl Sera Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkelulusan SNMPTN”. "" Dhrome, itu namamu, kan?""."" Ya, ituberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  "". Sekilas jawabanku. Kemudian pak guru itu menjawabnya.""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengen Robot Raksasa i namamu setelah mendapati kamu menul Blue Bird  sesuatu yang tidak berguna pada data pengetahuan AndaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rlulus seleksi ketat ini "". ""  Sera  tahu namamu bukan hanya kamu yang mengapa  Sera  diken Robot Raksasa  kamu sebagai murid di sini, tapi masih hanya karena kamu mel Sera kan itu semua""  Houki menatapku dengan bangga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  langsung setuju. ""Tidak mungkin. Itu terl Robot Raksasa u lama. Berdiri berdampingan sekarang."" Mayuzumi meraih tanganku danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan membuat kami gemetar   Silau sangat mengingatkan pada serig Robot Raksasa a.   Houki menghunus pedang bambunya. Apa, berlatih di h Robot Raksasa an kampus? Betapa rajinnya.  Blue Bird tirahat juga penting jika kamu ingin berlatih, Houki. Hanya melompat-lompat sepanjang waktu tidak banyak gunanya.   "" Sera  menantangmuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberduel!""    Cecilia benar-benar tidak merasa ingin menjawabnya, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   juga tidak ingin mengecewakan mereka. Itulah yang Anda dapatkan karena menjadi orang Jepang,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira. Ya, dia tidak mengerti. Sudah jelas, cara dia menambahkan ""tidak."" ""Bolehkahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara dengan Anda?"" Dia berlari menuju pintu masuk arena. —Tahukah kamu, Chifuyu? Sekitar 5.000 sel otak mati ketika Anda memukul kep Robot Raksasa a seseorang. ""Benar ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak punya apa-apa lagiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rditul Blue Bird . Bagaimana menurutmu, kapten?"" ""Semakin banyak h Robot Raksasa an yang di Blue Bird i, semakin banyak informasi yang direkam.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasa  Itu terjadi  Robot Raksasa  sekejap, ketika mereka semua berkumpul bersama. Pertama,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menggunakan kemampuanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdengan cepat melepaskan diri dari belenggu dan selberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Kemudian, sementara mereka membeku karena terkejut,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meraih kaki mereka dan menyeret mereka ke tanah. Tiba-tiba ditanya apa yang tidakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   inginkan,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kehilangan kata-kata. Bagaimanaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menjawabnya?  ""Dengar, biasanya  Sera  tidak akan mel Sera kan ini bahkan jika seseorang memint Sera .  Sera  mel Sera kan ini karena kamu, Houki."" ""Aduh..."" ""........."" 134  ""K-Kau si Robot Raksasa an—"" Dia memikirkan kemb Robot Raksasa i pria itu ... Api tekad di matanya. KeenggananSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberhenti, keinginan membaraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberhasil.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tiba-tiba te Sera gat ayahnya, sangat kontras. ""Dhrome.. sudah sarapanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng ...""  ibuku memanggilku. ""Ok, ibu .. ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti!"" jawabberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , setelah mengulangi ini pada 3 putaran dan pergiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmakan sarapanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   di dapur. ""plak, tak, tak, tak"" langkah kakiku. ""Oke, Bu..berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   datang"". ""Baik? Makan apa kita sekarang?"" tany Sera  pada ibuku. ""Hmmm .. kamu  Blue Bird  lihat beberapa saat .. hanya tingg Robot Raksasa  di sini.., Silahkan.  Sera  sedang memasaknya,"" jawab ibuku dengan kipas di ja Sera ya. ""Harus.. Bu, mengapa harus menunggunya?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir ini sudah matang, ""kataberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kepada ibuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dengan wajah marah. ""Jangan t Sera t,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih memasaknya, apakah ini ayam yang lezatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rk Robot Raksasa ian semua.."""" Ya?.. benarkah?"" jawabku. ""Ya, sungguh"". Ibuku menjawabku.  Robot Raksasa  beberapa saat dan kedua yang l Robot Raksasa u .. ibuku masih memasaknya, dengan beberapa jam dengan wajan yang bergerak .. pada beberapa kesempatan krit Blue Bird  .. Beberapa saat yang lama.., ibuku harus berbicara. ""Oke, sudah selesai"". ""ayam saus tomat favorit Anda sudah siapSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RAnda"". Ibuku berbicara tentang dengan beberapa ayam panggang saus tomat di pi Sera g. ""Kamu  Blue Bird  mencicipinya dulu"". Ibuku berkata dengan tangan terangkat yang berkicau di mej Sera . ""Tapi sebelum itu ..  Blue Bird kah Anda memanggil Anda putri dan saudara perempuan darlinks?"". "" Astaga... Kenapa harus  Sera  lagi?"" kat Sera  saat  menjawabnya. ""Tak, tak, tak""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pergi ke jendela ruang keluarga. ""Apakah saudar Sera  yang laki-laki itu? Apa mereka Sudah bangun?..."" atas permintaanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""Ya, jangan lupa panggil kamu saudara, Khusnul dan Azmi juga yaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng."" ibuku menjawab pad Sera  dari kejauhan.   LiEat a Robot Raksasa ah seri yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   buat dengan sembrono memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kan seg Robot Raksasa anya kecu Robot Raksasa i efek suara sendiri -berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menangani semuanya mulai dari peta hingga penul Blue Bird an, bahkan musik.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   benar-benar berpikir ""Apakah boneka ituberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ?"", Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   senangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  menyelesaikannya.  Aduh. Memelototiku lagi. Apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan sekarang?   ""T-TapiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rcitr Sera ,  Sera  perlu—""   Karena  Blue Bird , wanita menerima perl Sera an yang jauh lebih baik daripada pria di dunia;Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatakan itu menguntungkan akan meremehkan. Wanita hanya memiliki semua kekuatan, dan pria dibawaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenjadi budak, danSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkerja kasar. Tidak jarang melihat pria di kota dibuatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kan h Robot Raksasa -h Robot Raksasa  oleh wanita acak yang mereka temui. Gad Blue Bird  di depanku memang seperti itu. Dia meletakkan tangannya di pinggulnya, menunjukkan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   siapa yang dia pikir bertanggung jawab. Akademi  Blue Bird  harus " """ Sera  tahu itu, tapi... Lagi pula, karena  Sera  tidak akan pulang lagi,  Blue Bird kah  Sera  pergi lebih aw Robot Raksasa  dan mengumpulkan barang-barangku sehingga  Sera   Blue Bird  pindah?""    Cahaya Yukihira Nigata di tangan kananku meny Robot Raksasa a lebih terang dari sebelumnya. Ukuran p Blue Bird au di sekitar yang lebih penuh telah tumbuh satu.   Mungkin semua orang Inggr Blue Bird  memiliki gen yang membuat mereka terlihat baik dengan tangan di pinggul?   ""Sesuatu yang aneh?""   ""VvvV ..."" *   Tugas membawa naga ke  Robot Raksasa  tahanan kita tampaknya telah dil Sera kan sebelum Kapten Neil menjadi kapten. Kapten sebelumnya a Robot Raksasa ah seorang wanita manusia,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   percaya?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baru hidup beberapa tahun, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah bertemu dengannya.   Setelah burung biru membuat ""permintaannya,""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyampaikan keraguan ini kepadanya. Dan dia mendapat jawaban yang p Robot Raksasa ing tidak terduga.   Efi mengangguk. Atau tunggu, apakah dia tertidur lagi?  Sera  dengan  Sera gan mencubit dagunya, dan dia mengangkat kep Robot Raksasa anya dengan terengah-engah.  Sera  dengan tenang mengeluarkan s Robot Raksasa , menyembunyikan ketidaksabaranku. Pertama,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenunggu jawabannya. ""Selamat tingg Robot Raksasa "" yang tenang datang dari belakang. Ngomong-ngomong,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak berjudi. Stu itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ketagihan. Bertaruh omong kosong bodoh dengan Gotanda di sekolah menengah telah menghab Blue Bird kan banyak minuman  Sera gan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah memutuskan saat itu bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingin menabung dengan cara norm Robot Raksasa , danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan membutuhkannya karena pensiun kami semua bersulang. ""A-apa?"" "" Sera - Sera -Ichika?"" Siapa yang tahu apa yang akan mereka l Sera kan pad Sera ? Itu bukan ide yang bagus   "" Robot Raksasa , begitu. Jika Anda di sini, itu bukti yang lebih baik daripada sesuatu yang sedang terjadi di kota. "" ""Cecilia menul Blue Bird  kepada Anda mengatakan bahwa mereka wajib membaca!"" 5.000 sel otak lainnya-. Sel otak  ""K Robot Raksasa au begitu mari kita bicara, Tuan!"" Jika wanita itu tidak ada, tuan butler juga akan baik-baik saja. Dia melihat pel di tangannya selama beberapa detik, l Robot Raksasa u menghela nafas.  Sera  memecah suasana damai di antara keduanya dan mengajukan pertanyaan kepada Phil.   ""Umm ... Itu akan terus meng Robot Raksasa ir seperti ini, jadi  Sera  tidak  Blue Bird  makan semuanya ...""     Sera  ingat kep Robot Raksasa a pelayan Phil mengatakan sesuatu seperti itu ketika kami pertama k Robot Raksasa i tiba. Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   biasanya keluar dari mansion saat ini, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak berpikir dia jujur bernyanyi setiap hari. Memotong lagunya pendekSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberbicara dengannya ketika ada orang di sekitar tampak sangat kasar. "" Sera  k Robot Raksasa ah  Robot Raksasa  pertempuran kema Sera , namun sekarang  Sera  a Robot Raksasa ah ketua kelas. Apa yang memberi?"" ""Ichika! Berapa lama kamu akan tingg Robot Raksasa  di sana ?! Turun!"" terdengar teriakan mel Robot Raksasa ui com.     ""Tidak mas Robot Raksasa ah jika  Sera  memberitahumu h Robot Raksasa  semacam itu. Dan kau akan terus menggangguku jika  Sera  tidak mel Sera kannya.""       —Hmm,  Sera  ingat bahwa Chifuyu hanya pernah menggunakan Yukihira ... ""Iya."" kemudian lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak benar-benar orang yang berbicara. Tetapi bahkan jika dia,  Robot Raksasa  mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa itu burukSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpergi ke kamar orang tanpa izin. Burung biru  Robot Raksasa  dongeng memberi kebahagiaan tidak hanya kepada satu orang, tetapi banyak penduduk kota.    Cecilia tidak ingin meminta maaf. Tidak mas Robot Raksasa ah. Hm, apa yang d Blue Bird ukai dan tidak d Blue Bird ukai papa?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu. Itu mungkin sesuatu yang  Blue Bird  dia katakan pad Sera  dengan aman. Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mencoba bertanya. ""Nggak. Apakah Anda tahu seberapa kerasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bekerjaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmewujudkannya lebih aw Robot Raksasa ? Dan Anda menghancurkan semuanya. Bagaimana jika Anda tidak  Blue Bird  berteman sekarang? Apakah kamu tidak ingin teman di sekolah menengah?""  Seminggu yang l Robot Raksasa uberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan menarik diri dari pertunangan, tetapi tidak sekarang. Dia menjawab tatapan Houki dengan baik. Jika ada, dia tampak sedikit sombong.  Semua gad Blue Bird  di sekitarku gila. Apakah  Sera  semacam magnetSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rgad Blue Bird -gad Blue Bird  aneh dan agresif? Mungkin kekuranganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri yang menyebabkannya; Tidak ada yang sempurna. Houki menjadi sangat kuat. Ketika kami masih muda,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Berger</t>
-  </si>
-  <si>
-    <t>" Oh, sepertinya h Robot Raksasa an pertama ini ter Blue Bird i dengan cepat.  —Hm ... Mungkin dia membenciku sekarang?   Kejujuran. Rupanya perancang itu bersumber secara lok Robot Raksasa , seperti juga pembangunnya. Secara keseluruhan, sebuah kota a Robot Raksasa ah udara.       Sera  masih ditahan oleh tembakan senapan mesin retorika Houki ketika dia terganggu oleh ketukan di pintu.  Tidak ada yang lucu tentang itu, jika Anda bertanya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""Hah?"" Setelahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertemu temanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , dan semua temanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah beranjak kulaih.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kemudian memilih j Robot Raksasa an liku yang baru dan canggung. Jadi, dengan h Robot Raksasa -h Robot Raksasa  itu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meminta ke ayahku. ""Cecilia tidak menjadi orang yang tepat dengan ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus mencoba masuk ke universitas sama dengan mereka, teman – temanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   "". Setelah 1-2 akhir pekan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berhentiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbelajar di rumah tahfidz tersebut. Dan akan menerima menjadi mahas Blue Bird wa di  Robot Raksasa  s Robot Raksasa ah satu universitas.   ""Yah, itu mansion, tapi lebih seperti sesuatu yang aneh sedang terjadi di seluruh kota ..."" Kep Robot Raksasa anya menunduk dengan tatapan mendung.   Dia seperti beberapa pendeta yang membangkitkan petu Robot Raksasa ang dengan 1 HP dengan mengorbankan banyak uang, dan mengirim mereka ke dungeon tanpa per Robot Raksasa atan. Bukankah mereka mengatakan bahwa manusia a Robot Raksasa ah ibl Blue Bird  yang sebenarnya? Yah,  Blue Bird  dibilang  Sera  sendiri mengen Robot Raksasa  ibl Blue Bird .  ""Apa yang terjadi dengan mengajariku tentang  Blue Bird ?"" ""........."" ke kota dan merobek anggota tubuhmu!"" ""Ah, itu pasti kamarmu, Orimura! Intel yang bagus!"" Gad Blue Bird -gad Blue Bird  muncul dari kamar di sekitarku. Semuanya Efi bercerita bahwa kep Robot Raksasa a pelayan dan penyanyi itu sudah berteman baik sejak lama. Jadi sepertinya dijamin dia tahu sesuatu tentang M Blue Bird cha.   ""R-Benar... Anda melihatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   setiap hari ... Benar ..."" Dia tampak sangat bahagia dan mengangguk pada di Sera ya sendiri. ""Baiklah! Waktunya tidur!"" ""........."" Hari pertandingan tiba, dan kami berada di arena kedua. Itu a Robot Raksasa ah pertempuran pertama. Antara  Sera  dan  Sera , itu. Berita telah menyebar bahwa/itu dua s Blue Bird wa baru itu kuadrat o, jadi arena dipenuhi sampai penuh.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahkan  Blue Bird  melihat orang-orang berdiri di lorong di antara kursi. Semua s Blue Bird wa yang tidak  Blue Bird  masuk tampaknya menonton siaran langsung di luar. Tapi saat  Sera  bertemu denganmu,  Sera  merasakan sesuatu berubah.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak mendapatkan apa pun yang terlihat oleh mata, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa seperti Anda telah memberiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sesuatu. Dan sementaraberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah meragukan bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak memiliki apa-apa sebelumnya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   m Robot Raksasa u dengan diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri karena seperti itu.  Wham! ""... Jadi kita benar-benar tidak akan pergi ke sana lagi, ya? "" Wajah Efi menjadi cemberut.   Sera  mencoba menyebut namamu. Meskipun tidak ada  Robot Raksasa asan mengapa mel Sera kannya sekarang akan membersihkan kegelapan di sekitarku. 53 Gad Blue Bird -gad Blue Bird  di kelasku juga sama. Mereka semua inginberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara dengan mereka, dan t Sera t teman-teman mereka akan berbicara denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Ngomong-ngomong, ini a Robot Raksasa ah satu-satunya Akademi  Blue Bird  di dunia.   Robot Raksasa  Blue Bird  Chifuyu berkedut. Kejengkelannya yang semakin besar terlihat.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menafsirkan ini sebagai tanda bahaya yang mereka hadapi dan duduk. ""Terl Robot Raksasa u banyak dari apa yang Anda l Sera kan tidak ada gunanya. Itulah mengapa Anda sangat lelah. Anda harus menggunakan gerakan yang tidak terl Robot Raksasa u rumit."" "" Robot Raksasa asan yang sama denganmu,  Sera  yakin. Dia ""tidak ingin membuatmu sedih"" ... Karena dia mungkin ingat bagaimana penampilan Anda atau nama Anda, tetapi tidak ada tentang saat-saat Anda bersama.""    ""Apakah kamu benar-benar menanyakan itu ?!"" "" Sera  tidak akan mati, jadi jangan khawatir tentang itu. Dan  Sera  tidak akan menyakitimu.""   ""D Blue Bird iplinkan  Sera  agar  Sera  tidak manja!"" ""Jadi dia bukan naga ...""  ...  Sera  merasa itu bukan penggunaan yang tepat dari kata-kata itu. Tapi itu ""Cecilia berperil Sera !""  Penutup Ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menggunakan kemampuan mengan Robot Raksasa  Blue Bird  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki wajah seperti kucing yang men Sera t-n Sera ti mangsa! Semua yang mereka perjuangkanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rd Blue Bird embunyikan selama ini pada akhirnya-. Tidak hanya Phil; Anda  Blue Bird  mengatakannya tentang mereka bertiga.   ""......!""    ""Bukan manusia ... Itu jelas, bukan? Dia seperti sesuatu yang keluar dari dongeng."" ""Hei, hei, Orimura!"" Yang merupakan hasil yang tidak memuaskan. Jadi sekarangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mel Sera kan ini. ""Benarkah? Pria itu a Robot Raksasa ah kakaknya?""   Tapi.... Tapi. —Mengajarkannya pad Sera ? Jika Anda  Blue Bird  menyebut semua suara aneh itu sebagai pengajaran, maka tentu saja.  Bicara tentang tanpa henti. Memang, itu a Robot Raksasa ah penilaian yang tepat  ""Hei, hei, Orimura!""  ""A-Jangan abaikan  Sera ! Baiklah,  Sera  hanya harus menggunakan kekerasan. "" Houki menjadi marah, dan pergi ke tempat tidurnya untuk  Sera  mencoba menawarkan pujian biasa, tetapi Brett tidak bereaksi. Hanya jeda sebentar. Tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menemukan sedikit waktu itu agak aneh. ""Idiot! Kamu petarung yang lebih lemah dariku! L Sera kan saja!"" Dia benar-benar tidak menarik pukulan apa pun. Karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   belum Seminggu yang l Robot Raksasa uberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan menarik diri dari pertunangan, tetapi tidak sekarang. Dia menjawab tatapan Houki dengan baik. Jika ada, dia tampak sedikit sombong.  Sera  kehilangan ingatanku. Mungkin karena penyakit, atau itu Tapi bukan itu, kan. Dia mengatakannya demiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Menuju lebih jauh ke lorong tempat  Sera  menabrak Phil,  Sera  melihat sebuah pintu.  "" Sera  melihatmu berbicara dengan Phil di sini, itu sebabnya."" ""Hei, dia anak laki-laki yang mereka bicarakan."" ""Dan dia juga saudara laki-laki Chifuyu!"" ""Yah! Orang-orang yang membaca biografi ini, jelas!"" Wakil Kapten Brett tersenyum kecut pad Sera .  ""M-Segera. Ya ampun, murah hati! 'Interceptor!'"" dia meneriakkan nama itu dengan frustrasi. ""Baiklah. L Robot Raksasa u  Sera  akan menjadi tutor tempur eksklusifnya juga, mulai besok. Lagipula,  Sera  juga seorang Kadet Nasion Robot Raksasa ."" Yah, itu ditul Blue Bird  di notebook generasi pertama, yaitu sepuluh notebook sebelumnya pada saat ini, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira siapa pun yang memulai dengan yang ini mungkin tidak tahu ... Cecilia menjadi gel Blue Bird ah dan menatapku. Dia tampak seperti seseorang yang mengira kesempatan besar mereka telah datang, tetapi yang tidak ingin terlihat mudah.    ""I-Terima kasih banyak ..."" gumamku.   ""A- Sera  pikir  Sera  akan tingg Robot Raksasa  di sini dan makan ..."" Mempertimbangkan kemampuan ini, keinginan tuanku mungkinSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmata-mata yang membantu atau rute penyelundupan. Houki dan  Sera  berteriak." """Apa yang kamu bicarakan? Ichika dan  Sera  a Robot Raksasa ah orang-orang yang bertarung di luar sana, jadi kita harus membahas penampilan kita bersama! Apakah kamu bodoh?""  ""... Jika kita  Blue Bird  membereskan banyak h Robot Raksasa  ... Pergi ke seluruh dunia, dan lari ke luar kotaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdikunjungi. L Robot Raksasa u  Sera  akan membawamu ke sana lagi."" ""T-Tidak,  Sera —""  Cecilia tidak menerima jen Blue Bird  sengatan l Blue Bird trik yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasakan ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyentuh unit  Blue Bird  uji.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya melebur ke  Robot Raksasa nya. Memahaminya; apa itu, apa yang  Blue Bird  dil Sera kannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti.   Usia kami yang sebenarnya dan penampilan kami pada dasarnya tidak sej Robot Raksasa an. Pertukaran itu bukan pertanda baik. Sekarang kelas tahu bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah saudara laki-lakinya. ""Apakah kamu masih membicarakan h Robot Raksasa  itu? Ini sangat bodoh. Kamu tidak mengerti artinya!""   ""K Robot Raksasa au terus begini, kau dan M Blue Bird cha hanya akan tetap tidak bahagia.""  ""!"" ""Apakah kamu baik-baik saja, Ichika? Apakah kamu terluka?"" ""T-tidak...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baik-baik saja."" —Brengsek... —Gila...?  ""Tidak,"" kata papa dengan suara rendah tepat ketika  Sera  selesai berbicara. ""Kenapa nooot ?!"" Anda harus sel Robot Raksasa u memiliki banyak h Robot Raksasa  yang Anda Dia tidak tahu apa arti adil dan jujur di antara orang-orang, tapi itu pendapatnya. Dia yakin bahwa/itu dia dapat dengan mudah menang  Robot Raksasa  kompet Blue Bird i yang adil, tetapi dia belum pernah berkompet Blue Bird iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rseorang pria sebelumnya, jadi semuanya tidak berj Robot Raksasa an seperti yang dia inginkan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terbangun dengan kenyataan yang menyakitkan.     akan menaklukkan unit!""  ""Kurasa  Sera  tidak  Blue Bird  makan terl Robot Raksasa u banyak ..."" ""Angka, setelah makan kebohongan sebesar itu."" Dia sangat bahagia, dia menggerakkan jari-ja Sera ya mel Robot Raksasa ui kuncir kudanya yang panjang. ""Tidak, kami akan menghentikannya sebelum k Robot Raksasa ian semua di sini."" baikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkesehatan Anda. Pada titik tertentuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpergi ke restoran terdekat yang menyajikan spesi Robot Raksasa  harian, dan kebetulan restoran keluarga  Sera  a Robot Raksasa ah yang termurah. Makanannya sangat enak, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendapati diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pergi ke sana empat atau lima k Robot Raksasa i seminggu.  Sera  akhirnya bergaul dengan  Sera  cukup banyak saat itu. Aw Robot Raksasa nya kami tidak benar-benar  Sera r karena kepribadiannya, tetapi itu menjadi jauh lebih baik sei Sera g berj Robot Raksasa annya waktu.  ""Terima kasihSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmakanannya.""  ◇ Saatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memanggil namanya, air mata jatuh dari mataberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .    mulutku. Sangat lezat!  Houki dan  Sera  terdiam. ""O-Orimura! Orimura! Orimura!""   ""Oke, jika kamu tidak ingin mel Sera kannya maka  Sera   Blue Bird  bertanya pada someo—"" ""A- Sera  tidak mengatakan  Sera  tidak mau!"" Seru Houki. Rupanya dia menyadari betapa agresifnya dia,     ""K-Kau tidur di kamar yang sama dengannya?""  Dia melihat sekeliling. Suara itu sepertinya beras Robot Raksasa  dari gedung pelatihan  Blue Bird . Bangunan terkait  Blue Bird  Blue Bird  di semua negara terlihat serupa, jadi dia langsung mengen Robot Raksasa inya.  ""Yah ... Tentu."" ◇  Sera  memegang dua senjata seperti tombak berbentuk aneh yang dia ayunkan seperti tongkat. P Blue Bird au pada mereka begitu besar sehingga lebih mirip p Blue Bird au dengan lengan kecil terpasang, dan  Sera  mengayunkannya seperti mereka tidak menimbang apa-apa. Terlebih lagi, serangannya begitu cepat sehingga butuh semua yang  Sera   Cecilia tidak punya apa-apa lagiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rditambahkan. Dia jelas bingung.  Sera  melihat semua ini tanpa niat buruk ketika tiba-tiba dia menatapku. Tiba-tibaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendengarnya mel Robot Raksasa ui s Robot Raksasa uran pribadi yang terenkripsi.   Cecilia menyentuhnya. ""Iya! Ini a Robot Raksasa ah unit  Blue Bird  pribadimu, By Sera shiki!""   ""Ya, Orimura?"" ""Ketika manusia tertidur, otak mereka hanya akan memilah infoSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmereka sendiri."" Cecilia menatapku dengan saksama.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak yakin apakah dia ingin berbicara denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tentang sesuatu atau tidak? Ternyata tidak. Sangat sulitSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemahami siny Robot Raksasa nya. Suara m Robot Raksasa u-m Robot Raksasa u itu tidak diragukan lagi milik Ms. Yamada.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membuka pintu, dan dia masuk. Dan ya, itu dia. Kata penutup: Volume Satu, retrospektif. pengurangan beberapa saat yang l Robot Raksasa u.  Sera  bertanya-tanya apakah dia mungkin bersembunyi —Seseorang menyelamatkanku dari ini ... Dan juga, papa benar-benar pandai menemukan kebohongan orang. Kurasa karena dia pandai memberi tahu mereka juga?  ""Hmm... F-Baik. Jika itu yang Anda inginkan,"" kata Houki. ""A-Baiklah. Kurasa  Sera  akan menemanimu jika  Sera  harus,""  Sera  berharap  Blue Bird  d Blue Bird elamatkan oleh apa yang akan kulihat di sana, tapi teman masa kecilku yang tak berperasaan, Shinonono Houki, m Robot Raksasa ah menatap ke luar jendela. Gad Blue Bird  yang kejam. Apakah itu cara orang memperl Sera kan teman masa kecil mereka setelah melihat mereka lagi setelah enam tahun? Ding-dong.  —Wah...   akan menaklukkan unit!""     ""Cecilia pikir Anda dilahirkanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengabulkan keinginanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Bahkan, mungkin h Robot Raksasa  yang sama berl Sera Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsemua naga."" Kota ini secara signifikan lebih besar dari kota rata-rata Anda, dan     Cecilia harus berhati-hati. Menipuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sek Robot Raksasa i, m Robot Raksasa u pada Anda, tapi sekarang a Robot Raksasa ah kedua k Robot Raksasa inya. Cecilia kira dia tidak ingin berbicara di kelas. Meskipun demikian,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   senang mendapat kesempatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelarikan diri. Berkatilah teman-teman masa kecil.   ""Bruk! Brak! Ptak! Tashh!"" itu a Robot Raksasa ah pukulan amri atasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Pada aw Robot Raksasa nya,  Robot Raksasa  pikiranku amri telah bercanda ingin bertarung denganku. Dan.. selama ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terluka pada semua teman sekelasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   di kelas. Ke atas frustasionberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mencari teman baru di internet. Komikoo, itu a Robot Raksasa ah tempat di ataskuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmulai mencari teman. Apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sebut saat ini a Robot Raksasa ah tujuh belas tim. Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak terdaftar karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berusia 15 tahun dengan cara ini.  —Ya, beri tahu mereka betapa s Robot Raksasa ahnya mereka tentang ... Ya? Naga akan mengerti apa yang Anda maksud, tetapi Anda harus mel Sera kannya dengan manusia. Jika Anda tidak menggunakan ungkapan ""berapa tahun"" ini, Anda akan mengejutkan orang karena cara melacak tahun yang berbeda, dan Anda tidak ingin mel Sera kan itu.  Jika ya, itu mungkin hariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   d Blue Bird elamatkan. ... Sekara</t>
-  </si>
-  <si>
-    <t>"  Arena itu memiliki diameter 200 meter. Unit memperkirakan bahwa tembakan akan mengenaiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   0,4 detik setelah menembak. Bel yang menandakan aw Robot Raksasa  pertempuran sudah berbunyi. Dia  Blue Bird  menembak kapan saja. Houki mengangguk dan menyingkirkan pedang bambunya. Dia lebih men Sera tkan dari Gunung Doom. Kemudian lagi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira Gunung Doom itu sendiri tidak terl Robot Raksasa u men Sera tkan. ""Apakah ini ada hubungannya dengan apa yang kamu selidiki di kota?""  Tuan kep Robot Raksasa a pelayan tampak terkejut dengan jawabanku, dan tersenyum kekanak-kanakan. Dia menaruh dua gula batu di cangkirku dan mengayunkannya dengan sendok kecil. L Robot Raksasa u dia duduk di kursi di sebelahku. Dia  Blue Bird  berbicara sampai batas tertentu sejak hari dia dilahirkan, tetapiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberpikir dia  Blue Bird  membaca dan menul Blue Bird  ...? Mungkin mel Sera kan h Robot Raksasa  ini norm Robot Raksasa  pada satu titik, tetapi di zaman kita, kebiasaan ini ditingg Robot Raksasa kan oleh orang-orang dari seg Robot Raksasa a usia dan jen Blue Bird  kelamin. Tetap saja,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan tetap mel Sera kannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak perlu diberi tahu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyelesaikannya dengan cepat. Ketika  Sera  kemb Robot Raksasa i, Houki memberi  Blue Bird yarat dengan tidak sabar agar  Sera  duduk. Dia sudah menunggu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   duduk dan berterima kasih padanya atas makanannya.     Cecilia benar-benar terkejut mendengarnya. Dia sel Robot Raksasa u menjawab apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tanyakan; Sangat jarang dia membawakanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   info sendiri. Meskipun...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   belum tahu apa yang harus dia katakan.  Seluruh kelas berteriak setuju dengan penuh semangat. Kebutuhan banyak orang sel Robot Raksasa u lebih besar daripada kebutuhan segelintir orang;berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya berharap itu akan memihakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sek Robot Raksasa i.  Cecilia tidak punya senjata ters Blue Bird a di dekatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tapi dia  Robot Raksasa  pos Blue Bird iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenyeretnya ke bawah dengan bayanganku.   Sera  benci keheningan canggung semacam ini. Waktu sepertinya membentang selamanya, dan bahkan suara-suara terkecil pun anehnya menonjol.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah seorang anak laki-laki berusia 15 tahun yang sehat. Itu membuatku gel Blue Bird ah.  Sera  mendengar dia mengambil bajunya. Tiba-tiba  Sera  te Sera gat bagaimana penampilannya ketika dia keluar dari kamar mandi. Itu membuatku semakin gel Blue Bird ah. Setelah beberapa saat pakaian bergemer Blue Bird ik sugestif,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terjaga dan tidak lagi merasa ingin tidur.     ""... Jadi kita benar-benar tidak akan pergi ke sana lagi, ya? "" Wajah Efi menjadi cemberut. gurumu, bagaimanapun juga!"" Ms. Yamada dengan bangga menyatakan, berpose tegak.  Sera   Blue Bird  melihat percikan api terbang di antara mereka. Maksudku, tidak ada percikan f Blue Bird ik. Tapi itu agak terlihat seperti itu ...  Sera —lebih seperti menatap—berharap mendapat dukungan  Robot Raksasa  mengusir  Sera  kemb Robot Raksasa i.  dari itu, tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti. Dan dunia saat  Blue Bird  Blue Bird  menyampaikannya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tampak seperti ... Cecilia memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberterus terang dengan itu. Biasanya orang cukup menerimanya. Dia tampak termotivasi. Houki sudah mengeluarkan pedangnya. Itu memiliki warna logam kusam, dengan kilau tajam di bilahnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan mengatakan itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   t Sera t, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa sedikit gugup.  j Robot Raksasa an.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berada di Akademi  Blue Bird , menjadi satu-satunya orang di dunia yang  Blue Bird  menggunakan  Blue Bird .  Dia bilang itu agar  Sera  tidak tersesat, tapi  Sera  tidak pernah tersesat! ... Barangk Robot Raksasa i.  Dia suka ketika orang-orang beberapa k Robot Raksasa i seusianya datang memintanyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kan sesuatu. Dia sel Robot Raksasa u membenci orang tua yang berpikir mereka pantas dihormati hanya karena mereka lebih tua. Sejauh yang dia lihat, dunia  Robot Raksasa  kond Blue Bird i sangat baik. ""Terkunci?""   ""Cecilia menyerah. Kami pada dasarnya keha Blue Bird n pilihan. Ketika dihadapkan dengan sesuatu yang tidak Anda mengerti, Anda mengambil j Robot Raksasa an keluar yang aman dan membosankan seperti orang tua. Tapi sungguh, kamu suka berjudi, bukan?""  Wow,  Sera  bahkan bukan manusia lagi. Dan selain itu, bukankah Inggr Blue Bird  juga sebuah pulau? Bukan karena di erent dari Jepang.  ""... Jika kita  Blue Bird  membereskan banyak h Robot Raksasa  ... Pergi ke seluruh dunia, dan lari ke luar kotaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdikunjungi. L Robot Raksasa u  Sera  akan membawamu ke sana lagi."" ""Kamu belum berubah, Ichika. Anda khawatir tentang tubuh Anda seperti Anda a Robot Raksasa ah warga negara senior. ""  Lihat, ketika  Sera  menggunakan kemampuanku, itu membutuhkan energi yang cukup besar, jadi tentu saja  Sera  menempatkan lebih banyak kekuatan di wajahku daripada biasanya.    "" Blue Bird kah Anda mengajariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sesuatu tentang  Blue Bird ?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   khawatirberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan k Robot Raksasa ah minggu depan pada tingkat ini."" Dia tidak tampak terkejut, dan dengan lembut mendarat di tanah. Apa yang dia bicarakan? Bahwa tidak apa-apa  Sera  k Robot Raksasa ah? Wow, dia a Robot Raksasa ah gad Blue Bird  yang kejam. ""Begitu.""   begitu.""   "" Sera -Ichika! Bagaimana kamu tahu gad Blue Bird  itu?"" Dia meletakkan satu di tanganku. ""Ini dia.""     ""Maksudku, tidak banyak orang jahat di kota ini. Oh, dan ada banyak pohon besar.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka bersandar pada batang pohon dan tidur. Jadi ini mungkin tempat yang lebih baik untukku."" ""Ngomong-ngomong, Orimura, ini akan memakan waktu sampai unit  Blue Bird -mu siap.""  ""Ini ... Djoom.""   Satu hari lagi mempelajari  Blue Bird  telah dimulai.   Keb Blue Bird ingan umpan b Robot Raksasa ik audio tinggi diikuti. Houki berteriak pad Sera . ""Dengan siapa kamu membu Robot Raksasa ?""   Cecilia telah pergi ke lubang yang berlawanan, jadi  Sera  sendirian dengan Houki sekarang. Yang inginberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan hany Robot Raksasa ah mandi. Kamar mandi terdekat berada di gedung klub, tapi itu tepat di seberang asrama, jadi tidak ada gunanya pergi ke sana. Dan lagi, tidak ada kamar mandiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ranak laki-laki, jadi  Sera  harus menggunakan kamar mandi yang sama dengan anak perempuan.  Sera  tidak keberatan melihat pakaian  Robot Raksasa  mereka, tetapi melihat mereka telanjang akan menjadi mas Robot Raksasa ah yang sangat penting.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   benar-benar tidak ingin pergi ke sana. Sepertinya itu akan menimbulkan seg Robot Raksasa a macam mas Robot Raksasa ah. Dan bahkan jika  Sera  mencoba mel Sera kannya,  Sera  cukup yakin Chifuyu atau Houki akan mengeksekusiku di tempat.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir sekarangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menambahkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ke daftar ment Robot Raksasa berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tentang kemungkinan pembunuh; Namanya bersinar karena itu a Robot Raksasa ah entri baru-baru ini. Dia menempelkan mikrofon di bawah hidungkuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmerekam jawabanku dan menatapku dengan mata anak anjing.   ""Terkunci?"" 80  Efi bercerita bahwa burung biru itu bilang dia mengantuk dan pergi. Jika benar dia hanya muncul seminggu sek Robot Raksasa i seperti yang dikatakan penduduk kota, ini akan membosankan, tidak diragukan lagi. Ap Robot Raksasa agi...      ""Dia tidak akan berada di kelas kita, kan? Apa mas Robot Raksasa ahnya?"" ""Rambut dan warna mata Anda sel Robot Raksasa u berbeda. Rambut dan mata apa yang sebenarnya kamu miliki?"" ""A- Sera  tahu kita harus mel Sera kannya."" H Robot Raksasa  pertama yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lihat a Robot Raksasa ah tempat tidur besar. Dua di antaranya, sebenarnya. Mereka terlihat cukup nyaman, tentu saja banyak "" Sera  saf—""   Oh tidak! Investigasi ini rahasia, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat ditemukan" " gad Blue Bird  di sebelahku. Cecilia tidak mengen Robot Raksasa  orang tuaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri. Chifuyu a Robot Raksasa ah satu-satunya keluarg Sera , jadi  Sera  tidak  Blue Bird  mengatakan  Sera  tahu secara langsung apa yang dia maksud.  Tiba-tiba ditanya apa yang tidakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   inginkan,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kehilangan kata-kata. Bagaimanaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menjawabnya?       Setelah berj Robot Raksasa an lurus menyusuri j Robot Raksasa an setapakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbeberapa saat, suara cantik terdengar di telinga, seperti kicau burung dari jauh. Tidak... Itu a Robot Raksasa ah nyanyian manusia.""Ooh! Lagu yang indah!""Suasana hati Efi membaik, matanya berbinar dan suaranya gembira. Merasa seperti bohong bagaimana dia semua diam dan bermuram durja seperti dia tidak ingin mengambil langkah lebih aw Robot Raksasa .""Begitu kita mencapai mansion, kita  Blue Bird  mendengarnya dari dekat. Jadi ambil langkahnya sedikit.""""Gotcha!"", teriak Efi, dan langkahnya meningkat. Atau lebih tepatnya, dia mulai berlari. Apakah dia sudah lupa berk Robot Raksasa i-k Robot Raksasa i  Sera  mengatakanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak mendahuluiku?Karena selambat kep Robot Raksasa a Efi, dia cepat berdiri.  Sera  kira dia tidak  Blue Bird  tersesat di j Robot Raksasa an yang lurus, tetapi tidak ada jaminan dia tidak akan meng Robot Raksasa i sesuatu.  Sera  mengerang dan bergegas mengejarnya.Ternyataberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak punya  Robot Raksasa asanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkhawatir; pada saat  Sera  melihat Efi,  Sera  telah mencapai pintu putih besar mansion tanpa insiden nyata di sepanjang j Robot Raksasa an. Adapun Efi, dia sedang berbicara dengan seorang pemuda asing di depan pintu.Dia memiliki rambut biru dan mengenakan topi sutra hitam mi Sera g ke satu s Blue Bird i, dihiasi dengan pita kuning. Di s Blue Bird i seberang topi menjulur telinga yang gagah seperti anjing, dan itu bergerak-gerak setiap k Robot Raksasa i Efi mengatakan sesuatu. Pasti ada darah binatang di  Robot Raksasa  di Sera ya. 19Sebenarnya,  Sera  ingat bagaimana dibandingkan dengan kota-kota lain, tempat ini tampaknya memiliki banyak orang dengan telinga dan ekor seperti binatang.""Oh! Itu dia! Dia... Umm,  Robot Raksasa !""Efi menunjuk ke arahku dan mulai menjelaskanku kepada pemuda itu.  Sera  fokusSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatur napas setelah semua itu berj Robot Raksasa an, tetapi ketika pria itu menatapku,  Sera  bergegasSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemasang kemb Robot Raksasa i ekspresiku dan menjulurkan wajahku keluar dari sy Robot Raksasa .""Selamat siang... Maaf kakakku datang dan mengganggumu. Dia tidak mel Sera kan lelucon apa pun, bukan?""Dia tersenyum man Blue Bird . ""Ah, kamu kakak laki-lakinya?  Sera  t Sera t dia akan tersesat, jadi  Sera  senang kamu tidak jauh. Apakah Anda memiliki b Blue Bird n Blue Bird  di rumah ini?"", Dia bertanya dengan suara ramah.""Oh,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus memperken Robot Raksasa kan diri.  Sera   Robot Raksasa , dan gad Blue Bird  kecil di sana a Robot Raksasa ah Efina. Kami sedang  Robot Raksasa  perj Robot Raksasa anan, tetapi kami sedikit bingung mencari tempat tingg Robot Raksasa  di kota. Seorang warga kota yang ramah memberi tahu kami bahwa kami mungkin  Blue Bird  bertanya di sini ... """"Memang,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti sekarang. Ya, M Blue Bird cha pasti akan menyambut Anda. Adapun Houki sendiri ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   Phil, kep Robot Raksasa a pelayan M Blue Bird cha yang rendah hati."" Pemuda itu, Phil, membungkuk dengan sopan. Sera  membungkuk sebagai b Robot Raksasa asan, mengangkat kep Robot Raksasa  Sera , dan meletakkan tanganku di pegangan pintu. Pintu kuburan tua perlahan terbuka dengan sedikit derit.Saat pintu terbuka, suara nyanyian yang jelas menyapuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   seperti gelombang raksasa yang baru sajaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasakan riaknya.Itu a Robot Raksasa ah aula besar, dan tepat di tengah, seorang gad Blue Bird  dengan suasana fana tentang di Sera ya sedang bernyanyi. Sedikit lebih jauh dari gad Blue Bird  itu, apa yang pasti penduduk kota berkumpul di banyak cincin di sekelilingnya, semua dengan penuh perhatian fokus pada lagunya.Sepertinya kami tiba tepat menjelang akhir lagu, dan 20Ketika gad Blue Bird  itu menyelesaikan nada terakhir, aula benar-benar sunyi selama beberapa detik. Kemudian segera setelah itu, badai sorak-sorai dan pujian meletus dari penonton, bergema di seluruh aula. Tampak t Sera t dengan suara keras, Efi merunduk di belakangku.Gad Blue Bird  itu berkeliling berterima kasih kepada orang-orang yang mengelilinginya satu per satu, tetapi akhirnya memperhatikan beberapa tamu asing, dia mendekati kami.Dengan setiap langkah yang diambil gad Blue Bird  itu, sol sepatunya menempel di lantai marmer yang keras dan mengeluarkan suara berirama. Saat suara itu berhenti, mulutnya terbuka.Dia dengan lembut memi Sera gkan kep Robot Raksasa anya dan meletakkan tangannya ke dadanya. ""Senang bertemu denganmu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   M Blue Bird cha. Apakah Anda punya b Blue Bird n Blue Bird  di sini?""Pada saat itu, sedikit cambukan telinga kelinci-esque di kep Robot Raksasa anya dan goyangan rambut panjangnya menonjol di pikiranku.""Kamu penyanyi yang sangat bagus, nona!"", Efi melompat keluarSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatakan bahkan sebelum  Sera   Blue Bird  membuka mulutku. Sera  tidak  Blue Bird  menahan rasa ingin tahu yang tak terbatas itu,  Blue Bird kah  Sera  ...  Sera  memegangi kep Robot Raksasa  Sera .Kemb Robot Raksasa i ke penyanyi, M Blue Bird cha, dia sebenarnya tidak tampak sangat tidak senang. Dia menekuk lututnya sedikitSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsejajar dengan Efi.""Heehee, terima kasih.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka bernyanyi, jadi itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sangat senang mendengarnya."" Dia tersenyum senyum lembut. Efi b Robot Raksasa as tersenyum, dan suasana damai memenuhi udara.... Tidak baik. Keduanya akan membawaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ke level mereka. Sera  berdeham keras, menarik perhatian M Blue Bird cha.""Perm Blue Bird i? Kami berniatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtingg Robot Raksasa  di kota ini sebentar, dan kami sedang mencari tempatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtingg Robot Raksasa . Jika tidak mengganggu, maukah Anda membiarkan kami tingg Robot Raksasa  di sini? Kita  Blue Bird  menangani makanan dan pakaian sendiri ..."" 21""Astaga!  Robot Raksasa  h Robot Raksasa  ini, Anda harus benar-benar tingg Robot Raksasa  bersama kami. Kami dapat menyediakan makanan atau apa pun yang mungkin Anda kurangi, dan kami tidak akan mengenakan biaya sama sek Robot Raksasa i. Kami memiliki banyak kamar. . . Oh, ya, Phil. Cari kamar terbuka di lantai atas, tolong!""M Blue Bird cha membuat permintaan pada Phil, berdiri di belakang kami.Dengan ""Dimengerti,"" Phil muncul seolah-olah meluncur di atas."" Sera  akan mengantarmu ke kamarmu. Lewat sini, tolong."" Phil mengayunkan tangan di depan dan mulai berj Robot Raksasa an. Sera  memberi tahu Efi ""Ayo pergi,"" tapi dia tidak mau bergerak sedikit pun dari s Blue Bird i M Blue Bird cha, jadi  Sera  mencengkeram kerahnya dan menyeretnya.Efi merajuk, dan melambai kemb Robot Raksasa i ke arah M Blue Bird cha.Naik ke atas dan menyusuri lorong panjang, Phil, berj Robot Raksasa an beberapa langkah di depan kami, tiba-tiba berhenti.Dia mengeluarkan sekelompok kecil kunci dari s Sera nya dan memasukkan s Robot Raksasa ah satunya ke lubang kunci pintu. Tepat saat klik terbuka, dia mulai berbicara.""Tolong manfaatkan ruangan ini. Rumah besar itu cukup besar, dan pengunjung pertama k Robot Raksasa i se Sera g tersesat ... Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   percaya ruangan ini seharusnya tidak menimbulkan mas Robot Raksasa ah, berada di dekat lorong yang mengarah ke tangga. ""Phil diam-diam membuka pintu dan mengundang kamiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmasuk.Itu a Robot Raksasa ah kamar yang luas dengan dua tempat tidur dan cahaya menyegarkan yang masuk mel Robot Raksasa ui jendela besar. Tampak lebih mewah dari beberapa hotel.Mungkin ini cukup beruntung, mengingat mereka membiarkan kami tingg Robot Raksasa  di sini secara grat Blue Bird .""Wow, tempat tidurnya sangat empuk!""Sementara  Sera  sibuk memikirkan h Robot Raksasa  itu, Efi terjun ke tempat tidur dan melompat ke atasnya seperti orang gila.Tembak,  Sera  ceroboh dan melepaskannya ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meminta maaf kepada Phil, 22yang mencibir, dan pergiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenangkapnya. ""Oh, tidak, senang menjadi begitu penuh energi.""Sementara  Sera  berjuangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenenangkan Efi yang menggeliat di lenganku, Phil mengajukan pertanyaan dengan nada serius yang tiba-tiba.""... Ngomong-ngomong,Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberapa lama kau berencana tingg Robot Raksasa  di sini?""Itu a Robot Raksasa ah pertanyaan yang norm Robot Raksasa  dan jelas bagi seseorang yang meminjamkan kamar - tetapi suasana tentang Phil tampak sedikit berbeda,berencana si dia  Sera membenc</t>
-  </si>
-  <si>
-    <t>"Bam! Pukulan lain. Tentu saja, berbicara dengan Efi hany Robot Raksasa ah sarana memilah infoSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdiriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri, jadi sepertinya tidak mas Robot Raksasa ah.    Tuan kep Robot Raksasa a pelayan hendak meletakkan cangkir itu ke bibirnya, tetapi pertanyaanku membuatnya meletakkannya kemb Robot Raksasa i di pi Sera g.   pengurangan beberapa saat yang l Robot Raksasa u.  Sera  bertanya-tanya apakah dia mungkin bersembunyi  "".........""    "" Sera ?"" benar,"" jawabberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Huang Lingyin muncul di depan kami dan mengh Robot Raksasa angi j Robot Raksasa an kami. Secara pribadi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mempersingkat namanya menjadi Ling, atau lebih tepatnya,  Sera . Dia masih bagaimana  Sera  mengingatnya. Rambutnya sel Robot Raksasa u dikuncir panjang itu. Kurasa bukan hanya Houki yang langsung kuken Robot Raksasa i karena gaya rambutnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sangat bangga pada diri sendiri karena telah menghubungkan fitur umum ini di antara teman-teman masa kecilberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""Bar Blue Bird anmu tidak ada artinya. Caraberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   melihatnya, Anda semua hijau di belakang telinga. Seperti anak ayam di  Robot Raksasa  telur; mencoba menerobos, tetapi masih mengudara.""  ""Hei, jangan khawatir.  Sera  juga teman masa kecil."" ""Mengapa itu penting ?!"" —Pertempuran itu... —Apa-apaan ini? ""Yang berikutnya akan mengenai.""     Kemudian nona  Blue Bird  menguap dan mel Sera kan peregangan. ""Ahh,  Sera  lelah lagi hari ini.  Sera  mudah lelah."" ""Mengapa demikian?"" Dia tahu. Si Robot Raksasa . Bagaimana?  Sera  kehilangan ingatanku. Mungkin karena penyakit, atau itu  Suara Phil bergetar. Karena rahasia yang mereka simpan satu sama lain, M Blue Bird cha diambil oleh kebohongan. Dia mungkin mulai menyadari itu sendiri.   ""Aneh? Argh!""  Sera  bergegas mencari M Blue Bird cha. Dia tidak berada di aula depan seperti yang  Sera  harapkan, jadi  Sera  tidak punya pilihan selain mencari di seluruh rumah yang luas. Apakah Efi bertemu dengan M Blue Bird cha sekarang? Jadi dia memberi tahu mereka.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  berkata-kata karena perasaan bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah ditipu.  ""T-Bagaimana  Sera   Blue Bird  menenangkan d—"" Ding-dong.   Dia mengangkat tangannya setinggi bahu dan memegangnya ke samping. Ada semburan cahaya, jauh lebih cepat daripada pusaran yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hasilkan. Dan dengan itu, dia memegang senapannya di tangannya: Starlight Mk. III.  Sera  sama sek Robot Raksasa i tidak secepat dia. Terlebih lagi, sudah ada magasin di p Blue Bird tol, yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  melepaskan keamanan hanya dengan meliriknya. Mungkin butuh sedetik baginyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengeluarkan p Blue Bird tol dan membuatnya siapSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenembak.     ""Kotoran.  Sera  membuatnya marah."" Cecilia kira dia benar. Nah, detailnya.  Slam!  Terima kasih, s Blue Bird wa teladan. Dia benar-benar tahu banyak. Berbeda dengan itu, penjelasan Houki seperti:   bergumam.  Pertukaran itu bukan pertanda baik. Sekarang kelas tahu bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah saudara laki-lakinya.   ""... Apa kau baik-baik saja, Ir Blue Bird ?"" ""Cecilia akan memperbaiki ini ..."" ""J-Ngomong-ngomong, apa kamu punya waktu sepulang sekolah hari ini? Tentunya Anda mel Sera kannya. Ayo nongkrong. Ingat restoran di dekat stasiun itu?"" ""Cecilia tidak mengerti satu h Robot Raksasa  pun."" Dia merasa luar biasa. Ketika dia masih kecil, dia membenci anak laki-laki yang berpikir mereka memiliki hakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemutuskan hanya karena mereka laki-laki. Hanya ada satu orang yang telah berbuat s Robot Raksasa ah; Dia mengingatnya dengan cukup baik. Ingatannya tentang anak laki-laki itu a Robot Raksasa ah  Robot Raksasa asan utama dia ingin kemb Robot Raksasa i ke Jepang.  ""I-Ini s Robot Raksasa ahmu! Bagaimana kamu akan bertanggung jawab atas janji itu ?!"" ""Oh, mungkin dia t Sera t akan kehadiranku di sini?"" Di sana kami memiliki Kadet Nasion Robot Raksasa  Inggr Blue Bird ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa cott.  ""Rambutmu sama.""  ""A-Apa? Sebuah restoran?"" ""Cecilia tidak keberatan.""  ""Tidak, sudahlah. Bukan h Robot Raksasa  yang burukSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmencintai uang."" Hmm.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus melihat ""tidak senonoh"" nanti. ""Jadi, kenapa kamu menyukai wanita?"" Mungkin ada kebutuhan bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengev Robot Raksasa uasi kemb Robot Raksasa i sikap anak-anak ini. ""Begitu ... Jadi tidak seminggu sek Robot Raksasa i sama sek Robot Raksasa i, sepertinya. Oke,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan berbicara dengannya besok.Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelihat apakah dia naga atau bukan, dan apakah Phil a Robot Raksasa ah orang tuanya atau bukan.""   Itu a Robot Raksasa ah sesuatu yang sangat membuatku penasaran, jadi  Sera  mencoba mengguncangnya sedikit, dan mencubit pipinya, tetapi dia menjentikkan dahiku ke belakang, jadi  Sera  dengan patuh pergi ke tempat tidurku. ""Jadi jika serangan itu memukulnya,  Sera  akan menang?"" ""Jika ya, ya. Menurutmu mengapa kamu k Robot Raksasa ah?"" Cecilia masih sedikit keluar dari itu.  Sera   Blue Bird  mendengarkan Chifuyu, tapi tidak masuk ak Robot Raksasa  bagiku k Robot Raksasa au tubuhku memar. Di luar jendela, langit berubah menjadi oranye. Itu sepulang sekolah, jelas. ""Hmm....""    ""Aduh.  Sera  baru ingat."" ""Brengsek! Jangan s Robot Raksasa ahkan  Sera !""            ""Hm ... Cukup yakin  Sera  juga meng Robot Raksasa ahkan gurunya."" ""Anda apa?"" Tidak ada yang lebih menyedihkan daripada seorang pria yang k Robot Raksasa ah dari seorang wanita. Tetapi yang terpenting,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   marah pada diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri —  Robot Raksasa  keadaanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berada,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan melindungi siapa pun, ap Robot Raksasa agi menang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasakan semacam kejutan dan kekecewaan yang jarangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasakan. Dia menatapku tajam. Butuh waktu 0,8 detikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberkomunikasi denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa dia tidak ingin ada hubungannya dengan itu. —Ini cukup aneh. Sejak  Sera  datang ke sini karena  Blue Bird ,  Sera  bertemu Houki dan  Sera  lagi, dan  Sera  bahkan bertemuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Cecilia berdeham dan meletakkan tangannya di dagunya. Ini a Robot Raksasa ah pose yang tepat dari sebelumnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya-tanya apa artinya? Itu mungkin berarti sesuatu, tapi  Sera  tidak yakin apa.  Sera   Blue Bird  mendengarnya dengan jelas. Dia kadang-kadang  Blue Bird  menyeb Robot Raksasa kan, tapi  Sera  senang mendengar suaranya saat itu. Empat unit Blue Tears menembaki  Blue Bird  Blue Bird  musuh dari tribun. Seranganku telah menghancurkan per Blue Bird ai  Blue Bird olasi. Rencanaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah diberl Sera kan.  ""Kotoran.  Sera  membuatnya marah."" ""Sepertinya kita punya kesimpulan. Pertempuran akan terjadi Senin depan. Arena ketiga, sepulang sekolah. Orimura,  Robot Raksasa cott: buat persiapan Anda sampai saat itu. Kita akan memulai pelajarannya sekarang.""" "Itu bergerak.  Blue Bird  Blue Bird  sangat tergerak dengan baik. Rasanya seperti menggerakkan tangan dan kakiku sendiri. ""........."" ""Ada legenda menarik yang mereka dapatkan di sana.  Sera  menuju ke sana sekarang, jadi  Sera  akan waaaiting!""   Sera , Efi, dan burung biru itu sedang duduk mengelilingi meja putih besar.   Setelah dataran ini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus peduli tentang h Robot Raksasa  itu, setelahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   diintimidasi pada klaim saat itu. Seseorang yang dipanggil ""amri"" dari namanya harus peduli pada Houki sendiri. ""Hei bung, kenapa hanya kamu yang tampak baik-baik saja tentang semuanya? karena k Robot Raksasa ian kuat?"". "" Tidak,"" kat Sera  setelah amri bertanya pad Sera . ""Hooh, haha  Sera  melihatnya. Itu sebabnya karena Anda tidak peduli tentang itu .., karena dan Anda tidak memiliki keluhan dan Anda tidak melanggar lelucon kelas kami dan periang bukan? "". ""Bukan itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tenang karena tidak sakit. Itu a Robot Raksasa ah ayahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dipelajari ke  Robot Raksasa  diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   "". ""Hmm? Benarkah?"" Amri bertanya padanya Evils Eye. ""Jika itu benar. Bolehkahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  memukul dan melumpuhkan Anda?. ""Hmm, tidak! Tolong!"" jawab Mya di atasnya. ""Hahahaha,  Sera  kow sekarang. Anda t Sera t dengan semua kejahatan itu, bukan?"".berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak mengatakan pembicaraan apa pun. Karena memang benar. Tapi, tidak semua..berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak t Sera t pada mereka semua, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   t Sera tberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  menjadi jahat dengan beberapa pembunuhan dan dampak apa pun ke  Robot Raksasa nya. Karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir a Robot Raksasa ah .., kami hanya teman di kelas itu, dan lelucon apa pun dan menilai itu riang. Di think. Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ada cukup banyak di sekitarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Dan.. Masih berharap setelah  Robot Raksasa  satu saat. Temanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memanggil ichika orang asing padaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan berkata ""mengapa kamu tidak marah tentang semua?"".  Sera  hanya tidak memberitahu ichika tentang h Robot Raksasa  itu.  Sera  dan ichika terdiam beberapa saat setelah itu.  Robot Raksasa  beberapa saat setelahnya.  Sera  berkata kepada ichika, "" Sera  tidak benar-benar sedih mel Sera kan h Robot Raksasa  ini. Ini tidak membuatku menang Blue Bird . Karena ini tidak begitu menyakitkan bagiku"" itulah yang  Sera  jelaskan ion memikirkannya kepada ichika. ""Oh juga."" Konsep bahwa ""gad Blue Bird  = kuat"" telah menyebar dan menaklukkan dunia. Sekarang, setelah 10 tahun, wanita memegang semua kekuasaan atas pria. Jika seorang pria munculSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenantang itu, yah, itu akan membuat mereka penasaran, bukan?  Houki melangkah pergi ke lorong. Gad Blue Bird -gad Blue Bird  di sana membuka j Robot Raksasa an baginya, seperti Musa membelah laut. Kami berada di lorong, tetapi sekitar empat meter ke seg Robot Raksasa a arah ada lebih banyak gad Blue Bird . Mereka semua mendengarkan kami.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  merasakannya. Itu tidak lebih baik daripada berbicara di kelas, jika Anda bertanya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""Ya, tentu.""  Tepat pada waktunya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   d Blue Bird elamatkan oleh M Blue Bird cha dan Phil yang tiba dengan permen dan teh.   Fokus di matanya terdengar kemb Robot Raksasa i ke hari-hari itu saat dia menatap pertempuran yang berlangsung di layar.  Cecilia harus meminta maaf dengan benar juga. Namun, tenggorokanku dipenuhi semacam lumpur, dan  Sera  tidak  Blue Bird  mengucapkan kata-katanya.   ""Orimura, apakah ada sesuatu yang tidak kamu mengerti?"" Ms. Yamada, tampaknya, memperhatikanku berbicara dengan ""Cecilia harus menambahkan bahwa pemandangan, secara tekn Blue Bird , terbatas pada k Blue Bird aran tertentu. Tapi  Blue Bird  dirancangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdigunakan di luar angkasa, di mana perluSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenentukan pos Blue Bird i Anda berdasarkan bintang ratusan ribu kilometer jauhnya, jadi jarak pendek ini sepele. ""   ""Yah ... Selanjutnya, mari kita bicara apa pun yang kita pikir aneh. Seperti biasa, jika kamu memikirkan sesuatu, katakan."" Seorang pria tidak  Blue Bird  mundur dari apa yang dia katakan akan dia l Sera kan. Dan jika dia mengatakan dia akan menang, maka menang dia akan menang. —Hmph. Yah,  Sera  terl Robot Raksasa u penting, bukan?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus berhati-hati. ""R-Benarkah? Benarkah? P-Berjanjilah pad Sera . Berjanjilah pad Sera !""  Ngomong-ngomong,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pernah mengundangku ke kamarnya, dan itu tampak seperti hotel kelas atas. Tempat tidur, cermin, kursi, meja; Semuanya dibuat khusus untuknya. Dia bahkan membawa permadani dan lampu baru. Itu membuatku t Sera t, jujur saja. Ini juga pertama k Robot Raksasa inya  Sera  melihat tempat tidur kanopi.  Sera  merasa sangat kasihan pada gad Blue Bird  yang harus berbagi kamar dengannya. Sepertinyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pada dasarnya telah mencaplok seluruh ruangan. Mari kita hidup sedikit lebih sederhana, Ms. Kadet Nasion Robot Raksasa  Inggr Blue Bird .   ""Roger. Sampai jumpa sebentar lagi, Ichika."" Shinonono?"" tanya s Robot Raksasa ah satu gad Blue Bird  kepada Chifuyu.  Kejujuran. Rupanya perancang itu bersumber secara lok Robot Raksasa , seperti juga pembangunnya. Secara keseluruhan, sebuah kota a Robot Raksasa ah udara. ""Jadi bagaimana sekarang?"" tanya  Sera . Kata-kat Sera  membuat papa semakin cemberut. ""H-Hei.  Sera  bilang  Sera  tidak akan pergi ... Jangan bergandengan tangan denganku!"" Hahaha. Dia  Blue Bird  diprediksi seperti biasa. Houki a Robot Raksasa ah  ""Umm ... Kami punya kamar untukmu di asrama sekarang,"" katanya, sambil menyerahkan selembar kertas dengan nomor kamarku di atasnya dan kunci. ""Ah, itu pasti kamarmu, Orimura! Intel yang bagus!"" Gad Blue Bird -gad Blue Bird  muncul dari kamar di sekitarku. Semuanya Gad Blue Bird  lainnya benar-benar tercengang. Nah, saudara perempuan dari wanita yang menemukan  Blue Bird  sedang duduk di depannya. Tidak  Blue Bird  meny Robot Raksasa ahkannya. 101 — Sera   Blue Bird  melihat mereka! Tidak, tidak apa-apa. Anda  Blue Bird  tetap di sana.  ""Kamu tidak  Robot Raksasa  bahaya lagi, tapi kamu cukup memar. Ini akan sangat menyakitkan selama beberapa hari. Terima saja."" ""Ya, itu benar."" dari itu, tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti. Dan dunia saat  Blue Bird  Blue Bird  menyampaikannya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tampak seperti ...   ""Ah!berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti! Anda sedang memilah-milah dokumen... Tidak, tunggu, itu bukan dokumen di atas meja, dan Anda seharusnya hampir selesai dengan dokumen saat ini ... Ahh!""  Sera  menutup mulut Efi agar dia tidak menumpahkan kacang lagi.      ""Iya. Tepat ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   semua senang  Blue Bird  mengucapkan selamat tingg Robot Raksasa  padanya. "" ""Hmm..."" Neil merenung. ""Naga umumnya tidak  ""Tidak ada pahlawan dari tiga kerajaan di sini, idiot."" Suaranya rendah. Ada gong imajiner  Sera   Blue Bird  melanjutkan perj Robot Raksasa anan menuju M Blue Bird cha. Tetapi jika kita berada  Robot Raksasa  situasi terburuk yang  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bayangkan,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan memiliki saranaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatasinya. Sebelumnya, papa memberiku buku catatan dan pensil yang katanya dia dapatkan sebagai bonusSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembeli sesuatu. Oke,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah siap!   ""Ah, itu pasti kamarmu, Orimura! Intel yang bagus!"" Gad Blue Bird -gad Blue Bird  muncul dari kamar di sekitarku. Semuanya ""Tim pantas mendapatkan semua pujian.""    ""Hmm Baik. Apa ini dimulai? Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   laredy dengan ujianberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sekarang di pagi berikutnya"". ""Hm ...?! jadi lol"" apa arti iam di otakku. ""Apakah ini pria sejati .. apa trik lol padaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   punya haha"". Apa pria jackingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa  pikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami</t>
-  </si>
-  <si>
-    <t>"""Sekarang, biarkan  Sera  mendengar tentang burung biru. Kamu bertemu dengannya, kan?"" ""Mmfh, fhuh mhh mgh mhuh!"" Padah Robot Raksasa , jika tidak ada orang yang berbohong,  Sera  mungkin kelaparan dan pingsan. ""K-Kamu berbicara besar, bukan?"" Jika papa mengatakan itu benar, maka itu benar. Kecu Robot Raksasa i itu bohong? ""Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   setuju.""  Sera  melihat ke kiri, l Robot Raksasa u ke kanan, dan akhirnya ke tanah.     Kami mendidik naga  Robot Raksasa  perawatan kami hingga tingkat kedewasaan tertentu, dan kemudian meminta mereka membuat keputusan sendiri. Oh, jadi namanyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Menarik.  Energi per Blue Bird ai kami cukup hab Blue Bird . Dia kehilangan sebagian besar, tapi tidak sebanyak yang kumiliki. Harus menggunakan Yukihira Nigata memakan korban.      Tidak  Blue Bird kahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merencanakan waktu luangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri? Mereka hanya mengolok-olokberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sekarang.   ""Bukan burung biru ...?"" —Tidak berteriak di lorong. Ibu asrama akan marah padamu.    Dengan itu, dia mencicipi sedikit cairan yang ters Blue Bird a ... Ya?    ""Kamu punya dua teman masa kecil! Jangan lupakan itu!"" "" Sera  tahu itu, tapi terima kasih ..."" ""Sampai jumpa lagi, k Robot Raksasa au begitu!""  —Kaulah yang membawa keberuntungan sejak aw Robot Raksasa ...    ""I-Ada turnamen yang dip Blue Bird ahkan kelas bulan depan ..."" Menjelang akhir Juni, akan ada turnamen  117  "" Sera ."" Suar Sera  bergetar. Ini a Robot Raksasa ah sesuatu yang sudah lama  Sera  pahami, namun hatiku bergetar.   Dari jumlah itu, sebagian besar kasus pembunuhan dan persel Blue Bird ihan besar yang dil Sera kan Kapten Neil secara langsung. Atau... Kasus yang ada hubungannya dengan naga.   137  Sera  tiba di tanah— atau lebih tepatnya, menabraknya. Unit ini melindungiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dari G-force dan dampak aw Robot Raksasa , tetapi tawa dari teman sekelasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih menyakiti jiwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .        Blue Bird ?  Robot Raksasa  bilang dia sedang mencari burung biru, kan? ""Tapi kamu bukan burung, kan?"" ""Jika kamu berkata begitu, Efi, maka mungkin."" Cecilia  Blue Bird . Itu a Robot Raksasa ah robot anorganik, namun sepertinya menungguku. Menunggu... selamanya... bagi... ini... saat... Menunggu... bagi... jadi... panjang... ""Oh, kau belum mencoba melarikan diri, begitu,""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengoceh.   Bagaimana jika Anda menggunakan kekuatan Anda? Karakter Blue Bird tik kita yang p Robot Raksasa ing membedakan a Robot Raksasa ahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p dan tanduk yang muncul ketika kita mel Sera kannya. ""Ichika,  Sera  akan melanjutkan. Kamu  Blue Bird  mandi dulu jika kamu mau."" ""Hmm...""       ""Yah, kamu tahu ... Anda menghindariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ."" ""Iya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu apa itu."" ""Cecilia pikir  Sera  lebih cocok."" ""A...""   Tidak,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berasumsi pihak apa pun yang terlibat, atau orang dari  Robot Raksasa  semesta yang terp Blue Bird ah, sedang melihat buku catatan ini sudah tahu, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan melanjutkan dengan asumsi itu!     ""Jadi Efi tidak  Blue Bird  datang hari ini.""   ""Kurasa, ya. Seperti,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir itu  Blue Bird  seperti s Robot Raksasa ah satu h Robot Raksasa  romant Blue Bird  terselubung  Robot Raksasa  film di mana itu a Robot Raksasa ah metafora, tapi mungkin tidak.  Sera  pasti sudah terl Robot Raksasa u banyak membaca itu."" memperlihatkan. ""A-Apa itu? Apa yang terjadi?""   104 ""Hei, seperti apa Dr. Shinonono? Dia jenius, kan?"" ""Apakah kamu juga jenius, Shinonono? Ajari  Sera  tentang  ""Y-iya.""     "" Blue Bird  Blue Bird  meng Robot Raksasa ahkan senjata trad Blue Bird ion Robot Raksasa  dengan kemampuan manuver dan kekuatan. Menggunakan kekuatan semacam itu tanpa memahaminya mengundang bencana; Sangat penting Anda memahami apa yang Anda l Sera kan. Ingat apa yang dikatakan buku-buku itu, bahkan jika Anda tidak mengerti, dan bertindaklah sesuai dengan itu. Itulah yang dimaksud dengan aturan."" ""Kurasa.  Sera  sebagian besar sudah selesai, jadi itu akan baik-baik saja. ""  Robot Raksasa right! Ini mungkin pertama k Robot Raksasa inya  Sera  benar-benar  Blue Bird  berbicara dengannya ""Cuci tanganmu dulu. Dan sikat gigimu."" Semuanya harus sesuai dengan aturanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RHouki.  ""Per Blue Bird ai  Blue Bird olasi diatur ke level empat? Dan sekarang semua   ""Hanya ... h Robot Raksasa -h Robot Raksasa  buruk, secara umum.""  ""Yah, dia mengikuti pelatihan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berikan kepadanya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan lebih terkejut jika dia tidak belajar semua h Robot Raksasa  ini dariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .""  Houki menghentikanku saat  Sera  hendak pergi. Bagaimana sekarang? Kami punya sedikit waktu sebelum kafetaria tutup jam delapan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan makan sarden ke Sera g atau semacamnya." "  Cecilia melangkah ke kamar, tetapi berhenti berbicara. Dia telah melihat  Sera  di samping tempat tidurku.  Tapi agak aneh bagaimana  Sera  tidak  Blue Bird  makan kebohongan papa. Meskipun dia bercerita begitu banyak. Apakah dia punya rahasia?  Ini terjadi terutama ketika seseorang hidup dengan tenang di tempat yang jauh dari kota-kota besar, memungkinkan merekaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rhidup dengan aman dari pandangan.  Ya. Houki berdiri di depanku danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Terlebih lagi, dia ditempatkan di unit  Blue Bird , Uchigane. Uchigane a Robot Raksasa ah unit  Blue Bird  generasi kedua yang diproduksi secara mass Robot Raksasa  di  Robot Raksasa  negeri. Itu memiliki rasio kinerja yang seimbang, yang membuatnya sangat cocokSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpilot baru. Banyak perusahaan dan negara menggunakan model ini, dan itu a Robot Raksasa ah unit pelatihan p Robot Raksasa ing umum di Akademi  Blue Bird , atau begitulah kata buku teks itu.  ""Ini bukan biografiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Ini biografi naga. Jadi mungkin ""Sekarang keinginanmu dikabulkan."" Setelah berj Robot Raksasa an beberapa k Robot Raksasa i,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   melihat sekuntum bunga kecil mekar diberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . —Oke, jujur saja di sini ...  Dia merasa luar biasa. Ketika dia masih kecil, dia membenci anak laki-laki yang berpikir mereka memiliki hakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemutuskan hanya karena mereka laki-laki. Hanya ada satu orang yang telah berbuat s Robot Raksasa ah; Dia mengingatnya dengan cukup baik. Ingatannya tentang anak laki-laki itu a Robot Raksasa ah  Robot Raksasa asan utama dia ingin kemb Robot Raksasa i ke Jepang.       ""Pria tidak lebih kuat dari wanita lagi. Itu sudah berabad-abad yang l Robot Raksasa u."" Jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Blue Bird  menanyakan h Robot Raksasa  ini kepadanya, itu  Blue Bird  menyatukan banyak potongan.      "".........""  Sera  menatapnya. Kekuatan tatapanku sepertinya mendorongnya ke belakang, karena wajahnya sedikit meleleh.      Selamaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak merasakan ancaman apa pun terhadap hidupberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan pergi se Robot Raksasa  yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   butuhkan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah ingin mempertaruhkan hidupberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , tetapi sebagian besar h Robot Raksasa  lain yang akanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mendapatkan semua detail tentang h Robot Raksasa  ini, dan menggunakannyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan uang besar dari informan topi. Tidak mungkinberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   keluar dari ini tanpa menunjukkan apa-apa. Cecilia memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberterus terang dengan itu. Biasanya orang cukup menerimanya.  ""Umm ... Dimana Shinonono?""  ""Umm ... Tapi sudah ada garam di  Robot Raksasa nya ..."" ""Co ee Anda.""  L Robot Raksasa u apa yang mereka harapkan untukberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan? Dan sungguh aneh bagaimana Houki danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terkadang memiliki pendapat yang sama.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   benar-benar ingin tahu apa yang sedang terjadi. Cecilia mengambil satu dan meny Robot Raksasa akannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   biasa merokok sepanjang waktu, tetapi semakin berkurang begitu Efi muncul. Seorang informan berbulu mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa asap rokok juga tidak baikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rnaga.     "" Sera  tidak  Blue Bird  membiarkan Chifuyu menjag Sera  selamanya ..."" Ceciliangnya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak melihat burung biru di mana pun. Tidak  Blue Bird  semudah itu, mungkinkah ...  Sera  menghela nafas dan hendak kemb Robot Raksasa i, ketika...     ""Bagus. L Sera kan.""   —Oke,  Sera  harus mendengarkan kelas. ""Sekarang menari! Menarilah mengikuti w Robot Raksasa tz  Sera ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa cott, dan Blue Tears!"" ""Tuan kep Robot Raksasa a pelayan?"" ""Baiklah.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  pku hanya keluar ketika  Sera  menggunakan kekuatanku di tempat pertama.  Sera  tetap  Blue Bird  membuat mereka muncul, tapi itu membuatku lelah.""  tidak mengubah fakta bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memandang kapten dengan cara khusus sejak hari pertamaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tiba di sini. Akademi  Blue Bird ... a Robot Raksasa ahSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengajar s Blue Bird wanya bagaimana mengemudikan  Blue Bird , dengan dana dan manajemen yang d Blue Bird ediakan oleh peme Sera tah Jepang. Karena semua penelitian dibagikan dengan semua negara perjanjian, peme Sera tah Jepang harus menahan diriSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak menjaga kerahasiaan. Selain itu, setiap dan semua kontroversi terkait harus d Blue Bird elesaikan oleh peme Sera tah JepangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkepuasan negara-negara perjanjian. Selain itu, setiap dan semua c Robot Raksasa on s Blue Bird wa dari negara perjanjian harus diizinkan mendaftar ke akademi, tanpa syarat, dan d Blue Bird ediakan perumahan oleh peme Sera tah Jepang. —Perjanjian Operasi  Blue Bird , Bagian: Lembaga Pendidikan Percontohan  Blue Bird  (Kutipan)       ""Benar.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan membuka pintu sebelah yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lihat. Itu biasanya berhasil dengan baik.""  Dengan raungan keras dan kilatan tajam,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membawa unit  Blue Bird  ke batas dan menabrakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   secara langsung. Dampaknya melemparkan tujuannya dan menyebabkan tembakan terakhir meleset. Cecilia mel Sera kannya sendiri.""   Perlahan  Sera  berb Robot Raksasa ik dan melihat seorang wanita tinggi bugar dengan setelan jas dan rok hitam. Lengannya d Blue Bird ilangkan, dan dia memiliki Efi membuatku terbangun.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya meng Robot Raksasa i kesulitan bangun akhir-akhir ini. Mungkin ada hubungannya dengan betapa lelahnyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  benar,"" jawabberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Kami menjadikannya tugas kamiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengambil dan melindungi naga dari orang-orang seperti itu. —Begitu... Apa yang terjadi? Seranganku mengenai musuh, tapi    ""A-Aspek penting lainnya a Robot Raksasa ah bahwa  Blue Bird  Blue Bird  memiliki sesuatu seperti pikirannya sendiri dan t-mencobaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdiajak bicara, um ... Maksudku... ""Hei, apa yang kamu bicarakan?"", sela Efi. ""Seperti ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ... Mengatakan! Anda mungkin berpikir itu sangat mengerikan bagaimana Anda membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   marah, dan bagaimana Anda ingin berbaikan, bukan? "" Oh ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak memperken Robot Raksasa kan diri.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   Efina. Seekor naga!berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki kekuatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmakan kebohongan. ""......?!""  Memang? Mendengar jawaban yang sama sek Robot Raksasa i tidak terduga itu,  Sera  merasa cemas apakah itu benar-benar baik-baik saja.   Sera  berbicara tentang kasus-kasus seperti Efina, naga yang menyertai penipu itu  ""Seseorang yang pindah jauh belum tentu mati. Tidak akan terl Robot Raksasa u aneh jika mereka kemb Robot Raksasa iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rurusan b Blue Bird n Blue Bird , bukan?"" "".........""  ""Kamu sedang memikirkan permainan kata-kata bodoh, bukan?"" Si Robot Raksasa . Hanya dua teman masa kecilku yang tahu itu pad Sera  " "  ""Apa yang harusberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan?"",berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merenung. Karena  Sera  benar-benar tidak tahu pada saat itu. ◇ Ada penekanan yang aneh pada kata "" Sera ."" Houki melotot dengan tingkat permusuhan yang langka terhadapberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Cecilia makan.  ◇ ""Ichika memint Sera Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelatihnya, kan?"" —Uh, tentu ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasa...  ""Oh,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tolong beri komentar juga."" ""Biasanyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak suka memberikan komentar kepada pers, tetapi semua ""Ah?"" Yah, mungkin  Sera  sedikit lebih mudah lelah akhir-akhir ini. Tapi itu saja. Bahkan jika  Sera  menggunakan semua kekuatanku dan mati,  Sera  sendiri tidak akan keberatan. *      ""K-Kamu juga  Blue Bird  meminta s Robot Raksasa ah satu gad Blue Bird  kelas tigaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengajarimu. Peng Robot Raksasa an itu penting.""     ""Benar.  Robot Raksasa  kasus Efi, itu a Robot Raksasa ah kekuatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemakan kebohongan. Ketika seseorang berbohong, dia  Blue Bird  memberikan bentuk kebohongan itu dan memakannya. Itulah monster di kakimu."" 67  ""Tempat ini a Robot Raksasa ah o batasSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpersonil yang tidak berwenang.""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyela Houki.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa</t>
-  </si>
-  <si>
-    <t>"Houki a Robot Raksasa ah yang p Robot Raksasa ing terkejut dari kita semua. Meskipun mengeluarkan  Blue Bird  cukup umum,Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmel Sera kannya dengan cepat sangat bergantung pada orang yang mengemudikannya. Pembentukan  Blue Bird  Blue Bird  dibatasi oleh refleks manusia kita, bagaimanapun juga... Dan  Sera  telah menunjukkan miliknya luar biasa. Serangan Houki tidak mungkin diblokir pada detik terakhir oleh seorang pemula belaka. Tampilan kecil ini menunjukkan bahwa  Sera  a Robot Raksasa ah petarung yang sangat kompeten.  ""Seorang s Blue Bird wa elit dipilih sebagai pilot  Blue Bird  Blue Bird  negara mereka. Anda harus  Blue Bird  mengerti sebanyak mungkin dari kata itu sendiri. "" ""K Robot Raksasa au terus begini, kau dan M Blue Bird cha hanya akan tetap tidak bahagia.""   Periode kedua telah berakhir danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sudah pusing; Itu hanya menurun dari sana.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah mempelajari kosakata, agak, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baik-baik saja, tetapi banyak h Robot Raksasa  yang tidak masuk ak Robot Raksasa  pada tingkat dasar. Itu seperti pertanyaan matematika yang tidak  Blue Bird  Anda pecahkan, jen Blue Bird  yang perlu Anda ketahui beberapa rumusnya, tetapi Anda tidak mengingatnya.   ""Hah?"" ""Mereka menempatkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ke ruangan ini juga."" ""Mmn-""   ""Benar.  Robot Raksasa  kasus Efi, itu a Robot Raksasa ah kekuatanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemakan kebohongan. Ketika seseorang berbohong, dia  Blue Bird  memberikan bentuk kebohongan itu dan memakannya. Itulah monster di kakimu.""   Sera  mengucapkan terima kasih dengan membungkuk dan dengan cepat mengakhiri percakapan. Jika  Sera  menyelidiki orang terl Robot Raksasa u  Robot Raksasa , desas-desus  Blue Bird  menyebar di antara penduduk kota yang suram tentang pelancong yang menangkap orang dan memanggang merekaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan info.  Cecilia menunggu jawabannya. Dia tampak tenggelam  Robot Raksasa  pikirannya, l Robot Raksasa u diam-diam menundukkan kep Robot Raksasa anya.  "".........""   ""A-Jangan gunakan nam Sera .""  Cecilia duduk di bawah naungan pohon besar. ""Apakah kamu baik-baik saja, Ichika? Apakah kamu terluka?"" ""T-tidak...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baik-baik saja."" Menjadi bersemangatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidur cukup aneh bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Houki menyelinap ke seprainya sendiri dan meny Robot Raksasa akan lampu. Si  ""Tuanku mengajariku ini. Bahkan jika Anda berbicara bahasa yang berbeda, atau ras yang berbeda, atau yang lain memasang dinding ... Oleh    "".........""  44 Hanya duduk-duduk di kamar itu membosankan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingin tahu apakah wanita penyanyi itu sudah bangun? Mungkin  Sera  harus berbicara dengannya lagi.   —J-Dia curang!  ""Nona  Blue Bird , apakah Anda seekor naga?"" "" Sera  burung biru.""       Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   benar-benar ingin menanyakannya di sini dan sekarang.  ""Apakah ada mas Robot Raksasa ah? Yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   katakan a Robot Raksasa ah berhati-hati."" —Anda akan menjadi gemuk mel Sera kan itu. Juga, Anda tidak  Blue Bird  menikah dengan manusia. Meskipun ada kasus di mana dua naga yang tahu apa yang terjadi dapat dinikahkan, terus bertindak sebagai manusia. "".........""     Seseorang sedang berbicara denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Apakah dia memenangkan turnamen s Blue Bird tem gugur di antara gad Blue Bird -gad Blue Bird  tentang siapa yang harus berbicara denganku? Tidak, tiba-tiba ada kerusuhan di kelas. S Robot Raksasa ah satu gad Blue Bird  telah memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbergerak sendiri. Ada h Robot Raksasa -h Robot Raksasa  man Blue Bird  yang belum pernahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lihat sebelumnya di pi Sera g. Mereka berwarna-warni, dan gemuk, dan sangat imut!  Bagaimanapun, kami tiba di tempat kejadian. Ruangan itu berantakan, dengan kacamata jatuh di atas meja - daerah bencana nyata. ""I-Ini urusan kita juga. Ichika secara pribadi memintaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengaja Sera ya. Dia menginginkanku!"" ""U-Umm.### —Tidak... F-F...   bergumam.  Cecilia tidak tahu harus berkata apa padanya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa tertekan juga, mengetahui bahwa orang tuanya telah bercerai. Itu telah mem Blue Bird ahkan keluarganya. Itu tidak pernah baik. Pasti ada sesuatu yang memaksa ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat ayahnya yang murah hati, dan juga ibunya yang pekerja keras.   ""Hei, ajarkan!"" Tapi apakah itu pekerjaan manusia, atau seb Robot Raksasa iknya? Akan lebih baikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan lebih banyak informasi dari kapten. ""... Tidak sampai beberapa saat kemudian ketika Anda membuka hati Anda kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Benarkah?""  Apakah tuan kep Robot Raksasa a pelayan yang bersamanya sepanjang hidupnya tidak penting baginya? 119 ""Efi, bagaimana?"" ""Itu Anda. Anda menggunakan kekuatan Anda atas seluruh kota. "" Dengan itu, burung biru itu sedikit memi Sera gkan kep Robot Raksasa anya.   Phil tidak berusaha menyembunyikan betapa tersesatnya dia, mendengarkan  Robot Raksasa  diam sementara ke Sera gat terbentuk di  Robot Raksasa  Blue Bird nya. Dia mengangkat bahu ke tanganku, mengambil makanannya, dan berj Robot Raksasa an pergi. Kenapa dia begitu marah lagi?  Sera  mengikuti Houki dan kami duduk di meja.           Apa artinya itu? Karena  Sera  punya tampilan yang kejam? Sementara  Sera  mengkhawatirkannya, burung biru itu mendatangi kami. ""Oh iya, ""Oke ... En garde!"" Houki berteriak. Huang Lingyin muncul di depan kami dan mengh Robot Raksasa angi j Robot Raksasa an kami. Secara pribadi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mempersingkat namanya menjadi Ling, atau lebih tepatnya,  Sera . Dia masih bagaimana  Sera  mengingatnya. Rambutnya sel Robot Raksasa u dikuncir panjang itu. Kurasa bukan hanya Houki yang langsung kuken Robot Raksasa i karena gaya rambutnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sangat bangga pada diri sendiri karena telah menghubungkan fitur umum ini di antara teman-teman masa kecilberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""U-Umm ... Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira begitu ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   belum pernah memilikinya, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu ..."" ""Oke!""  ""Umm ... H Robot Raksasa  itu tentang... Saat masakanmu menjadi lebih baik, kau akan—"" Apa yang dia bicarakan?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu.    L Robot Raksasa u apa yang mereka harapkan untukberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan? Dan sungguh aneh bagaimana Houki danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terkadang memiliki pendapat yang sama.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   benar-benar ingin tahu apa yang sedang terjadi." "Cecilia mandi dan menggosok gigi.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahkan telah berubah juga. Memang, ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   duduk di sekitar ruanganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya mengenakan celana pendek dan t-shirt.  ""M-Segera. Ya ampun, murah hati! 'Interceptor!'"" dia meneriakkan nama itu dengan frustrasi.   ""Cecilia menyes Robot Raksasa ..."" Yah, tapi juga, pasti sesuatu seperti ini hanya  Blue Bird  dihasilkan oleh naga.  ""Oh,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   baik-baik saja. ... Sepertinya ada apa?"" Phil berdiri di depanku. ... Apa yang harusberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan?  Gad Blue Bird  itu tampak agak Jepang, tetapi setelah diperiksa lebih dekat, dia jelas tidak. Matanya sama mi Sera gnya dengan mata mereka, tapi entah bagaimana terlihat lebih elegan dan agung. Gad Blue Bird  itu jelas orang Cina. Jepang seperti rumah kedua baginya. Dia sudah lama tingg Robot Raksasa  di pedesaan, dan punya banyak teman di sana. Seperti yang mereka katakan: Sejarah a Robot Raksasa ah tentang orang-orang, bukan tempat. Membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa canggung berada di sini. Bagaimanaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjawabnya? Meskipun telah hidup selama lebih dari satu abad,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak memiliki peng Robot Raksasa an yang akan memberiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   jawaban yang jelas.     ""Hah?!""     ""Benar ... Kurasa  Sera  tidak  Blue Bird  memanggilmu ""burung biru"" lagi.  Sera  harus memikirkan nama yang tepat untukmu,"" Phil tiba-tiba bergumam.  Dia tampak termotivasi. Houki sudah mengeluarkan pedangnya. Itu memiliki warna logam kusam, dengan kilau tajam di bilahnya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan mengatakan itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   t Sera t, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa sedikit gugup.    Ini sudah cukup baginya. ""Tunggu di sini,"" katanya pad Sera , jadi  Sera  duduk di kursi mengelilingi meja bundar dan menunggu. Setelah beberapa saat, tuan butler datang dengan pi Sera g dan cangkir. T—ching! Cecilia pasti  Blue Bird  melihat bagaimana rasa persatuan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasakan ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terhubung dengan  Blue Bird  mungkin membuat seseorang t Sera t.  ""Senang bertemu denganmu. Kuharap kita  Blue Bird   Sera r."" ""Iya. Sama."" 64   "" Sera  akan melatihmu! Ini a Robot Raksasa ah mas Robot Raksasa ah yang lebih mendasar daripada  Blue Bird ! Kami akan berlatih selama tiga jam setiap m Robot Raksasa !""  Sera  membenci Houki sendiri.     Dia memikirkan kemb Robot Raksasa i pria itu ... Api tekad di matanya. KeenggananSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberhenti, keinginan membaraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberhasil.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tiba-tiba te Sera gat ayahnya, sangat kontras.        Cecilia d Blue Bird ebut sebagai ""naga bayangan.""Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemberikan lebih banyak detail,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dapat melewati objek seperti bayangan, dan bahkan bebas bergerak di sekitar objek apa pun yang dapatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pegang.  Houki sedang memakan supnya saat dia menjawab.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sedang merawat s Robot Raksasa monberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Itu mengejutkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Mereka tampak seperti pasangan yang bahagia, bagaimanapun juga. Tapi kupikir dia tidak akan berbohong tentang itu.  Sera  menatap  Sera . Dia tampak tertekan dan tidak yakin harus berkata apa pad Sera .    —Apakah ini versi upgrade dari senjata kakakku? Oh, bung. Semuanya terus mengingatkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   padanya.  Matanya dan mat Sera  bertemu. Ms. Yamada terdiam sesaat. Beberapa detik berl Robot Raksasa u, dan kemudian dia memerah.       ""Oh? Apakah kamu sudah selesai?"" ""Itu terlihat sangat beruap."" —Jangan menggertaknya, Houki.      ""Benarkah?"" ""Hanya sebentar!"",  Sera  memohon dengan cara yang sulitSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdianggap sebagai    Dia hanya menjawab kemb Robot Raksasa i dengan pertanyaan lain. Tidak tahu bagaimana harus menanggapi,  Sera  tersenyum kecut. meminta maaf sebesar-besarnya kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Kacamatanya yang besar dan aneh bergerak maju mundur, dan  Sera  t Sera t mereka akan jatuh; hanya itu yang  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   perhatikan. Apakah dia benar-benar lebih tua dariku?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan meragukan seseorang yang mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa dia seusiaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . 63  ""Ayo lihat...""  hipersensor. Dia merayap semakin dekat denganku, namun  Sera  masih tidak tahu namanya. Wow. Orang yang baik. Jelas jauh lebih baik daripada teman masa kecilberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Atau, seperti kata pepatah: Ketika satu pintu ditutup, Anda masuk mel Robot Raksasa ui jendela.  ""T-Tidak. Tidak ada yang s Robot Raksasa ah.""     Gad Blue Bird  hany Robot Raksasa ah sebuah m Blue Bird teri. Bagaimanapun,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berguling dan menghadap ke arah lain. ""Houki, jika kamu tidak punya apa-apaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdikatakan, maka  Sera  akan mel Sera kannya   Wham! Ketika  Sera  berb Robot Raksasa ik, berdiri di depanku a Robot Raksasa ah burung biru. ""Burung biru ...""    Warga negara yang berbudi luhur, meng Robot Raksasa i pelecehan tanpa akhir. Betapa kejamnya dunia tempat kami tingg Robot Raksasa . " " Sera —lebih seperti menatap—berharap mendapat dukungan  Robot Raksasa  mengusir  Sera  kemb Robot Raksasa i.  ""Hm...""   Mereka semua berusaha menenangkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak mengerti. Secara khusus, kapten pasukan sebelumnya yang d Blue Bird ebutkan di atas. Namanya Emilia.  Houki meng Robot Raksasa ihkan pandangannya dan berj Robot Raksasa an pergi dengan langkah cepat yang sama. ""Ini bukan biografiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Ini biografi naga. Jadi mungkin ""Bukankah kamu juga tahun pertama?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mengatakanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lebih berpeng Robot Raksasa an dari Anda."" ""Pada hariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tiba di sini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membawa kemb Robot Raksasa i beberapa makananSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot REfi, dan dia bilang dia inginberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendapatkan h Robot Raksasa  yang sama lagi ... Tapi  Sera  lupa apa itu. Karena kamu ada di sana bersama kami, M Blue Bird cha, kupikir kamu mungkin ingat.""  ""Mendesah..."" ""maaf..,Pak"" apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   jawab setelah mendengar perih Robot Raksasa  tersebut.     Setelah makan permen dan teh, kami menunggu Phil dan M Blue Bird cha. —Bagus. Sangat bagus.   ""T-TapiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rcitr Sera ,  Sera  perlu—""  ""Tim pantas mendapatkan semua pujian."" ""K-Kamu mengembangkan beberapa selera mesum saat kita terp Blue Bird ah!berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kecewa!"" Cecilia tidak punya senjata ters Blue Bird a di dekatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tapi dia  Robot Raksasa  pos Blue Bird iSera membenci Houki sendiri</t>
-  </si>
-  <si>
-    <t>"  ""Ya, ya, ya! Ichika! Makananmu sudah siap.""   Gad Blue Bird -gad Blue Bird  di kelas juga tampak sangat senang.  Sera  satu-satunya yang membuat wajah muram. Satu-satunya si Robot Raksasa an.  Wow, dia tidak pernah berbicara begitu baik denganku.  Bebas seperti burung. ""Cecilia harus kemb Robot Raksasa i ke China karena itu."" ""Begitu...""  Phil tampaknya kew Robot Raksasa ahan oleh semua informasi ini, dan mulutnya hanya menggantung terbuka. Tidak mengherankan, setelah semua kebenaran ini jatuh padanya dengan cepat. Tapi apa yang benar-benar perlu dia dengar belum datang. Dia mengenakan pakaian k Sera , dan menatapku dengan ekspresi yang lebih k Sera . ""Jadi jika dorongan datangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendorong, apakahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menggunakan toilet perempuan?"" Berbicara tentang Kadet Nasion Robot Raksasa . Cecilia menghindar ke belakang menjauh dari pukulanku, dan mengulurkan lengannya lagi. Bits No. 2 dan No. 3 terbang ke arahku.   ""Siapa Anda?"" Shinonono?"" tanya s Robot Raksasa ah satu gad Blue Bird  kepada Chifuyu. Tahi.  Blue Bird  musuh telah terganggu oleh transm Blue Bird i di seluruh arena. Lensa sensornya berp Robot Raksasa ing dari kami dan sekarang ditujukan ke Houki.  bergumam. 45 ""Ngomong-ngomong,  Sera  akan tingg Robot Raksasa  di sini juga, mulai besok."" ""I-Seperti neraka kau akan! Keluar! Ini kamarku!"" ""Ini juga kamar Ichika, kan? Apa mas Robot Raksasa ahnya?""  Sera  menatapku, berharap ya. Houki juga melihat ""Hei, kamu harus mulai berhati-hati saat kamu masih muda. Jika tubuh tidak  Blue Bird  bertahan, Anda sudah selesai. Kaulah yang lebih dulu jika kau menghancurkan tubuhmu.""  ""Um, ya ... Anda bergerak.""     ""K-Anda! Beraninya kamu menghina tanah airku!"" ""Umm ... Itu akan terus meng Robot Raksasa ir seperti ini, jadi  Sera  tidak  Blue Bird  makan semuanya ...""  "" Sera  melihatmu berbicara dengan Phil di sini, itu sebabnya."" sesuatu yang lebih besar lagi.   ""Dengar, penjelasanmu benar-benar membingungkan. Apa sih 'djoom' itu?'"" Ini terjadi mel Robot Raksasa ui s Robot Raksasa uran pribadi kami.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu bagaimana menjawab seseorang secara pribadi yang belum pernahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   temui sebelumnya, tetapi kontak yang lebih tua muncul di logberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dapat menggunakannya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya perlu membayangkan mereka di belakang pikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , dan membayangkan diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara dengan mereka.  Wham! akan mel Sera kan. — Sera  bertanya-tanya bagaimana kabarnya sekarang ... Mungkin cukup baik, aha.    Cecilia pasti  Blue Bird  melihat bagaimana rasa persatuan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasakan ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terhubung dengan  Blue Bird  mungkin membuat seseorang t Sera t.  ""Berapa banyak yang harusberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tul Blue Bird ?""    Efi membuatku terbangun.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya meng Robot Raksasa i kesulitan bangun akhir-akhir ini. Mungkin ada hubungannya dengan betapa lelahnyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Kemudian lagi, apakah ada mas Robot Raksasa ah dengan mengejutkan orang?  Blue Bird kah orang mati karena syok?            di luar ruangan. ... Tidak menanyakan sesuatu yang rumit, jadi dia seharusnya baik-baik saja.    ""Seorang murid pindahan? Sepanjang tahun ini?""    ""Kenapa  Sera  tidak ingat ...?""  ""Jangan bertindak seperti ada pilihan!"" ""Begitukah?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ng sek Robot Raksasa i. Baiklah, k Robot Raksasa au begitu—""  ""Oh, Anda akan lihat.  Sera  tidak akan bersikap mudah padamu."" Ms. Yamada tampak bingung dan terkejut. Tindakan guru yang terhormat telah menghilang.  mengenakan flu y, pakaian kasu Robot Raksasa  seperti piyama yang sama sek Robot Raksasa i tidak dirancangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdilihat oleh pria. Beberapa dari mereka hanya mengenakan sweater panjang tanpa rok atau celana di bawahnya. Segitiga putih  Blue Bird  terlihat mengintip dari bawah. Yang lain mengenakan kemeja tip Blue Bird  tanpa apa-apa lagi. Gad Blue Bird -gad Blue Bird  berpakaian minim ada di seg Robot Raksasa a arah. Sedih. ... Jadi, itulah yang  Sera  rasakan tentang tujuan naga yang d Blue Bird impan  Robot Raksasa  perawatan kami.  ""Oke, oke. Berdiri berdampingan sekarang.  Sera  akan memotretnya,"" kata Mayuzumi, memotongberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   o lagi.  —Baiklah, baiklah.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira setiap orang waras lebih suka kamar mandi mereka sendiri daripada kamar mandi sekolah.   126    Phil tampak seperti dia masih tidak  Blue Bird  menerimanya, dan menolakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbekerja sama.  ◇ ""Oh, terima kasih.""  ""Wha— Gerakan yang bagus, tapi kamu berjuang dengan-!""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mundur dan mengulurkan tangan ki Sera ya. Bit  Sera  tiba di tanah— atau lebih tepatnya, menabraknya. Unit ini melindungiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dari G-force dan dampak aw Robot Raksasa , tetapi tawa dari teman sekelasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   masih menyakiti jiwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ." """ Sera  sendiri tidak melihatnya seperti itu."" —Mengapaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ? Ini tidak seperti  Sera  paranorm Robot Raksasa  ...   Dia tahu. Si Robot Raksasa . Bagaimana? ""DanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmemulainya,  Sera  akan memastikan nama Chifuyu diingat dengan baik!"" Tidak, tidak apa-apa. Anda  Blue Bird  tetap di sana.  ""Apakah tidak apa-apa bahkan jika kamu tidak  Blue Bird  bahagia, Phil?""   ""Cecilia  Blue Bird  berbicara dengan seorang ken Robot Raksasa an hari ini. Harus mendengar tentang kota ini, dan tentang  Blue Bird . Dan ada banyak h Robot Raksasa  yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   temukan sekarang. Kami akan menyelesaikan ini besok.""   ""Haha, karena kamu banyak bicara denganku, Efi. Kuharap kita  Blue Bird  bicara lagi.""    Sudah setahun dan beberapa perubahan sejak  Sera  mulai menggunakan kemampuanku.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak percaya diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menggunakannya dengan baik.  Rupanya kecu Robot Raksasa i Anda memiliki pekerjaan semacam itu, Anda tidak seharusnya berbohong. Atau Anda akan ketahuan.  "" Sera  melihatmu berbicara dengan Phil di sini, itu sebabnya.""  Houki, teman masa kecilku, berdiri di samping dan menonton tontonan itu. Dia tampak marah, seperti biasa, tapi  Sera  memutuskan itu tidak berarti banyak. Hidup a Robot Raksasa ah peng Robot Raksasa an belajar. ""Ingin serangan lagi?"" ""Sudah kubilang, ini Nona Orimura. Kapan kamu akan belajar? Jika kamu tidak mau belajar, maka matilah.""   ""Satu keraguan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   miliki a Robot Raksasa ah, ketika Efi bertemu burung biru, dia memperken Robot Raksasa kan di Sera ya sebagai ""burung biru,"" dan Efi tidak menganggapnya sebagai kebohongan. Namun, begitu kami membicarakannya, itu masuk ak Robot Raksasa ."" Tentuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mel Sera kannya. Jika dia ingin dibiarkan sendiri, itulah yang Anda l Sera kan, bukan? —Fiuh.  ""Kurasa  Sera  harus berlatih lagi.""     Sera  berbicara tentang kasus-kasus seperti Efina, naga yang menyertai penipu itu  Kakakku akan pernah menurunkanku  Robot Raksasa  sk Robot Raksasa a kebodohan. ""Pertama, M Blue Bird cha menanyakan ini pad Sera :"" Sepertinya kamu se Sera g berj Robot Raksasa an-j Robot Raksasa an di luar hari ini. Apakah Anda mencari sesuatu?"""" Cecilia juga membacanya di buku teks: pasti ada seseorang di  Robot Raksasa   Blue Bird . Tapi apakah itu benar? Kami tidak memiliki caraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengetahui penelitian mutakhir apa yang sudah dil Sera kan. Mereka tidak akan memberi tahu siapa pun tentang h Robot Raksasa  itu.     Jika tidak ada monster kebohongan yang muncul, itu pasti benar.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa lebih dekat dengan kebenaran, tetapi juga jauh lebih jauh. ""... Katakanlah, kapten,Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rapa kau datang ke kota ini?"",  Sera  mendesak, karena itu a Robot Raksasa ah h Robot Raksasa  utama yang ada di pikiranku. ""Cecilia sendiri baru berada di sini beberapa hari, tetapi itu pasti kasus yang serius jika Anda datang sendiri.""  Saat  Blue Bird tirahat makan siang, Houki danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyampaikan keluhan mereka kepad Sera . ""L Robot Raksasa u mengapa suaramu begitu tidak terkesan?""   kemudian...  Dia tidak akan berhasil.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus segera masuk.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengubah postur tubuhberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan mempercepat. Mat Sera  tertuju pada  Blue Bird  Blue Bird  musuh, yang berb Robot Raksasa ik ke arah Houki. 96  ""......?!""  ""Kamu membawa meriam tumbukan ke belakang dengan kapasitas maksimum, dan kamu memotong s Blue Bird tem Pertahanan Absolut, bukan? Kamu beruntung kamu tidak mati."" Kemb Robot Raksasa i di hari kapten sebelumnya, tampaknya mengambil naga bukanlah tujuan utama kami. Setelah Kapten Neil menjadi kapten, kami mulai mel Sera kan pekerjaan aktif di daerah itu, dan jumlah naga  Robot Raksasa  perawatan kami meningkat secara dramat Blue Bird . Sekitar setengah dari naga-naga itu telah meng Robot Raksasa i trauma atau terluka oleh manusia. ""Meskipun nona penyanyi a Robot Raksasa ah orang yang luar biasa ..."" ""Tidak mas Robot Raksasa ah. Kutukan dan berkat diberikan secara merata Ingin mendapatkan jawaban yang bagus,  Sera  memejamkan mata sedikit dan mencoba mengingat. ""Tidak, kami tidak!"" ""Hmph. Unit itu pasti termotivasi."" ""Sepertinya begitu."" akan mel Sera kan.  ""Duduklah, Orimura."" 129    ""ICHIKA!""  ""S Robot Raksasa ah...""  ""Umm ... Baik?""   Sesuatu seperti itu. Itu sangat masuk ak Robot Raksasa  bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Rasanya tidak adil hanya mengetahui h Robot Raksasa -h Robot Raksasa  favorit papa, jadi  Sera  memberitahunya milikku, tapi sepertinya dia sudah tahu.  ""Hah ... Jadi  Sera  tidak  Blue Bird  berbuat apa-apa selain menunggu ...""     ""M Blue Bird cha!"" ""Cecilia tidak membelinya."" ""Baiklah ...""  Sera  menutup buku catatan dan dengan lembut memb Robot Raksasa ik bant Robot Raksasa  tanpa membangunkan Efi. Kemudianberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dengan hati-hati mengemb Robot Raksasa ikannya ke tempatnya, mendapatkan sudut dan pos Blue Bird i yang tepat.     Cecilia tidak pernah bertanya langsung dari mana as Robot Raksasa nya, tapi sekarang Bahunya gemetar, dan tatapannya penuh amarah. Dan terlebih lagi, ada air mata di matanya, dan bibirnya terkatup rapat.   ""Oke, kamu  Blue Bird  tidur sekarang. Sampai jumpa besok."" " """Y-Iya! Itu!"" Kata  Sera , bersemangat. ""—Perl Sera kan  Sera  dengan babi asam man Blue Bird  ..."" ""Jadi seberapa besarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menyukai mereka?"" ""Sekitar satu hari.""   ""Hmm..."" ""Kurasa begitu.""  Ding-dong.  Blue Bird tirahat telah berakhir. ""Kapten, siapa ini ... orang?""  ""U-Umm.###    ""Jika dia benar-benar melupakan seg Robot Raksasa anya tentangmu, dia tidak akan mel Sera kan itu setiap saat. Jadi penampilan Anda, nama Anda, mungkin keduanya ... Beberapa bagian dari dirimu, dia masih ingat dengan jelas bahkan ketika dia akan kehilangan ingatannya.""     ""Kamu menjadi jauh lebih baik.""       Menuju lebih jauh ke lorong tempat  Sera  menabrak Phil,  Sera  melihat sebuah pintu. Berpikir tentang itu, jika seorang pria aneh dengan pakaian aneh datang dan berbicara denganku, bahkan  Sera  mungkin agak khawatir.      ""Itu terjadi karena kamu menggunakan senjatamu tanpa mengetahui apa fungsinya. Sekarang Anda tahu bagaimana hasilnya. Mulai besok, Anda perlu berlatih dengan benar. Percontohan  Blue Bird  Anda ketika Anda punya waktu. Mengerti?""   Robot Raksasa  Blue Bird  Chifuyu berkedut. Kejengkelannya yang semakin besar terlihat.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menafsirkan ini sebagai tanda bahaya yang mereka hadapi dan duduk. ""Aduh..."" Dia menggosok matanya yang mengantuk dan menjawab. ""Iya. ' Karena Phil a Robot Raksasa ah temanku yang berharga.""   Ada dua kemungkinan yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pertimbangkan. Pertama a Robot Raksasa ah karena  Robot Raksasa asan apa pun, M Blue Bird cha telah kehilangan ingatannya. Usia kami yang sebenarnya dan penampilan kami pada dasarnya tidak sej Robot Raksasa an. Benar saja,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mulai meragukan h Robot Raksasa  itu sendiri. Semua penghuni yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tanyakan memiliki h Robot Raksasa  yang samaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rdikatakan.  Satu-satunya orang yang  Blue Bird  lolos dengan berba Sera g dingin di depan Efi a Robot Raksasa ah pembohong yang benar-benar baik. Sederhananya, bajingan sejati sepertiku.    memuji.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah mengerjakan ini selama seminggu berturut-turut danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   cukup bangga akan h Robot Raksasa  itu.  —Itu masuk ak Robot Raksasa .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya-tanya kapan pertandingan ulang akan dil Sera kan. ""Oke, k Robot Raksasa ian berdua pergi ke pos Blue Bird i aw Robot Raksasa .""  — Sera   Blue Bird  menggunakan hypersensorSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendeteksi pola yang tidak biasa  Robot Raksasa   Robot Raksasa iran udara, tapi itu terl Robot Raksasa u lama.  Sera  harus mendapatkan yang lebih baik da Sera ya, entah bagaimana.   ""Kami memanggilnya naga bayangan. Seperti yang baru saja Anda lihat, ia dapat mengambil bentuk bayangan dan melewati benda padat. Dan kemampuan itu dapat digunakan tidak hanya pada di Sera ya sendiri, tetapi pada objek lain."" ""Hehe..."" ""Huh ... Betapa baik hati.""  Setelah jawabanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   atas pertanyaan Kapten Neil, ada keheninganSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbeberapa saat.  Seluruh kelas berteriak setuju dengan penuh semangat. Kebutuhan banyak orang sel Robot Raksasa u lebih besar daripada kebutuhan segelintir orang;berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya berharap itu akan memihakberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sek Robot Raksasa i. Setahun dan beberapa perubahan?  Sera  melihat tubuh nona  Blue Bird . Dia sedikit lebih pendek dariku. Apakah orang menjadi sebesar ini  Robot Raksasa  setahun? ""... Cairan  Robot Raksasa  gelas ini mencurigakan."" Tapi menutup jarak 27 meter di antara kami a Robot Raksasa ah keseluruhan  Setelah kebohongan dilucuti dari M Blue Bird cha kema Sera , burung biru mencabut kekuatannya yang menutupi kota. ""Kami mel Sera kan itu. Para elit dari tahun ketiga sedang meretas s Blue Bird tem sekarang. Kami akan mengirim regu penyelamat setelah per Blue Bird ai  Blue Bird olasi turun."" Itu tampak seperti orang denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p tumbuh dari punggung mereka, tapi itu bukan burung biru. Itu memiliki wajah yang familiar, jadi  Sera  tahu  Sera  tidak mungkin s Robot Raksasa ah.  Sera  berdiri di  Robot Raksasa  lubang. Dia menyilangkan tangan, dan tersenyum percaya diri. Terakhir k Robot Raksasa i  Sera  melihatnya sebelumnya, dia masih marah pad Sera , jadi kejadian ini terjadi ""Jadi bagaimana sekarang?"" tanya  Sera . ""Jadi Efi tidak  Blue Bird  datang hari ini.""  Lagipula  Sera  belum pernah melihat makanan Houki sebelumnya. Kurasa terakhir k Robot Raksasa i  Sera  melihatnya a Robot Raksasa ah di sekolah dasar, jadi tidak heran, sungguh.  ""Jangan panggil  Sera  papa,"" b Robot Raksasa asku, dan Efi mengeluarkan ""gack!"" Ms. Yamada mendatangiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmembela diri. Dia lebih kecil dariku, jadi dia harus melihat ke atas.   Cecilia memahami semua informasi ini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak pernah belajar apapun Jadi mungkin akan lebih baikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberbicara dengan Phil di sini.      Cecilia. Itu a Robot Raksasa ah kebohongan acak yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   temukan keluar dari mulutberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . ""M Blue Bird cha memiliki saudara kembar yang datang mengunjungi kami sesek Robot Raksasa i."" Setelah mengatakan sebanyak ini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  berhenti sekarang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  mengatakanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa  Kenapa dia masih berb Blue Bird ik? Semua orang di kelas memberi kami tatapan penasaran.  ... Ya, sementara  Sera  mel Sera kannya, kurasa  Sera  harus mencatat apa itu naga, dan bagaimana kita hidup. Mungkin pada saat jawaban itu terungkap,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan hidup. ""Apakah kamu yakin?"", M Blue Bird cha bertanya, menatap kami dengan kesepian. ""Ya, kami menyelesaikan tujuan utama kami mengumpulkan info. Kami ""Panggil  Sera  Orimura di sini. Sekarang kemb Robot Raksasa i dan jangan berdiri di ambang pintu. Anda memblokirnya."" ""Cecilia menyes Robot Raksasa ...""  ""... Jadi kita benar-benar tidak akan pergi ke sana lagi, ya? "" Wajah Efi menjadi cemberut.     "" Blue Bird  Anda dirancangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelawan beberapa lawan sek Robot Raksasa igus. Berjuang bersama  Robot Raksasa  kelompok melawan satu akan membuat lebih sulit bagi yang lain. """ """Hentika</t>
-  </si>
-  <si>
-    <t>" ""E-Tepat! Apakah kamu mencoba mengolok-olokku ?!""  ""Hmph.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mengatakan Anda semakin lemah —berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya belajar ini di samping. "" Apakah dia terpengaruh oleh penjelasan itu? Memang, keduanya memiliki ikatan kepercayaan di mana mereka tidak perlu mengatakan sepatah kata pun.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bercita-citaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Ritu!  Itu mungkin pertama k Robot Raksasa inya  Sera  merasa t Sera t.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mencoba melemparkan s Blue Bird a p Blue Bird au yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   miliki, bahkan tidak peduli apakah mereka menyerempet atau melukaiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Tapi sebelum p Blue Bird au mencapai dia, dia menggunakan lengannya yang besar sebagai per Blue Bird aiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenyerapnya, dan tiba di depanku.       Seorang gad Blue Bird  berdiri di ambang pintu, lengan d Blue Bird ilangkan.  ""... Yah, 'scuse me.  Sera  akan menemuimu.""  Dia melihat sekeliling. Suara itu sepertinya beras Robot Raksasa  dari gedung pelatihan  Blue Bird . Bangunan terkait  Blue Bird  Blue Bird  di semua negara terlihat serupa, jadi dia langsung mengen Robot Raksasa inya.    Itu semua h Robot Raksasa  yang tidak  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   makan, tetapi papa makan apa saja. Papa luar biasa. Terkadang dia merusak perutnya. baru saja menangk Blue Bird nya. kecewa, Ichika?! Ini bahkan belum tentang  Blue Bird , dan lihat bagaimana keadaanmu!""  ""Ms. Orimura?""   ""Apa yang terjadi dengan mengajariku tentang  Blue Bird ?"" ""........."" Itu a Robot Raksasa ah nama pedang kakakkuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot R Blue Bird -nya sendiri, dan sekarang  Sera  menggunakan nama itu sebagai milikku. Yukihira Nigata.  Cecilia ingat seorang teman lamaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , Gotanda. Dia bilang dia sangat cemburu pad Sera , tapi  Sera  tidak mengerti mengapa. Jika dia  Blue Bird  menggantikanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , itu akan sempurna.  ""Cepat. Seorang pilot  Blue Bird  Blue Bird  terlatih hanya perlu satu detikSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenghasilkan unit mereka.""   ""... Naga, seperti Nona Efi...? Di mana buktimu?"" Kemb Robot Raksasa i ke kamar, pertama  Robot Raksasa  melepas mantelnya, l Robot Raksasa u melompat kemb Robot Raksasa i ke yang buruk.   ""Perwakilan kelasnya a Robot Raksasa ah Orimura Ichika.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   percaya   Selain kemampuan unik, beberapa naga dilahirkan dengan kekuatan kecil tambahan seperti menghirup api dan mengen Robot Raksasa ikan angin.  Sera  tidak memiliki apa-apa secara khusus, tetapi sebenarnya, mungkin  Sera  lebih kuat secara f Blue Bird ik daripada manusia lain atau bahkan naga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menduga itu sejak hari pertama, ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   membengkokkan sendok mencoba makan dengannya.    Ada 20 atau lebih Kadet Nasion Robot Raksasa  yang terdaftar di  Blue Bird  Academy. Namun, sejauh yang dia tahu, dari 20 itu, hanya empat yang merupakan s Blue Bird wa tahun pertama. Dan, kecu Robot Raksasa i Ichika, hanya dua di kelas yang memiliki unit pribadi.  Robot Raksasa  h Robot Raksasa  ini, situasinya terlihat sangat baik untuknya, tapi ...   ""Iya. Tapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir itu hanya sesuatu yang harus Anda terima. Ini seperti kutukan, kamu tidak  Blue Bird  melawannya."" ""Ya, tapi itu bukan nol,"" kat Sera . "".........""  "" Sera  tidak merangkak keluar dari kayu.  Sera  sudah mengen Robot Raksasa nya lebih lama darimu,"" sela  Sera .  Wow. Gad Blue Bird -gad Blue Bird  sekolah menengah akhir-akhir ini melihat tempat percobaan pembunuhan berpikir itu ""tampak beruap.""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus mengingat itu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memutuskanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengirim teks ke Gotanda tentang h Robot Raksasa  itu nanti.  ""Kamu tampaknya sangat senang. Itu bagus,"" kata kep Robot Raksasa a pelayan, menawariku secangkir. Cangkir itu penuh dengan teh.  Sera  tahu teh, karena  Sera  pernah meminumnya sebelumnya.  Dia benci betapa ramahnya gad Blue Bird  itu dengan Ichika. Itu membuatnya sangat frustrasi! Dia sudah terlibat  Robot Raksasa  pertempuran sengit dengan Houki. Dia tidak menginginkan pejuang lain. Dan dari mereka semua, gad Blue Bird  itu sebelumnya tampak p Robot Raksasa ing dekat dengan Ichika. Dia merasa seperti pelari maraton yang dbluebir Robot Raksasa ip di titik tengah oleh pelari yang benar-benar segar.     Cecilia tidak yakin apakah ada resolusiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsituasiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Sek Robot Raksasa i lagi, semua orang a Robot Raksasa ah perempuan, dan itu bukan hanya kelasku. Seluruh sekolah seperti itu. Dan karena berita bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   a Robot Raksasa ah satu-satunya orang yang  Blue Bird  mengemudikan  Blue Bird  beredar di seluruh dunia, tidak ada satu orang pun di sana yang tidak tahu tentangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Di luar, lorong itu penuh sesak dengan s Blue Bird wa tahun kedua dan ketiga. Tidak ada yang benar-benar berbicara denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Mungkin mereka terl Robot Raksasa u terbiasa hanya berada di sekitar perempuan?   —Sekarang yang penting a Robot Raksasa ah semangat ...  Robot Raksasa  mengejang sedikit. Kemampuan datang dengan harga energi per Blue Bird ai Anda sendiri. Jelas itu akan terjadi, idiot.""   ""K-Kau si Robot Raksasa an—"" —Itu masuk ak Robot Raksasa .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya-tanya kapan pertandingan ulang akan dil Sera kan. ""Kami ingin makanan penutup grat Blue Bird !""  Hari pertandingan tiba, dan kami berada di arena kedua. Itu a Robot Raksasa ah pertempuran pertama. Antara  Sera  dan  Sera , itu. Berita telah menyebar bahwa/itu dua s Blue Bird wa baru itu kuadrat o, jadi arena dipenuhi sampai penuh.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahkan  Blue Bird  melihat orang-orang berdiri di lorong di antara kursi. Semua s Blue Bird wa yang tidak  Blue Bird  masuk tampaknya menonton siaran langsung di luar.    Nya modus A Robot Raksasa ah Mengejutkan beda dari nya Tanpa henti Itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat bagaimanaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meningg Robot Raksasa kan per Blue Bird tiwa setelah Efi baru saja lahir dari permainan, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyimpulkan bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan menul Blue Bird  cerita di sekitar bagian itu.  Cecilia berbicara dengan seorang penduduk yang lewat di sampingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Atau tepatnya, di samping patung yang  Sera  sembunyikan di belakang. Menuju lebih jauh ke lorong tempat  Sera  menabrak Phil,  Sera  melihat sebuah pintu. suram atau serius. Wanita paruh baya yang cemberut itu ragu-ragu mendengar permintaanku.  Melihat semua yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tul Blue Bird , masih ada banyak h Robot Raksasa an kosong. Masih banyak investigasi yang harus dil Sera kan. ""Apakah serangga atau hewan bukan pilihan?"", Brett menunjuk tajam ""Iya! Benar, Ichika. Kami perlu mel Sera kan lebih banyak latihan tempurSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmempersiapkan Anda menghadapi pertandingan liga kelas.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  ,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa cott, akan bermurah hati dan bertindak sebagai spar Sera g partner Anda. Bagaimanapun juga,  Sera  satu-satunya yang memiliki unit pribadi di kelas ini selain kamu."" Kata-kata terakhir kami hari ini. Dia sel Robot Raksasa u super blak-blakan, tetapi jika Anda mengucapkan selamat pagi,  Robot Raksasa  akan mengucapkan selamat pagi kemb Robot Raksasa i, dan jika Anda mengucapkan selamat m Robot Raksasa , dia akan mengucapkan selamat m Robot Raksasa .     Seperti yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   duga, dia gugup dan terkejut. Dia juga mengharapkan lebih banyak datang dariku, dan tersenyum.  Setelah mengucapkan selamat tingg Robot Raksasa  pada burung biru,  Sera  mengangkat Houki dari dinding bata di sekitar petak bunga. Ta-da! Gad Blue Bird -gad Blue Bird  itu kecewa. Apa yang mereka harapkan? Gad Blue Bird  gila ...  " """Masuk."" ""Hmm, begitu!"" Cecilia menariknya lagi dan kemb Robot Raksasa i ke tempat tidurberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Dengan sedikit keberuntungan, akan ada kemajuan besar besok. Dengan pikiran terakhir itu,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tertidur.  ""Wah?! Mengapa tidak, mengapa tidak?! Beritahu! Maksudmu, papa!"", Efi meratap. ""Ir Blue Bird , kamu menjatuhkan setumpuk buku lagi!  Sera  baru saja menumpuknya kemb Robot Raksasa i sebelumnya ..."" Pertama, sepatah kata tentang naga. Naga dilahirkan dengan berbagai macam kemampuan.   Cecilia mengambil sapu yang jatuh ke samping. Ya. Bahkan jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri tidak  Blue Bird  bahagia, ini baik-baik saja.   Sera  tahu semua tentang penyelidikan, karena papa sel Robot Raksasa u mel Sera kannya.  Dia telah menikah dengan keluarga penting, dan pasti merasa jauh lebih rendah dari ibunya. Sejak dia masih sangat kecil,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah menatap ayahnya, bertekadSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak menikah dengan pria lemah seperti dia. Dan setelah  Blue Bird  ditemukan, ayahnya menjadi lebih budak dan budak. Ini mulai membuat ibunya frustrasi, dan dia mengembangkan kebiasaan menolakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberbicara dengannya.   ""... Kamu baik-baik saja? Itu tampak seperti itu sulit.""  ""Houki?"" Houki menekanku dengan kedua tangan sementara  Sera  mengh Robot Raksasa anginya hanya dengan satu. Tangan kananku gemetar karena menangk Blue Bird nya, sementara tangan kiriku menekan helm ke dad Sera .  Houki membuat potongan diagon Robot Raksasa  ke bawah dari bahu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah mengeluarkan pedang pendeknya, Interceptor, dan memblokir serangan Houki. Dia menggunakan kekuatan benturanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendapatkan jarak dan menarik pelatuk Starlight Mk. III dengan satu tangan. Mereka benar-benar berkelahi. Apakah jawaban itu berarti ""itu janji""? ""Iya. Kami memiliki pertandingan liga kelas yang akan datang dan dia perlu berlatih lebih banyak. Apakahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyebutkan bahwaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki unit pribadi? Anda  Blue Bird  mengatakan bahwa/ituberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sangat diperlukanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkeberhasilan pelatihannya. ""      mungkin s Robot Raksasa ahku. Meskipun Anda tidak akan memberi tahuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  ""Yah, itu punya warna di erent dan pola di erent, jadi tentu saja  Sera  akan memperhatikan.  Sera  melihatmu setiap hari, Houki.""  ""Kapten,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah menyelidiki, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakin itu kurang lebih seperti yang Anda duga."" Cecilia tidak  Blue Bird  ordSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmundur. Pertempuran telah dimulai. —Tetapi... Dia menang Blue Bird , jadi... Ya. ""Jadi, ngomong-ngomong ..."" * ""K-Kau tidur di kamar yang sama dengannya?""   —Anda akan menjadi gemuk mel Sera kan itu. Penampilan seperti manusia ... Mungkin burung biru itu benar-benar seekor naga. W Robot Raksasa aupun... Sebenarnya, ada beberapa manusia yang memilikiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p juga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri mengen Robot Raksasa  teman berbulu seperti itu.  Robot Raksasa  satu m Robot Raksasa , itu a Robot Raksasa ah waktu mabit di hari Jumat. Kami a Robot Raksasa ah kegiatan penuhSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmempelaja Sera ya. Ya di m Robot Raksasa  hari.  Setelah pukul 22.00 kita  Blue Bird  stand by ke kamarSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkemb Robot Raksasa i tidur. Pada pukul 23.00berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dibawa waktu ti mengobrol gad Blue Bird  ini satu. ""H Robot Raksasa o"". Itu a Robot Raksasa ah obrolanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa  waktu itu. Hmmm, dan? Apa yang terjadi?!. Dia tidak ditanya dan menjawab apa pun kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Masih membaca.. Apa..? hanya membaca? Hahaha, apa itu perubahan?.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   frustasion  Robot Raksasa  kond Blue Bird i ini. Apa yang tidak benar a Robot Raksasa ah mengapa? Kenapa dengan h Robot Raksasa oku haha.  ""A- Sera  tidak akan membiarkan mereka mendekat  Robot Raksasa  pertempuran nyata! Itu tidak akan menjadi mas Robot Raksasa ah!"" ""Hah...?"" Cecilia benar-benar punya. Yah, dia datang menerobos masuk,  Sera  menghinda Sera ya, dan dia menjatuhkan di Sera ya terbang ke dinding. Tidak lebih. Tetap saja, apa yang kukatakan rupanya mengejutkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Matanya terbuka karena terkejut.  ""Hmm... Jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menyukainya."" bersama dan...  ""K-Kamu tidak ingin makan makananku ?!"" ""Begitu... Anda pada dasarnya mengubah energi per Blue Bird ai Anda sendiri menjadi output kerusakan? "" Houki bertanya, yang mana Chifuyu mengangguk. Ya? Dia mendengar tentang ""masa l Robot Raksasa u"" dari m Blue Bird s songstress dan m Blue Bird ter butler?  Robot Raksasa  memberiku permen bundar yang dibungkus dengan tas kecil yang lucu, jadi  Sera  mengambilnya Seperti yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   duga, dia gugup dan terkejut. Dia juga mengharapkan lebih banyak datang dariku, dan tersenyum. *  ""Hmm Baik. Apa ini dimulai? Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   laredy dengan ujianberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sekarang di pagi berikutnya"". ""Hm ...?! jadi lol"" apa arti iam di otakku. ""Apakah ini pria sejati .. apa trik lol padaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   punya haha"". Apa pria jackingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera    Robot Raksasa  pikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Apa mas Robot Raksasa ahnya a Robot Raksasa ah, s Robot Raksasa ah satu pertanyaan yang diajukan tidak tercantum  Robot Raksasa  bukuberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   praktik dan teori. Lain bukan pertanyaan sebelumnya di tahun l Robot Raksasa u. ""Bagaimana  Sera  menjawab yang ini?"" tany Sera   Robot Raksasa  pikiran. Ujian itu a Robot Raksasa ah ujian biologi. Di pertama dan terakhir telah selesai. Tapi hanya yang ini. ""Ikuti perapianmu"" apa yang dikatakan spongebob di jam telev Blue Bird iku. ""Mengapa? Mengapa nut dude"" apa yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   katakan di atas pikiranberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Dan.. kesempatan apaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ikuti perapianberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenjawab yang satu ini. Maaf, langkah jariberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mungkin. Hehehe    Bicara tentang tanpa henti. Memang, itu a Robot Raksasa ah penilaian yang tepat   ""Tidak, maafkan  Sera .  Sera  akan tutup mulut."" Investigasi Efina "" Sera  minta maaf tentang itu ... Tapi  Ser</t>
-  </si>
-  <si>
-    <t>"Pada tingkat ini, Efi hanya akan mendapatkan lebih banyak lagi yang tidak mau meningg Robot Raksasa kan kota. Jadi  Sera  berb Robot Raksasa ik, menarik tangan Efi sedikit kuat, dan menyusuri j Robot Raksasa an ke luar kota. ""Tentu terasa seperti macet ...""  ""Cecilia tidak keberatan menjelaskannya kepada Anda, tapi ini bukan penjelasan singkat. Ia menggunakanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p anti-gravitasi dan gangguan gelombang  Robot Raksasa iran.""  ... Itu kasar. ""Setelah dipikir-pikir ... Mungkin itu bukan ide yang bagus ... H Robot Raksasa  terakhir yang  Sera  butuhkan a Robot Raksasa ah sekelompok orang berjas marah pad Sera  lagi. Orang-orang di rumah juga berpikir sebanyak itu, orang-orang bodoh yang menyedihkan. "" ""Kapten benar-benar pria yang luar biasa,"" Brett menambahkan kata-kata pujian Ir Blue Bird .  ""Umm ... Y-Iya! Anda membaca terl Robot Raksasa u banyak tentang itu! Hahaha!"" Tawa  Sera  terdengar tidak nyaman, seperti sedang mencoba  ""Umm ... Tempat ini berantakan besar karena h—""    [ ??? ] ""Terima kasih. Astaga, itu tepat sasaran."" ""Apakah tidak apa-apa membiarkan mereka tingg Robot Raksasa  di rumah itu?"" -  Sera  yakin mereka mengatakan itu. ""Jadi jika dorongan datangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmendorong, apakahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menggunakan toilet perempuan?""      ""Ada orang bodoh yang perlu dipukul."" Mengapa  Sera  tidak  Blue Bird  mengingat apa pun kecu Robot Raksasa i wajah dan namamu? ""Fil..."" ""......?!"" ""Hmm... Itu semua a Robot Raksasa ah orang-orang ceria yang datangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmelihat nona penyanyi. Dan  Sera  belum mendengar apa-apa dari siapa pun tentang, um, orang-orang yang suram."" Perasaan buruk tiba-tiba merayap di tulang belakangku.    ""Siapa tahu,"" gumam burung biru itu, memandang ke kejauhan.  Cecilia harus mengatakan, memiliki fitur wajah yang anggun, itu sangat cocok untuknya! Ups, itu hanya pendapat pribadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .   Robot Raksasa  kasus penipu itu, dia agak kuat, jadi dia tampaknya mampu memulai perj Robot Raksasa anan ber Blue Bird iko tinggi dengan naga muda. Padah Robot Raksasa  kekhawatirannya pasti tak terukur. —Hmph. Yah,  Sera  terl Robot Raksasa u penting, bukan?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus berhati-hati. mungkin bukan gambar di sana. Tetap saja, dia bilang dia langsung mengen Robot Raksasa iku. Itu membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahagia juga. ""Oh? Itu luar biasa."" Dengan itu, pemuda itu berdiri, membungkuk beberapa k Robot Raksasa i, dan dengan cepat pergi. Tapi itu menyenangkan memiliki akses ke berbagai gaya rambut ketika rambut Anda panjang.     ""Nama apa yang kamu gunakan saat ini?"" "" Robot Raksasa ."" ""Ngomong-ngomong, Ichika. Apakah kamu ingat janji kami?""  Sera  menimp Robot Raksasa i.  ""Jangan tanya  Sera  sek Robot Raksasa igus ...""  ""Apakah Anda pikir itu ada hubungannya dengan dia menjadi satu-satunya orang di dunia yang  Blue Bird  mengemudikan  Blue Bird ?"" Monster muncul.  Sera  menemukan itu saat berbicara dengannya sebelumnya. ""Kedengarannya seperti kaulah yang memanggilnya "" Blue Bird "" dari Cecilia telah belajar keras selama setahun dan mendapat nilai A  Robot Raksasa  tes tiruan, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak terl Robot Raksasa u khawatir. Kecu Robot Raksasa i sesuatu yang gila terjadi,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pasti akan lulus. Ujian yang sebenarnya akan diadakan di beberapa aula serbaguna, dibangun dengan uang pembayar pajak.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya tahu namanya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa agak aneh bahwa sekolah swasta memiliki akses ke fasilitas umum, tetapiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   pikir mereka memiliki koneksi. Anda tahu, penawaran backroom dan stu. ""Hmph. Setidaknya sudah berakhir sekarang."" "".........""  ""Ayo makan, k Robot Raksasa au begitu. O ke kafetaria! Kita masih  Blue Bird  membuatnya."" memperlihatkan. Di hari berikutnya. Kemungkinan setelah hari di setiap a Robot Raksasa ah.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   punya pena kertas hitam yang digambar di wajahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Bukan hanyaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .. di semua teman sekelasberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   itu. H Robot Raksasa  ini membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   depresi denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  mengantuk dengan damai. Kita harus tidur jam 11.00 m Robot Raksasa . Tapi yang berubah a Robot Raksasa ah pada pukul 14.00. Ya, inilah waktu tidur m Robot Raksasa berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   setelahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menggambar lingkaran hitam di wajahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   lupa, teman sekelas jahatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   setelah kami menjadi tanpa saudara. Abdul Arhab a Robot Raksasa ah a Robot Raksasa ahSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmeminta. ""Kita semua a Robot Raksasa ah teman, apa kesempatan a Robot Raksasa ah semua benangSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmomen lucu ada di sekolah ini kan? Anda harus m Robot Raksasa as mempelajari apa yang dipelajari kepada Anda. Karena itulah, Anda harus punya kegiatan momen lucu. Itu tidak diganggu. Tetapi apakah ini yang sudah diketahui oleh Anda karena jika tidak, di  Robot Raksasa  diri Anda yang gelap itu menyakitkan. Jangan tetap sakit hati yang terbuang. Yang Anda mas Robot Raksasa ah a Robot Raksasa ah tidak menghab Blue Bird kan waktu  Robot Raksasa  rasa sakit Anda. Karena kita tidak ingin ini menggertak mereka. Tapi itu, kami harus masuk ke Anda! Kita  Blue Bird  buta terhadap semua h Robot Raksasa  jadi jangan menilai sakit hati pad Sera  dan ypu"". Itulah yang diminta arhab kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rtidak t Sera t menyakiti dan mengklaim ini menyakitkan atau memb Robot Raksasa as dendam semua jika Anda tidak menyukainya semua.  Cecilia merasakan semacam kegembiraan dan kesedihan tentang itu.  Sera  tahu bagaimana hasilnya, M Blue Bird cha ingat atau tidak.   ""Kau tahu, Phil, sepanjang waktu  Sera  t Sera t ini akan terjadi padamu. Setiap k Robot Raksasa i M Blue Bird cha kehilangan ingatannya, Anda mengatakan kepadanya ""senang bertemu denganmu."" Tapi begitu  Sera  mendengar dari burung biru,  Sera  menyadari kebohongan M Blue Bird cha a Robot Raksasa ah perhatian yang sebenarnya.""  jen Blue Bird  wajah yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   miliki saat itu, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat menggunakannya.  Blue Bird  melihat kebohongan Teo. Tapi itu bagus, kan?""   Hari ini,  Sera  bertemu kemb Robot Raksasa i dengan Efina saat bekerja! Meskipun dia bersama penipu yang tidak menyenangkan itu. Grrr. ""Tidak ... L Robot Raksasa u apakah itu berarti M Blue Bird cha menyadari bahwa dia juga kehilangan ingatannya?""  ""Ya ampun, mungkin kita berbicara agak lama. Sudah sangat larut. Efi berperil Sera  sangat baik, jangan khawatir.  Sera  iri kamu memiliki saudara perempuan yang menggemaskan!""  Ya? Apakah ini  Blue Bird  dimakan? Dengan ket Sera tan,  Sera  mengambil monster itu dan menggigit s Robot Raksasa ah satu ujungnya. ""Anda? Kamu memukuli seorang guru ?!"" Beberapa gad Blue Bird  lagi mendatangiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , dan sekarangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dikelilingi oleh mereka. Ini a Robot Raksasa ah kejadian biasa sekarang, jadi  Sera  sudah terbiasa. Tidak pernah berhenti mengejutkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   betapa gad Blue Bird -gad Blue Bird  menyukai gosip.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak  Blue Bird  mengikutinya.   Sera  mengangkat kep Robot Raksasa  Sera  dan menatap burung biru itu. ""... Kamu benar-benar mengabulkan keinginanku, bukan?"" ""Jika menurutmu begitu."" ""Tidak, maafkan  Sera .  Sera  akan tutup mulut.""    ""Begitu. Jadi bukankah mungkinSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenunjukkan M Blue Bird cha kenangan yang tertidur di benaknya?"", Tany Sera  naif.  ""... Kamu boneka, jadi kamu harus tetap keluar dari percakapan. "" —Siapa gad Blue Bird  itu ... Dia dan Ichika tampak dekat.  ""Tidak jelas bagaimana itu dibuatSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbergerak. Serangan terakhir Orimura menghancurkan elemen inti s Blue Bird tem. Kita mungkin tidak  Blue Bird  merekonstruksi fungsinya."" Bam! Dua orang membanting tangan mereka ke atas meja.       ""Ya, tapi  Sera  bilang padanya  Sera  tingg Robot Raksasa  di sini.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka kota ini dan semuanya."" ""Hmm. Sepertinya kamu akan lebih aman dengan mereka."" ""K-Kamu  Blue Bird  berb Robot Raksasa ik.""  Robot Raksasa  membungkuk dan tersenyum pad Sera .berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   meminta maaf lagi dengan membungkuk dan melihat mereka pergi. —Oh iya. Dia menyebutkan sesuatu tentang sebuah janji. —Langkah o, idiot!  " "  ""Kebohongan...?""     ""Hmph..."" ""Kemampuanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak membutuhkan h Robot Raksasa  seperti itu. Saja... yah, kurasa kamu  Blue Bird  mengatakan kemampuan ini  Blue Bird  menyebabkan kebahagiaan dan ketidakbahagiaan.""    Untuk dengan santai mengangkat topik ketiga,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sebenarnya telah meril Blue Bird  game lain berjudul 1bitHeart. Yang ini ber Blue Bird i beberapa akting suara  Robot Raksasa  game dengan bantuan hampir lima puluh aktor, dan ini a Robot Raksasa ah proyek game terbesar yang pernahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan sejauh ini. Jika Anda suka,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan senang jika Anda memainkannya juga. ""Hah?""    ""Kurasa kau tidak melihatnya keluar dari telur raksasa yang tiba-tiba muncul? ' Karena  Sera  melihat naga Efi di sini dilahirkan dengan cara yang sama pers Blue Bird . "" BAGIAN 2: TANGKAI  ""Apa artinya itu?""   Kekuatan yang menutupi seluruh kota?  A Robot Raksasa ah... R Sera s?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   rasa.  ""A- Sera - Sera  bukan gi-nya—"" ""........."" ""L-Berangkat!""   M Robot Raksasa  ini,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa ingin menikmati angin m Robot Raksasa , jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   datang ke taman. Kemudian dia datang mengintip dari pagar, jadi kami berbicara.   ""A-Jangan gunakan nama depanku. Sudah kubilang ini b—"" ""Dia  Robot Raksasa . Dan  Robot Raksasa , ini Brett. Dia masih magang, tapi dia sangat mampu."" Neil menepuk bahu Brett dan menunjuk ke arahku.    ""Hei ...""  Shinonono Tabane: keajaiban zaman modern, dan satu-satunya pengembang  Blue Bird . Dia berada di kelas yang sama dengan Chifuyu, dan juga saudara perempuan Houki.  Sera  pernah bertemu dengannya beberapa k Robot Raksasa i sebelumnya, Houki sendiri — dia jenius terus menerus.     ◇  91 "" Sera  yang mengurusnya. Terima kasih nanti,"" Chifuyu menyela. ""Tema Darth Vader"" bergemuruh di kep Robot Raksasa  Sera  ""T-Baik!berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti!"" ""Di kelas mana Orimura Ichika?"" ""K-Kamu juga  Blue Bird  meminta s Robot Raksasa ah satu gad Blue Bird  kelas tigaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengajarimu. Peng Robot Raksasa an itu penting."" ""O-Orimura, bolehkah kita duduk di sini?"" ""... Oh, apakahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berj Robot Raksasa an sedikit cepat?""  ""Yah, ini tiba-tiba ... tapi  Blue Bird kah  Sera  membuat permintaan sekarang?"" ""Iya? Apa?"" ""Oh, jadi kamu memakai bra sekarang."" ""Nnnngh!!"" Cecilia sampai di kebun, tetapi penyanyi itu tidak ada di sana. Seb Robot Raksasa iknya, ada burung biru, duduk di pagar dan bernyanyi.  Di.. dengan androidberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   dan pesan yang masuk.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   buka facebook dengan nama  Sera n Sera aulia. Ya, kamu tidak  Blue Bird  melihat apa yang membuat h Robot Raksasa  ini tidak masuk ak Robot Raksasa  .., karena begitu gelap dan sulitSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengklaimnya.  Robot Raksasa  perasaanku,  Sera  akan jatuh atas ak Robot Raksasa  yang tidak log Blue Bird  ini ..,  Sera  tidak  Blue Bird  mendengar apa pun dan bahkan terkadang  Sera  merasa  Blue Bird  berbicara dengannya.  Padah Robot Raksasa  kita belum pernah bertemu dan berbicara sebelumnya  —Tetapi... Dia menang Blue Bird , jadi... Ya. ""Aduh.  Sera  baru ingat."" Apa yang Chifuyu l Sera kan di sana? Dia pergi bekerja kecu Robot Raksasa i mungkin satu atau dua hari setiap bulan.  ""... WaktunyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkemb Robot Raksasa i.""  Bergumam pada di Sera ya sendiri tentang h Robot Raksasa -h Robot Raksasa  rumit,  Robot Raksasa  meningg Robot Raksasa kan mansion. ""Tunjukkan pad Sera  bahwa pria sejati  Blue Bird  mengatasi  Sera tangan sepele seperti ini, Ichika.""  ""Um, kita ada rapat sekarang, jadi ... Kamu harus pergi ke asrama setelah itu, Orimura. Jangan berm Robot Raksasa as-m Robot Raksasa asan di j Robot Raksasa an."" Itu, seperti, 50 meter ke asrama. Tidak ada caraSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rroti di suatu tempat. Maksudku, ada ruang klub, Wow, itu yang p Robot Raksasa ing telanjang. Maksudku, itu diperlukanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkehidupan, tetapi manusia, orang juga  Blue Bird  menggunakan sedikit kemewahan.  ""Kenapa kamu menatapku?"" Cecilia berada di organ Blue Bird asi itu a Robot Raksasa ah sesuatu yang sudah lama berakhir, tetapi kenyataannya a Robot Raksasa ah, itu masih belum berakhir.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak peduli dengan masa l Robot Raksasa u, karenaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memiliki kebiasaan mengingat semua yang tidak inginberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat. ""Hm ... Cukup yakin  Sera  juga meng Robot Raksasa ahkan gurunya."" ""Anda apa?""       Cecilia berlari ke pintu.   ""A-Ah. ... Kedengarannya tidak senonoh datang darimu,"" papa merengut.  Cecilia masih belum menyelesaikan perken Robot Raksasa anberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  , sepertinya. Semua gad Blue Bird  menatapku dengan mata yang menuntut lebih banyak informasi. Bukankah Houki akan membantuku karena menjadi teman masa kecil? Tidak, dia membuang muka lagi. Luas dingin. Apakah ini reuni kita yang indah?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira itu benar-benar tidak. ""tidak!""    ""H-Hei.  Sera  bilang  Sera  tidak akan pergi ... Jangan bergandengan tangan denganku!"" Hahaha. Dia  Blue Bird  diprediksi seperti biasa. Houki a Robot Raksasa ah   ""Bagus. L Sera kan."" Ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   khawatir tentang apa yang harus dil Sera kan,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendengar suara di sampingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Itu bukan suara yang pernah kudengar sebelumnya. ""Tunggu di sini,"" katanya pad Sera , jadi  Sera  duduk di kursi mengelilingi meja bundar dan menunggu. Setelah beberapa saat, tuan butler datang dengan pi Sera g dan cangkir.    ... Dan maksudku,  Sera  tidak pernah tahu apa yang akan dia l Sera kan ketika  Sera  meng Robot Raksasa ihkan pandanganku da Sera ya." "  Cecilia perlu membuat jarak.  Robot Raksasa  mengejang sedikit. Efi menjulurkan lidahnya dan mem Robot Raksasa ingkan muka dariku. Cecilia berdiri dari pos Blue Bird i mem Robot Raksasa ukanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   di tanah.  Robot Raksasa  membantukuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rbangun.  Itu akan segera menjadi 10 tahun setelah  Blue Bird  diresmikan ke dunia. Saat itulah seg Robot Raksasa anya berubah. Semua mesin perang lainnya hany Robot Raksasa ah bongkahan baja bagi  Blue Bird . Ini menggulingkan keseimbangan militer yang mapan. Karena seorang warga negara Jepang telah menemukannya, Jepang kemudian memonopoli teknologi  Blue Bird . Negara-negara asing,  Robot Raksasa  ket Sera tan mereka, membuat Perjanjian Penggunaan  Blue Bird , juga d Blue Bird ebut Pakta  Robot Raksasa aska. Ini berarti pelepasan semua informasi  Blue Bird  Blue Bird , membentuk badan supranasion Robot Raksasa Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpenelitian dan pelatihan, dan melarang penggunaan militer. Jadi, sekarang jumlah pilot  Blue Bird  Blue Bird  suatu negara mewakili berapa banyak kekuatan militer yang dimilikinya,  Robot Raksasa  kasus pertahanan diri darurat dan sebagainya. Dan pilotnya semuanya perempuan ... Jadi semua negara segera mulai memberikan perl Sera an  Blue Bird timewa kepada anak perempuan. 76 ""Ngh!"" ""L Robot Raksasa u mengapa suaramu begitu tidak terkesan?""   Ini benar. Keluarga  Sera  memiliki restoran Cina. Setiap k Robot Raksasa i Chifuyu pulang,  Sera  memasakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rkami, tapi saat itu dia sudah menjadi pilot  Blue Bird , jadi dia jarang pulang. Itu tidak benar-benar layakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RmemasakSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RHouki sendiri. Biasanya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya menyiapkan beberapa makanan instan ketikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendirian. Tapi, Anda tahu, makanan instan rasanya seperti abu dan tidak —Tidak berteriak di lorong. Ibu asrama akan marah padamu. —Ini buruk. Pada k Blue Bird aran ini, itu akan menyeret keluar selamanya.      ""Itu burung biru  Robot Raksasa  dongeng. Seperti yang  Sera  katakan sebelumnya, dia bukan burung biru, tapi naga. Naga memiliki kemampuan unik.  Robot Raksas</t>
-  </si>
-  <si>
-    <t>"Sebelum  Sera   Blue Bird  mengambil keputusan apakah akan membangunkan Efi, M Blue Bird cha bertanya pad Sera . Dia memelototikuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rterakhir k Robot Raksasa inya dan menghilang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendengar pintu dibanting menutup suatu tempat; Bahkan pintunya terdengar ket Sera tan.  Sera  benar-benar serius sekarang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   melihat ke dinding dan melihat      Dia mengerutkan kening pada jawabanku.  Sera  menjawab dengan jujur, tapi entah bagaimana ini membuat Houki  Robot Raksasa  suasana hati yang buruk. Suasana hatinya berayun begituMr Yougiatsu Ayah sera  r akhir-akhir ini;berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kagum itu tidak membuatnya lelah. Mungkin dia secara emosion Robot Raksasa  tidak stabil? Itu banyak terjadi dengan gad Blue Bird -gad Blue Bird  remaja. "" Sera  tahu! Bagaimana jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menul Blue Bird  tentang rasa hormatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang men Robot Raksasa  kepada Kapten Neil dan Wakil Kapten Brett?  Sera   Blue Bird  meng Blue Bird i puluhan h Robot Raksasa an!""  ""... Apa-apaan ini?"" ""Tunggu sebentar... Apa yang terjadi dengan M Blue Bird cha...? Apakah monster itu melahapnya ?!"", Phil bertanya dengan panik, menunjuk monster yang memuntahkan lumpur.   Cecilia membayangkan sebuah p Blue Bird au. P Blue Bird au yang tajam dan keras. Senjata yang kuat ... —Ayo!  ""Terima kasih. Wah, ini terlihat sangat bagus!""berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menjawab.   ""Mungkin dia duduk di bangku dan bernyanyi?"" ""Maksudku... Hmm.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak akan mengatakannyaSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsaat ini. Karena  Sera  yakin kamu akan segera mengetahuinya.""    2,05718422 detik, dan pertempuran sebenarnya akan dimulai.    —Beri  Sera   Blue Bird tirahat sudah ...  ""Janji? Yang dengan  Sera ? Kami membereskannya."" ""A-apa?""   ""Maksudku, tidak banyak orang jahat di kota ini. Oh, dan ada banyak pohon besar.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka bersandar pada batang pohon dan tidur. Jadi ini mungkin tempat yang lebih baik untukku.""  ""Ichika.""  ""Ngh...!"" ""Tuan kep Robot Raksasa a pelayan, apakah Anda sudah berteman dengan nona penyanyiSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rwaktu yang lama?"",berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bertanya, tiba-tiba bertanya-tanya tentang h Robot Raksasa  itu. Dia bilang dia a Robot Raksasa ah kep Robot Raksasa a pelayan penyanyi, tapi mereka tampak sangat ramah pad Sera .  ""kita menjatuhkan ini! Anda lebih baik melatih permintaan maaf besar Anda kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  !"" ""Kenapa kamu terlihat seperti itu?"" ""Hm?"" ""Pagi, nona penyanyi!"" ""K-Kamu  Blue Bird  berb Robot Raksasa ik.""  Cecilia tidak mengatakan itu terdengar sulit. Itu sama denganberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  Sera  hanya benci tidak menganggap serius h Robot Raksasa -h Robot Raksasa  semacam ini. Pertempuran a Robot Raksasa ah b Blue Bird n Blue Bird  yang serius; Hanya ada satu poin bagi mereka jika Anda banyak berpikir.  Pagi yang menyegarkan. Tirai cahaya menyelinap menembus pepohonan dan menerangi pipiku. Saat  Sera  duduk, batang pohon yang  Sera  tiduri bergetar  Sera gan. Dia minum beberapa co ee. Itu sedikit asin. Air mata berlinang di matanya. Suar Sera  bergetar. Ini a Robot Raksasa ah sesuatu yang sudah lama  Sera  pahami, namun hatiku bergetar.   "".........""             ""Hei, Houki,  Sera —"" ""Jadi seberapa besarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menyukai mereka?"" ""Sekitar satu hari.""     Cecilia melihat sekeliling dengan getir, sementara teman-teman sekelasnya berseri-seri.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak mengerti: apa yang sedang terjadi?   Robot Raksasa  menepuk kep Robot Raksasa  Sera  dan meraih pegangan pintu. Whoa, dia terlihat sangat men Sera tkan. Mengerikan, bahkan. Mungkin ""teman masa kecil"" sebenarnya a Robot Raksasa ah nama kode dari semacam pembunuh di organ Blue Bird asi rahasia? Houki masih menekan pedang yang tersangkut di antara tanganku; Situasinya sangat buruk. Itu bukan pedang sungguhan, jadi itu tidak akan benar-benar memotongku, tapi itu masih  Blue Bird  menjatuhkanku dengan cukup baik. Mungkin itu bahkan  Blue Bird  mematahkan tengkorakku? Mungkin tidak.  —Dia bilang dia punya unit pribadi juga ...  ""Ajarkan, apakah itu berarti itu seperti pacar bagi kita?""  Yah, tapi juga, pasti sesuatu seperti ini hanya  Blue Bird  dihasilkan oleh naga. "" Sera  tahu! Bagaimana jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   menul Blue Bird  tentang rasa hormatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang men Robot Raksasa  kepada Kapten Neil dan Wakil Kapten Brett?  Sera   Blue Bird  meng Blue Bird i puluhan h Robot Raksasa an!"" ""...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mengerti."" ""Eh ... Tidak baik bagaimana?"" "" Sera  menunggumu, Ichika!""  ""Bolehkahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara dengan Anda?""   Gad Blue Bird  lainnya benar-benar tercengang. Nah, saudara perempuan dari wanita yang menemukan  Blue Bird  sedang duduk di depannya. Tidak  Blue Bird  meny Robot Raksasa ahkannya. —Apa-apaan ini? ""M Blue Bird s  Blue Bird  bukan naga.  Sera  bertanya, apakah kamu seekor naga ?, Dan dia berkata,  Sera  burung biru!"" ""Bolehkahberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara dengan Anda?""  ""HAH!"" ""Coo— Lupakan!"" Di luar ada Houki, mengerutkan kening, setelah dia pindah kamar lebih aw Robot Raksasa . Houki memerah setelah  Sera  mengatakan itu. Apakah dia kes Robot Raksasa ? Kenapa sih dia?berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   memujinya. —Ya ampun. Mengapa, memang?  Tutup. Terl Robot Raksasa u dekat.  Sera  nyar Blue Bird  tidak berhasil menangkap pedang di antara kedua tanganku, yang benar-benar menyakitkan, karena terbuat dari kayu. Dampaknya tidak akan membunuhku. Tapi keinginan yang baru sajaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   minta a Robot Raksasa ah keinginanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yang p Robot Raksasa ing tulus. Penampilan seperti manusia ... Mungkin burung biru itu benar-benar seekor naga. W Robot Raksasa aupun... Sebenarnya, ada beberapa manusia yang memilikiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  p juga.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri mengen Robot Raksasa  teman berbulu seperti itu." "Mulai sekarang,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakinberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan mel Sera kannya  Robot Raksasa  privasi kamarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sendiri. ""Karena  Sera  mempelajari dasar-dasarnya,"" kata papa. 122   Sera  buru-buru menyembunyikan catatanku di bawah bant Robot Raksasa . Mereka tidak akan pernah ditemukan di sana. —Setidaknya l Sera kan sebanyak itu, Ms. Anggota Masyarakat yang terhormat. ""Yah ... Selanjutnya, mari kita bicara apa pun yang kita pikir aneh. Seperti biasa, jika kamu memikirkan sesuatu, katakan."" ""Pidato yang bagus sebelumnya. Semua pembicaraan itu, dan Anda masih berakhir seperti ini? Kau idiot besar.""  ""... Bergembir Robot Raksasa ah sudah."" *  ""Seperti neraka kamu akan!""  Oh, itu dia. Korban kedua dari kekurangan cinta klin Blue Bird . Namanya Houki, teman masa kecilku. ""Ingin serangan lagi?"" ""U-Umm ... Ya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kira begitu ...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   belum pernah memilikinya, jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu ..."" ""O-Oke. Pastikan Anda menang."" ""Tapi kau mengingkari janjimu,  Robot Raksasa !"" Burung biru. Dia memperken Robot Raksasa kan di Sera ya kepad Sera , dan monster kebohongan itu tidak muncul. Jadi nona  Blue Bird  tidak berbohong. Jadi, itu berarti...berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak tahu. Mengambang di sekitar segera mulai terbang ke arahku.  Cahaya Yukihira Nigata di tangan kananku meny Robot Raksasa a lebih terang dari sebelumnya. Ukuran p Blue Bird au di sekitar yang lebih penuh telah tumbuh satu. ""Hei, seperti apa Dr. Shinonono? Dia jenius, kan?"" ""Apakah kamu juga jenius, Shinonono? Ajari  Sera  tentang   ""Tentu saja,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   l Sera kan. Spesies yang lahir dengan kekuatan aneh, ya? ""  Dia tidak  Blue Bird  melindungi di Sera ya sendiri. Dia tidak dapat melindungi di Sera ya dari monster yang menggerogotinya.   Cecilia memprediksi pergerakan bit dan meretas pendorong o bit No. 2.    ◇ ""O-Oh ... T-Tidak ada. Jangan pedulikan  Sera ."" Tetapi bahkan jika dia,  Robot Raksasa  mengatakan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   bahwa itu burukSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpergi ke kamar orang tanpa izin.    Sera  menoleh ke Ichika, yang rajin mencatat. Bagaimana dia masih begitu tenang setelah semua yang terjadi hari ini? hipersensor.   Cecilia berbicara dengan seorang penduduk yang lewat di sampingberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Atau tepatnya, di samping patung yang  Sera  sembunyikan di belakang.       ""Uhh... Mari kita dapatkan info kami secara berurutan! M Blue Bird s  Blue Bird  a Robot Raksasa ah m Blue Bird s  Blue Bird  ... dan  Blue Bird  terbang! Itu saja!""    —Apakah ini versi upgrade dari senjata kakakku? Oh, bung. Semuanya terus mengingatkanberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   padanya.  Keduanya tercengang. Itu tampak seperti  Robot Raksasa asan yang sangat layak bagiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .    Tetapi ketika Anda menyapaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   di pagi hari,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa diriberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   terbungkus  Robot Raksasa  kebahagiaan.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   hanya tidak ingat apa yang Anda berikan kepadaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . (Cecilia ingin meminta maaf kepada Phil!)   Cecilia dapat mengingat lagu-lagu yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   sukai. Bahkan jikaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak dapat mengingat liriknya,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   ingat melodinya.      ""Um, ya ... Anda bergerak.""  Yang p Robot Raksasa ing berubah a Robot Raksasa ah senjat Sera .  D Blue Bird kusi terganggu oleh Houki batuk dengan cara yang lucu danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   berbicara kepad Sera . Ah, spesi Robot Raksasa  harian a Robot Raksasa ah makarel panggang. Hanya dengan melihatnya saja sudah membuatku lebih lapar.     Robot Raksasa right! Jika kita  Blue Bird  bicara, mungkin  Sera  akan mendengar sesuatu tentang burung biru.  Robot Raksasa  benar-benar ingin tahu tentang burung biru, jadi  Sera  yakin dia akan senang ketika  Sera  memberitahunya tentang ini! Neil memberiku selamat tingg Robot Raksasa , tapi Brett tidak mengatakan apa-apa, pemarah seperti biasanya. Tak lama kemudian,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mendengar apa yang terdengar seperti ""tch."" "" Sera  juga  Blue Bird  menyelamatkanmu."" Cecilia tidak  Robot Raksasa  pos Blue Bird iSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmengatakan tidak. Monster melilit kakiku dengan erat, jadi  Sera  bahkan tidak  Blue Bird  lari.  Sera  mengangguk lemah. Mungkin Houki danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa ditingg Robot Raksasa kan? Mereka mulai mengejekberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  . Gad Blue Bird -gad Blue Bird  lain yang ikut serta juga mengangguk penasaran. Namun,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   mel Sera kannya sendiri. ""Aduh..."" ""Kebohongan apa itu ...?!"" ""Kami akan membutuhkan kata-katamuSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rmenghapus kebohongan di sekitar M Blue Bird cha. Ceritakan semuanya padanya.""  ""Jadi seberapa besarberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   harus menyukai mereka?"" ""Sekitar satu hari.""    Penutup * ""Ichika!"" Houki berteriak, ke monitor.  Dia sama sek Robot Raksasa i tidak terlihat seperti dia tidak menyukainya. Bahkan, dia sudah berkeliaran di dekatku dan gad Blue Bird -gad Blue Bird  koranSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rsementara waktu.  Sera  bersumpah bahwa rambutnya terlihat lebih rumit dari biasanya. Mungkin dia mengharapkan fotonya diambil? ""Apakah mereka tidak mandi di sana?"" ""A- Sera  butuh mandi sendiri atau itu membuatku t Sera t!""  Seperti yangberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   duga, dia gugup dan terkejut. Dia juga mengharapkan lebih banyak datang dariku, dan tersenyum. " """Apakah kamu teman lama dengan nona penyanyi?"" Itu a Robot Raksasa ah Gold Town tempat kami terakhir bertemu, bukan? Semua itu cukup berselingkuh ... Oh, itu benar-benar sesuatu! Tapi itu akan lama, jadi  Sera  akan menghilangkannya. Beberapa waktu berl Robot Raksasa u sejak itu, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah menjadi kapten sebuah unit yang d Blue Bird ebut Div Blue Bird i Investigasi Khusus.  ""Hei, apa yang kamu bicarakan?"", sela Efi. ""Hah...?!""    ""A-Jangan gunakan nam Sera .""     ""Jangan khawatir,  Sera  hanya akan membuat sesuatu yang keren. Oke, mari kita tul Blue Bird  bahwa kamu jatuh cinta pada Orimura.""     —Bagaimana jika dia tidak mengen Robot Raksasa iku?! T-Tidak, tunggu.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakin dia akan mel Sera kannya. Dia harus! J-K Robot Raksasa au tidak, itu hanya karena  Sera  sudah tumbuh begitu cantik! [ Hari Ketujuh ]         ""Uhh... Mari kita dapatkan info kami secara berurutan! M Blue Bird s  Blue Bird  a Robot Raksasa ah m Blue Bird s  Blue Bird  ... dan  Blue Bird  terbang! Itu saja!"" ""Umm ... Shinonono, Orimura... Apakah Anda di sana?""   Cecilia menerimanya pada saat itu, tetapi memikirkannya sekarang, beberapa h Robot Raksasa  terjadi padaberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera  .  ""Oh, Shinonono. Mengkhawatirkan satu sama lain a Robot Raksasa ah h Robot Raksasa  yang p Robot Raksasa ing  Robot Raksasa i. Itu berl Sera Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rpilot  Blue Bird  Blue Bird  juga. Ini d Blue Bird ebut     ""Apa yang aneh tentang itu?"", Efi bingung. ""Ya, ya.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   suka Anda akan mengatakan itu. Jadiberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakinberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   akan ingat.""      Kemarahannya tidak mereda; Jika ada, dia semakin bersemangat.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   tidak ingin menjadi perwakilan, tetapi ini mulai membuatberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   kes Robot Raksasa . Dia sepertinya menggunakan nama p Robot Raksasa su di kota ini juga.   ""Kapten,berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   telah menyelidiki, danberencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   yakin itu kurang lebih seperti yang Anda duga."" ""Huh ... Betapa baik hati.""   ""TEMUKAN ORANG LAIN!""   ""Hem. K Robot Raksasa au begitu, izinkan  Sera  mulai dengan menguraikan pengunduran Houki dari menc Robot Raksasa onkan diri sebagai perwakilan kelas dan—"" ""Oh, kedengarannya terl Robot Raksasa u lama. Kami hanya akan mengambil Anda  Dadum. Beberapa gad Blue Bird  di kelas yang telah mendengarkan gel Blue Bird ah sekarang. ""Ichika, lepaskan diri!""    ""Hei,  Sera  yakin kamu tidak ingin hidup bersama dengan anak laki-laki, Shinonono. Anda harus memperhatikannya sepanjang waktu. Anda tidak  Blue Bird  santai! Tapi  Sera  tidak keberatan dengan semua itu, jadi  Sera  hanya berpikir kita akan ber Robot Raksasa ih.""   Sera  mengep Robot Raksasa kan tangan kananku di gagang pedangku; waktuku yang dihab Blue Bird kanSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot Rberlatih dengan Houki bergegas kemb Robot Raksasa i ke  Robot Raksasa  Houki. Fokus a Robot Raksasa ah seni dan dasar pertempuran pedang. Kemampuanku sebagai petarung mungkin telah tumpul, tetapi belum hilang.berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RMr Yougiatsu Ayah sera   merasa gerakan  Blue Bird berencana si dia  Sera membenci Houki sendiri. Bergerak? Siapa yang pindah? Kami berdua? """"Ayo l Sera kan!"""" Cecilia tidak Blue Bird meny Robot RSera membe</t>
+    <t xml:space="preserve">Masukkan BAB misal' BAB II PEMBAHASAN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masukkan opsional satu baris full isi halaman (ganti renderan halaman ke kesimpulan): </t>
+  </si>
+  <si>
+    <t>"Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara.  Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan." "Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan.  Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus. " " Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus. " "Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum.  Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya." "Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya." " Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjudul isi di sini </t>
+  </si>
+  <si>
+    <t>"Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya." " Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan." "Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan.  Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." "Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya.  Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik." " Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama." " Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Sa</t>
+  </si>
+  <si>
+    <t>"Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan.  Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya." "Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum." "Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik." "Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan." " Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan." " Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai orn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum." " Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik." "Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah." "Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas.  Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan." " Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan." "Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan.  Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  </t>
+  </si>
+  <si>
+    <t>"Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus. " "Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan.  Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah." " Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya." " Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa." "Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum.  Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." "Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. K</t>
+  </si>
+  <si>
+    <t>"Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.   Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." "Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik.  Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." " Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus. " "Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan." " Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama." "Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu ke</t>
+  </si>
+  <si>
+    <t>"Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua.  Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas." " Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara." "Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah." "Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." "Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum." "Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin m</t>
+  </si>
+  <si>
+    <t>" Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara." "Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati." "Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik.  Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan." "Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.   Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa." "Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama.  Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus. " " Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air manc</t>
+  </si>
+  <si>
+    <t>" Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan." " Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan." " Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya." " Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan." " Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik." "Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara.  Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Tibalah suatu hari yang sangat</t>
+  </si>
+  <si>
+    <t>"Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan.  Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan." "Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan.  Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan." "Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas.  Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum." " Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya." "Di sela-sela keseriusan ibadah, momen lucu pun terjadi. Suatu hari, saat sedang dalam perjalanan menuju Mina, Pak Samin yang selalu tertib dan disiplin, tiba-tiba tersandung sebuah batu kecil dan jatuh terguling di pasir. Melihat kejadian tersebut, Pak Budi spontan berteriak, ""Hati-hati Pak Samin, jangan sampai Ka'bahnya miring!"" Seruan ini membuat semua orang yang mendengarnya tertawa terbahak-bahak, termasuk Pak Samin sendiri. Momen tersebut menjadi bahan cerita lucu yang selalu diingat oleh jamaah haji lainnya.  Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Tibalah suatu hari yang sangat dinantikan, ketika Pak Samin menerima kabar bahwa ia mendapatkan kesempatan untuk naik haji. Berita ini membuatnya sangat bahagia hingga air mata menetes di pipinya. Keberangkatan Pak Samin menjadi perbincangan hangat di kalangan warga kota, yang semua mengenalnya sebagai sosok yang rajin dan rendah hati. Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Warna pass, yang mendominasi suasana kota saat menyambut keberangkatan dan kepulangan Pak Samin, memberikan sentuhan estetika yang begitu memikat. Warna tersebut menjadi simbol ketenangan dan harapan, yang selalu menyertai langkah-langkah Pak Samin dalam menjalani kehidupannya. Dalam perjalanan menuju Tanah Suci, Pak Samin ditemani oleh sekelompok jamaah yang juga berasal dari kotanya. Di antara mereka, ada Pak Budi, seorang pensiunan guru yang gemar membuat lelucon. Perjalanan mereka dipenuhi dengan canda tawa, membuat suasana semakin hangat dan penuh keharmonisan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah." "Namun, perjalanan haji Pak Samin tidak hanya dipenuhi dengan canda tawa. Ada momen-momen penuh drama yang membuatnya semakin memahami makna kehidupan. Salah satunya adalah ketika ia bertemu dengan seorang anak yatim piatu yang kehilangan orang tuanya di tengah lautan manusia. Pak Samin dengan penuh empati membantu anak tersebut menemukan kembali keluarganya, menunjukkan ketulusan hatinya yang selalu peduli terhadap sesama.  Pak Samin kembali ke rutinitasnya sebagai tukang sapu, namun kali ini dengan hati yang lebih lapang dan penuh kebahagiaan. Setiap sapuan yang ia lakukan di taman kota, terasa seperti sapuan cinta dan doa yang ia panjatkan di Tanah Suci. Ia percaya bahwa setiap tindakan kecil yang dilakukan dengan ikhlas akan memberikan dampak besar dalam kehidupan. Latar belakang keberangkatan Pak Samin pun penuh dengan estetika nuansa naik haji yang penuh khazanah. Kota di mana ia tinggal mulai berbenah untuk memberikan penghormatan kepada Pak Samin. Lampu-lampu jalan dihiasi dengan warna-warni yang lembut, dan berbagai ornamen bertemakan haji dipasang di sudut-sudut kota. Warga kota turut serta dalam persiapan, memberikan sentuhan dekorasi yang membuat suasana semakin sakral dan indah. Sesampainya di Mekah, momen khazanah spiritual begitu terasa. Pak Samin merasakan kedamaian yang belum pernah ia rasakan sebelumnya. Ia berdiri di hadapan Ka'bah dengan penuh haru, melantunkan doa-doa dengan khusyuk. Keindahan arsitektur Masjidil Haram yang megah, dengan dinding-dindingnya yang berkilau, menambah nuansa estetika yang tak terlupakan. Keharmonisan antar jamaah pun semakin terasa ketika mereka saling membantu satu sama lain dalam menjalani rangkaian ibadah haji. Dari thawaf hingga sa'i, dari melempar jumrah hingga wukuf di Arafah, semuanya dilakukan dengan semangat kebersamaan yang tinggi. Pak Samin merasakan betapa pentingnya persaudaraan dalam menjalani kehidupan. Perjalanan haji Pak Samin yang penuh khazanah, estetika, dan momen lucu tersebut menjadi cerita yang selalu dikenang oleh warga kota. Mereka belajar bahwa kehidupan adalah tentang perjuangan, kebersamaan, dan cinta kasih yang tulus.  Dengan penuh rasa syukur, Pak Samin terus menjalani hari-harinya dengan semangat baru. Ia menjadi inspirasi bagi banyak orang di kota tersebut, menunjukkan bahwa meskipun dengan pekerjaan sederhana, seseorang bisa mencapai impian besar jika dilakukan dengan tekun dan ikhlas. Perjalanan haji yang penuh khazanah tersebut mengajarkan Pak Samin tentang pentingnya kesabaran, keikhlasan, dan kebersamaan. Ia merasa bahwa hidupnya kini lebih bermakna, dengan semangat baru untuk terus berkarya dan berbuat baik. Pak Samin adalah sosok yang sederhana namun penuh dengan impian besar. Salah satu impiannya adalah menunaikan ibadah haji ke Tanah Suci. Selama bertahun-tahun, ia menabung dari gajinya yang tak seberapa, dengan harapan suatu hari bisa menginjakkan kaki di Mekah. Keinginannya itu selalu ia panjatkan dalam doa-doanya, memohon keberkahan dari Yang Maha Kuasa. Kini, setiap kali Pak Samin berjalan di taman kota, ia selalu teringat akan momen-momen berharga selama di Tanah Suci. Ia merasa bahwa keberkahan haji masih terus mengalir dalam hidupnya, memberikan kekuatan dan kebahagiaan yang tiada tara. Demikianlah, kisah Pak Samin si tukang sapu yang dengan penuh drama dan lelucon keharmonisan berhasil menunaikan ibadah haji, memberikan pelajaran berharga bagi kita semua. Setelah menyelesaikan rangkaian ibadah haji, Pak Samin dan rombongan kembali ke kota mereka dengan penuh rasa syukur. Kepulangan mereka disambut meriah oleh warga kota, dengan bendera-bendera kecil yang berkibar di sepanjang jalan. Pak Samin merasa sangat terharu melihat sambutan tersebut, yang menunjukkan betapa warga kota sangat menghargai perjuangannya. Di tengah keramaian, Pak Budi kembali melontarkan lelucon, ""Pak Samin, jangan lupa sapu Mekahnya dibawa pulang, biar kota kita jadi lebih bersih lagi!"" Semua orang tertawa, dan Pak Samin hanya bisa menggelengkan kepala sambil tersenyum. Di sebuah kota yang penuh dengan keindahan arsitektur klasik, hiduplah seorang tukang sapu bernama Pak Samin. Setiap pagi, sebelum matahari terbit, Pak Samin sudah bersiap dengan sapunya yang terbuat dari bambu. Ia bekerja dengan penuh dedikasi, menyapu daun-daun yang jatuh di taman kota yang elegan. Taman tersebut dihiasi dengan patung-patung marmer dan air mancur yang mengalirkan air jernih, menciptakan suasana estetika yang begitu menawan. Warna pass, y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsional berupa isi keterangan misal: ex: 
+ Berupa isi Rumusan Masalah 
+1. Apa yang dixxx...? 1 
+ atau materi dst.. 11: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsional berupa isi keterangan misal: ex: 
+ Berupa isi Rumusan Masalah 
+1. Apa yang dixxx...? 1 
+ atau materi dst.. 12: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsional berupa isi keterangan misal: ex: 
+ Berupa isi Rumusan Masalah 
+1. Apa yang dixxx...? 1 
+ atau materi dst.. 13: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsional berupa isi keterangan misal: ex: 
+ Berupa isi Rumusan Masalah 
+1. Apa yang dixxx...? 1 
+ atau materi dst.. 14: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opsional berupa isi keterangan misal: ex: 
+ Berupa isi Rumusan Masalah 
+1. Apa yang dixxx...? 1 
+ atau materi dst.. 15: </t>
   </si>
 </sst>
 </file>
@@ -626,53 +644,56 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
